--- a/Orga/gantt-chart.xlsx
+++ b/Orga/gantt-chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lara\Studium\Informatik\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lara\Thesis\MasterThesis\Orga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E40B3-0AA1-4BAC-BE46-91F9ABF85C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6361277-E1E6-48BB-BB04-CFFB4A98C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Status</t>
   </si>
   <si>
     <t>Open</t>
-  </si>
-  <si>
-    <t>In process</t>
   </si>
   <si>
     <t>Task name</t>
@@ -135,6 +132,12 @@
   </si>
   <si>
     <t>Trello Board: https://trello.com/invite/b/66b49757c81bc7c156eac92e/ATTI27d483879ab9a03125f93e96052f900d459A05AD/thesis</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -556,35 +559,35 @@
   </sheetPr>
   <dimension ref="A1:AG1006"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="33" width="4.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="33" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="65.400000000000006" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
@@ -674,10 +677,10 @@
         <v>45716</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>45536</v>
@@ -686,7 +689,7 @@
         <v>45579</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -717,10 +720,10 @@
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6">
         <v>45536</v>
@@ -729,7 +732,7 @@
         <v>45544</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -760,10 +763,10 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>45544</v>
@@ -772,7 +775,7 @@
         <v>45551</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -803,10 +806,10 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
     </row>
-    <row r="6" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6">
         <v>45544</v>
@@ -815,7 +818,7 @@
         <v>45551</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -846,10 +849,10 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6">
         <v>45551</v>
@@ -858,7 +861,7 @@
         <v>45558</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -889,10 +892,10 @@
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
     </row>
-    <row r="8" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6">
         <v>45558</v>
@@ -932,10 +935,10 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6">
         <v>45579</v>
@@ -944,7 +947,7 @@
         <v>45628</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -975,10 +978,10 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6">
         <v>45579</v>
@@ -1018,10 +1021,10 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="11" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6">
         <v>45579</v>
@@ -1030,7 +1033,7 @@
         <v>45600</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1061,10 +1064,10 @@
       <c r="AF11" s="8"/>
       <c r="AG11" s="8"/>
     </row>
-    <row r="12" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6">
         <v>45586</v>
@@ -1104,10 +1107,10 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
     </row>
-    <row r="13" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>45586</v>
@@ -1116,7 +1119,7 @@
         <v>45607</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1147,10 +1150,10 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
     </row>
-    <row r="14" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6">
         <v>45586</v>
@@ -1159,7 +1162,7 @@
         <v>45607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1190,10 +1193,10 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
     </row>
-    <row r="15" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6">
         <v>45607</v>
@@ -1233,10 +1236,10 @@
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
     </row>
-    <row r="16" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="6">
         <v>45607</v>
@@ -1276,10 +1279,10 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6">
         <v>45600</v>
@@ -1319,10 +1322,10 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
     </row>
-    <row r="18" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6">
         <v>45600</v>
@@ -1362,10 +1365,10 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
     </row>
-    <row r="19" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6">
         <v>45607</v>
@@ -1405,10 +1408,10 @@
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
     </row>
-    <row r="20" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6">
         <v>45614</v>
@@ -1448,10 +1451,10 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6">
         <v>45642</v>
@@ -1491,10 +1494,10 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="6">
         <v>45649</v>
@@ -1534,10 +1537,10 @@
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
     </row>
-    <row r="23" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6">
         <v>45649</v>
@@ -1577,10 +1580,10 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
     </row>
-    <row r="24" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="6">
         <v>45649</v>
@@ -1620,10 +1623,10 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
     </row>
-    <row r="25" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6">
         <v>45670</v>
@@ -1663,10 +1666,10 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6">
         <v>45663</v>
@@ -1706,10 +1709,10 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="6">
         <v>45663</v>
@@ -1749,10 +1752,10 @@
       <c r="AF27" s="8"/>
       <c r="AG27" s="8"/>
     </row>
-    <row r="28" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="6">
         <v>45663</v>
@@ -1792,10 +1795,10 @@
       <c r="AF28" s="8"/>
       <c r="AG28" s="8"/>
     </row>
-    <row r="29" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="6">
         <v>45663</v>
@@ -1835,10 +1838,10 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
     </row>
-    <row r="30" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="6">
         <v>45691</v>
@@ -1878,7 +1881,7 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
     </row>
-    <row r="31" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="10"/>
       <c r="C31" s="6"/>
@@ -1913,7 +1916,7 @@
       <c r="AF31" s="8"/>
       <c r="AG31" s="8"/>
     </row>
-    <row r="32" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="10"/>
       <c r="C32" s="6"/>
@@ -1948,7 +1951,7 @@
       <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
     </row>
-    <row r="33" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="10"/>
       <c r="C33" s="6"/>
@@ -1983,7 +1986,7 @@
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
     </row>
-    <row r="34" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="9"/>
       <c r="C34" s="6"/>
@@ -2018,10 +2021,10 @@
       <c r="AF34" s="8"/>
       <c r="AG34" s="8"/>
     </row>
-    <row r="35" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2055,7 +2058,7 @@
       <c r="AF35" s="8"/>
       <c r="AG35" s="8"/>
     </row>
-    <row r="36" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="9"/>
       <c r="C36" s="6"/>
@@ -2090,7 +2093,7 @@
       <c r="AF36" s="8"/>
       <c r="AG36" s="8"/>
     </row>
-    <row r="37" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="9"/>
       <c r="C37" s="6"/>
@@ -2125,7 +2128,7 @@
       <c r="AF37" s="8"/>
       <c r="AG37" s="8"/>
     </row>
-    <row r="38" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="9"/>
       <c r="C38" s="6"/>
@@ -2160,7 +2163,7 @@
       <c r="AF38" s="8"/>
       <c r="AG38" s="8"/>
     </row>
-    <row r="39" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
       <c r="C39" s="6"/>
@@ -2195,7 +2198,7 @@
       <c r="AF39" s="8"/>
       <c r="AG39" s="8"/>
     </row>
-    <row r="40" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="9"/>
       <c r="C40" s="6"/>
@@ -2230,7 +2233,7 @@
       <c r="AF40" s="8"/>
       <c r="AG40" s="8"/>
     </row>
-    <row r="41" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="9"/>
       <c r="C41" s="6"/>
@@ -2265,7 +2268,7 @@
       <c r="AF41" s="8"/>
       <c r="AG41" s="8"/>
     </row>
-    <row r="42" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="9"/>
       <c r="C42" s="6"/>
@@ -2300,7 +2303,7 @@
       <c r="AF42" s="8"/>
       <c r="AG42" s="8"/>
     </row>
-    <row r="43" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="9"/>
       <c r="C43" s="6"/>
@@ -2335,7 +2338,7 @@
       <c r="AF43" s="8"/>
       <c r="AG43" s="8"/>
     </row>
-    <row r="44" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="9"/>
       <c r="C44" s="6"/>
@@ -2370,7 +2373,7 @@
       <c r="AF44" s="8"/>
       <c r="AG44" s="8"/>
     </row>
-    <row r="45" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="9"/>
       <c r="C45" s="6"/>
@@ -2405,7 +2408,7 @@
       <c r="AF45" s="8"/>
       <c r="AG45" s="8"/>
     </row>
-    <row r="46" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="9"/>
       <c r="C46" s="6"/>
@@ -2440,7 +2443,7 @@
       <c r="AF46" s="8"/>
       <c r="AG46" s="8"/>
     </row>
-    <row r="47" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="9"/>
       <c r="C47" s="6"/>
@@ -2475,7 +2478,7 @@
       <c r="AF47" s="8"/>
       <c r="AG47" s="8"/>
     </row>
-    <row r="48" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
@@ -2510,7 +2513,7 @@
       <c r="AF48" s="8"/>
       <c r="AG48" s="8"/>
     </row>
-    <row r="49" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="9"/>
       <c r="C49" s="6"/>
@@ -2545,7 +2548,7 @@
       <c r="AF49" s="8"/>
       <c r="AG49" s="8"/>
     </row>
-    <row r="50" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="9"/>
       <c r="C50" s="6"/>
@@ -2580,7 +2583,7 @@
       <c r="AF50" s="8"/>
       <c r="AG50" s="8"/>
     </row>
-    <row r="51" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="9"/>
       <c r="C51" s="6"/>
@@ -2615,7 +2618,7 @@
       <c r="AF51" s="8"/>
       <c r="AG51" s="8"/>
     </row>
-    <row r="52" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="9"/>
       <c r="C52" s="6"/>
@@ -2650,7 +2653,7 @@
       <c r="AF52" s="8"/>
       <c r="AG52" s="8"/>
     </row>
-    <row r="53" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="9"/>
       <c r="C53" s="6"/>
@@ -2685,7 +2688,7 @@
       <c r="AF53" s="8"/>
       <c r="AG53" s="8"/>
     </row>
-    <row r="54" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="9"/>
       <c r="C54" s="6"/>
@@ -2720,7 +2723,7 @@
       <c r="AF54" s="8"/>
       <c r="AG54" s="8"/>
     </row>
-    <row r="55" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="9"/>
       <c r="C55" s="6"/>
@@ -2755,7 +2758,7 @@
       <c r="AF55" s="8"/>
       <c r="AG55" s="8"/>
     </row>
-    <row r="56" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="9"/>
       <c r="C56" s="6"/>
@@ -2790,7 +2793,7 @@
       <c r="AF56" s="8"/>
       <c r="AG56" s="8"/>
     </row>
-    <row r="57" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="9"/>
       <c r="C57" s="6"/>
@@ -2825,7 +2828,7 @@
       <c r="AF57" s="8"/>
       <c r="AG57" s="8"/>
     </row>
-    <row r="58" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="9"/>
       <c r="C58" s="6"/>
@@ -2860,7 +2863,7 @@
       <c r="AF58" s="8"/>
       <c r="AG58" s="8"/>
     </row>
-    <row r="59" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="9"/>
       <c r="C59" s="6"/>
@@ -2895,7 +2898,7 @@
       <c r="AF59" s="8"/>
       <c r="AG59" s="8"/>
     </row>
-    <row r="60" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="9"/>
       <c r="C60" s="6"/>
@@ -2930,7 +2933,7 @@
       <c r="AF60" s="8"/>
       <c r="AG60" s="8"/>
     </row>
-    <row r="61" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="9"/>
       <c r="C61" s="6"/>
@@ -2965,7 +2968,7 @@
       <c r="AF61" s="8"/>
       <c r="AG61" s="8"/>
     </row>
-    <row r="62" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="9"/>
       <c r="C62" s="6"/>
@@ -3000,7 +3003,7 @@
       <c r="AF62" s="8"/>
       <c r="AG62" s="8"/>
     </row>
-    <row r="63" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="9"/>
       <c r="C63" s="6"/>
@@ -3035,7 +3038,7 @@
       <c r="AF63" s="8"/>
       <c r="AG63" s="8"/>
     </row>
-    <row r="64" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="9"/>
       <c r="C64" s="6"/>
@@ -3070,7 +3073,7 @@
       <c r="AF64" s="8"/>
       <c r="AG64" s="8"/>
     </row>
-    <row r="65" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="9"/>
       <c r="C65" s="6"/>
@@ -3105,7 +3108,7 @@
       <c r="AF65" s="8"/>
       <c r="AG65" s="8"/>
     </row>
-    <row r="66" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="9"/>
       <c r="C66" s="6"/>
@@ -3140,7 +3143,7 @@
       <c r="AF66" s="8"/>
       <c r="AG66" s="8"/>
     </row>
-    <row r="67" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="9"/>
       <c r="C67" s="6"/>
@@ -3175,7 +3178,7 @@
       <c r="AF67" s="8"/>
       <c r="AG67" s="8"/>
     </row>
-    <row r="68" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="9"/>
       <c r="C68" s="6"/>
@@ -3210,7 +3213,7 @@
       <c r="AF68" s="8"/>
       <c r="AG68" s="8"/>
     </row>
-    <row r="69" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="9"/>
       <c r="C69" s="6"/>
@@ -3245,7 +3248,7 @@
       <c r="AF69" s="8"/>
       <c r="AG69" s="8"/>
     </row>
-    <row r="70" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="9"/>
       <c r="C70" s="6"/>
@@ -3280,7 +3283,7 @@
       <c r="AF70" s="8"/>
       <c r="AG70" s="8"/>
     </row>
-    <row r="71" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="9"/>
       <c r="C71" s="6"/>
@@ -3315,7 +3318,7 @@
       <c r="AF71" s="8"/>
       <c r="AG71" s="8"/>
     </row>
-    <row r="72" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="9"/>
       <c r="C72" s="6"/>
@@ -3350,7 +3353,7 @@
       <c r="AF72" s="8"/>
       <c r="AG72" s="8"/>
     </row>
-    <row r="73" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="9"/>
       <c r="C73" s="6"/>
@@ -3385,7 +3388,7 @@
       <c r="AF73" s="8"/>
       <c r="AG73" s="8"/>
     </row>
-    <row r="74" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="9"/>
       <c r="C74" s="6"/>
@@ -3420,7 +3423,7 @@
       <c r="AF74" s="8"/>
       <c r="AG74" s="8"/>
     </row>
-    <row r="75" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="9"/>
       <c r="C75" s="6"/>
@@ -3455,7 +3458,7 @@
       <c r="AF75" s="8"/>
       <c r="AG75" s="8"/>
     </row>
-    <row r="76" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="9"/>
       <c r="C76" s="6"/>
@@ -3490,7 +3493,7 @@
       <c r="AF76" s="8"/>
       <c r="AG76" s="8"/>
     </row>
-    <row r="77" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="9"/>
       <c r="C77" s="6"/>
@@ -3525,7 +3528,7 @@
       <c r="AF77" s="8"/>
       <c r="AG77" s="8"/>
     </row>
-    <row r="78" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="9"/>
       <c r="C78" s="6"/>
@@ -3560,7 +3563,7 @@
       <c r="AF78" s="8"/>
       <c r="AG78" s="8"/>
     </row>
-    <row r="79" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="9"/>
       <c r="C79" s="6"/>
@@ -3595,7 +3598,7 @@
       <c r="AF79" s="8"/>
       <c r="AG79" s="8"/>
     </row>
-    <row r="80" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="9"/>
       <c r="C80" s="6"/>
@@ -3630,7 +3633,7 @@
       <c r="AF80" s="8"/>
       <c r="AG80" s="8"/>
     </row>
-    <row r="81" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="9"/>
       <c r="C81" s="6"/>
@@ -3665,7 +3668,7 @@
       <c r="AF81" s="8"/>
       <c r="AG81" s="8"/>
     </row>
-    <row r="82" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="9"/>
       <c r="C82" s="6"/>
@@ -3700,7 +3703,7 @@
       <c r="AF82" s="8"/>
       <c r="AG82" s="8"/>
     </row>
-    <row r="83" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="9"/>
       <c r="C83" s="6"/>
@@ -3735,7 +3738,7 @@
       <c r="AF83" s="8"/>
       <c r="AG83" s="8"/>
     </row>
-    <row r="84" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="9"/>
       <c r="C84" s="6"/>
@@ -3770,7 +3773,7 @@
       <c r="AF84" s="8"/>
       <c r="AG84" s="8"/>
     </row>
-    <row r="85" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="9"/>
       <c r="C85" s="6"/>
@@ -3805,7 +3808,7 @@
       <c r="AF85" s="8"/>
       <c r="AG85" s="8"/>
     </row>
-    <row r="86" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="9"/>
       <c r="C86" s="6"/>
@@ -3840,7 +3843,7 @@
       <c r="AF86" s="8"/>
       <c r="AG86" s="8"/>
     </row>
-    <row r="87" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="9"/>
       <c r="C87" s="6"/>
@@ -3875,7 +3878,7 @@
       <c r="AF87" s="8"/>
       <c r="AG87" s="8"/>
     </row>
-    <row r="88" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="9"/>
       <c r="C88" s="6"/>
@@ -3910,7 +3913,7 @@
       <c r="AF88" s="8"/>
       <c r="AG88" s="8"/>
     </row>
-    <row r="89" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="9"/>
       <c r="C89" s="6"/>
@@ -3945,7 +3948,7 @@
       <c r="AF89" s="8"/>
       <c r="AG89" s="8"/>
     </row>
-    <row r="90" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="9"/>
       <c r="C90" s="6"/>
@@ -3980,7 +3983,7 @@
       <c r="AF90" s="8"/>
       <c r="AG90" s="8"/>
     </row>
-    <row r="91" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="9"/>
       <c r="C91" s="6"/>
@@ -4015,7 +4018,7 @@
       <c r="AF91" s="8"/>
       <c r="AG91" s="8"/>
     </row>
-    <row r="92" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="9"/>
       <c r="C92" s="6"/>
@@ -4050,7 +4053,7 @@
       <c r="AF92" s="8"/>
       <c r="AG92" s="8"/>
     </row>
-    <row r="93" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="9"/>
       <c r="C93" s="6"/>
@@ -4085,7 +4088,7 @@
       <c r="AF93" s="8"/>
       <c r="AG93" s="8"/>
     </row>
-    <row r="94" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="9"/>
       <c r="C94" s="6"/>
@@ -4120,7 +4123,7 @@
       <c r="AF94" s="8"/>
       <c r="AG94" s="8"/>
     </row>
-    <row r="95" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="9"/>
       <c r="C95" s="6"/>
@@ -4155,7 +4158,7 @@
       <c r="AF95" s="8"/>
       <c r="AG95" s="8"/>
     </row>
-    <row r="96" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="9"/>
       <c r="C96" s="6"/>
@@ -4190,7 +4193,7 @@
       <c r="AF96" s="8"/>
       <c r="AG96" s="8"/>
     </row>
-    <row r="97" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="9"/>
       <c r="C97" s="6"/>
@@ -4225,7 +4228,7 @@
       <c r="AF97" s="8"/>
       <c r="AG97" s="8"/>
     </row>
-    <row r="98" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="9"/>
       <c r="C98" s="6"/>
@@ -4260,7 +4263,7 @@
       <c r="AF98" s="8"/>
       <c r="AG98" s="8"/>
     </row>
-    <row r="99" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="9"/>
       <c r="C99" s="6"/>
@@ -4295,7 +4298,7 @@
       <c r="AF99" s="8"/>
       <c r="AG99" s="8"/>
     </row>
-    <row r="100" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="9"/>
       <c r="C100" s="6"/>
@@ -4330,7 +4333,7 @@
       <c r="AF100" s="8"/>
       <c r="AG100" s="8"/>
     </row>
-    <row r="101" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="9"/>
       <c r="C101" s="6"/>
@@ -4365,7 +4368,7 @@
       <c r="AF101" s="8"/>
       <c r="AG101" s="8"/>
     </row>
-    <row r="102" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="9"/>
       <c r="C102" s="6"/>
@@ -4400,7 +4403,7 @@
       <c r="AF102" s="8"/>
       <c r="AG102" s="8"/>
     </row>
-    <row r="103" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="9"/>
       <c r="C103" s="6"/>
@@ -4435,7 +4438,7 @@
       <c r="AF103" s="8"/>
       <c r="AG103" s="8"/>
     </row>
-    <row r="104" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="9"/>
       <c r="C104" s="6"/>
@@ -4470,7 +4473,7 @@
       <c r="AF104" s="8"/>
       <c r="AG104" s="8"/>
     </row>
-    <row r="105" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="9"/>
       <c r="C105" s="6"/>
@@ -4505,7 +4508,7 @@
       <c r="AF105" s="8"/>
       <c r="AG105" s="8"/>
     </row>
-    <row r="106" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="9"/>
       <c r="C106" s="6"/>
@@ -4540,7 +4543,7 @@
       <c r="AF106" s="8"/>
       <c r="AG106" s="8"/>
     </row>
-    <row r="107" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="9"/>
       <c r="C107" s="6"/>
@@ -4575,7 +4578,7 @@
       <c r="AF107" s="8"/>
       <c r="AG107" s="8"/>
     </row>
-    <row r="108" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="9"/>
       <c r="C108" s="6"/>
@@ -4610,7 +4613,7 @@
       <c r="AF108" s="8"/>
       <c r="AG108" s="8"/>
     </row>
-    <row r="109" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="9"/>
       <c r="C109" s="6"/>
@@ -4645,7 +4648,7 @@
       <c r="AF109" s="8"/>
       <c r="AG109" s="8"/>
     </row>
-    <row r="110" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="9"/>
       <c r="C110" s="6"/>
@@ -4680,7 +4683,7 @@
       <c r="AF110" s="8"/>
       <c r="AG110" s="8"/>
     </row>
-    <row r="111" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="9"/>
       <c r="C111" s="6"/>
@@ -4715,7 +4718,7 @@
       <c r="AF111" s="8"/>
       <c r="AG111" s="8"/>
     </row>
-    <row r="112" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="9"/>
       <c r="C112" s="6"/>
@@ -4750,7 +4753,7 @@
       <c r="AF112" s="8"/>
       <c r="AG112" s="8"/>
     </row>
-    <row r="113" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="9"/>
       <c r="C113" s="6"/>
@@ -4785,7 +4788,7 @@
       <c r="AF113" s="8"/>
       <c r="AG113" s="8"/>
     </row>
-    <row r="114" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="9"/>
       <c r="C114" s="6"/>
@@ -4820,7 +4823,7 @@
       <c r="AF114" s="8"/>
       <c r="AG114" s="8"/>
     </row>
-    <row r="115" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="9"/>
       <c r="C115" s="6"/>
@@ -4855,7 +4858,7 @@
       <c r="AF115" s="8"/>
       <c r="AG115" s="8"/>
     </row>
-    <row r="116" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="9"/>
       <c r="C116" s="6"/>
@@ -4890,7 +4893,7 @@
       <c r="AF116" s="8"/>
       <c r="AG116" s="8"/>
     </row>
-    <row r="117" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="9"/>
       <c r="C117" s="6"/>
@@ -4925,7 +4928,7 @@
       <c r="AF117" s="8"/>
       <c r="AG117" s="8"/>
     </row>
-    <row r="118" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="9"/>
       <c r="C118" s="6"/>
@@ -4960,7 +4963,7 @@
       <c r="AF118" s="8"/>
       <c r="AG118" s="8"/>
     </row>
-    <row r="119" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="9"/>
       <c r="C119" s="6"/>
@@ -4995,7 +4998,7 @@
       <c r="AF119" s="8"/>
       <c r="AG119" s="8"/>
     </row>
-    <row r="120" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="9"/>
       <c r="C120" s="6"/>
@@ -5030,7 +5033,7 @@
       <c r="AF120" s="8"/>
       <c r="AG120" s="8"/>
     </row>
-    <row r="121" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="9"/>
       <c r="C121" s="6"/>
@@ -5065,7 +5068,7 @@
       <c r="AF121" s="8"/>
       <c r="AG121" s="8"/>
     </row>
-    <row r="122" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="9"/>
       <c r="C122" s="6"/>
@@ -5100,7 +5103,7 @@
       <c r="AF122" s="8"/>
       <c r="AG122" s="8"/>
     </row>
-    <row r="123" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="9"/>
       <c r="C123" s="6"/>
@@ -5135,7 +5138,7 @@
       <c r="AF123" s="8"/>
       <c r="AG123" s="8"/>
     </row>
-    <row r="124" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="9"/>
       <c r="C124" s="6"/>
@@ -5170,7 +5173,7 @@
       <c r="AF124" s="8"/>
       <c r="AG124" s="8"/>
     </row>
-    <row r="125" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="9"/>
       <c r="C125" s="6"/>
@@ -5205,7 +5208,7 @@
       <c r="AF125" s="8"/>
       <c r="AG125" s="8"/>
     </row>
-    <row r="126" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="9"/>
       <c r="C126" s="6"/>
@@ -5240,7 +5243,7 @@
       <c r="AF126" s="8"/>
       <c r="AG126" s="8"/>
     </row>
-    <row r="127" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="9"/>
       <c r="C127" s="6"/>
@@ -5275,7 +5278,7 @@
       <c r="AF127" s="8"/>
       <c r="AG127" s="8"/>
     </row>
-    <row r="128" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="9"/>
       <c r="C128" s="6"/>
@@ -5310,7 +5313,7 @@
       <c r="AF128" s="8"/>
       <c r="AG128" s="8"/>
     </row>
-    <row r="129" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="9"/>
       <c r="C129" s="6"/>
@@ -5345,7 +5348,7 @@
       <c r="AF129" s="8"/>
       <c r="AG129" s="8"/>
     </row>
-    <row r="130" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="9"/>
       <c r="C130" s="6"/>
@@ -5380,7 +5383,7 @@
       <c r="AF130" s="8"/>
       <c r="AG130" s="8"/>
     </row>
-    <row r="131" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="9"/>
       <c r="C131" s="6"/>
@@ -5415,7 +5418,7 @@
       <c r="AF131" s="8"/>
       <c r="AG131" s="8"/>
     </row>
-    <row r="132" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="9"/>
       <c r="C132" s="6"/>
@@ -5450,7 +5453,7 @@
       <c r="AF132" s="8"/>
       <c r="AG132" s="8"/>
     </row>
-    <row r="133" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="9"/>
       <c r="C133" s="6"/>
@@ -5485,7 +5488,7 @@
       <c r="AF133" s="8"/>
       <c r="AG133" s="8"/>
     </row>
-    <row r="134" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="9"/>
       <c r="C134" s="6"/>
@@ -5520,7 +5523,7 @@
       <c r="AF134" s="8"/>
       <c r="AG134" s="8"/>
     </row>
-    <row r="135" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="9"/>
       <c r="C135" s="6"/>
@@ -5555,7 +5558,7 @@
       <c r="AF135" s="8"/>
       <c r="AG135" s="8"/>
     </row>
-    <row r="136" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="9"/>
       <c r="C136" s="6"/>
@@ -5590,7 +5593,7 @@
       <c r="AF136" s="8"/>
       <c r="AG136" s="8"/>
     </row>
-    <row r="137" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="9"/>
       <c r="C137" s="6"/>
@@ -5625,7 +5628,7 @@
       <c r="AF137" s="8"/>
       <c r="AG137" s="8"/>
     </row>
-    <row r="138" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="9"/>
       <c r="C138" s="6"/>
@@ -5660,7 +5663,7 @@
       <c r="AF138" s="8"/>
       <c r="AG138" s="8"/>
     </row>
-    <row r="139" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="9"/>
       <c r="C139" s="6"/>
@@ -5695,7 +5698,7 @@
       <c r="AF139" s="8"/>
       <c r="AG139" s="8"/>
     </row>
-    <row r="140" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="9"/>
       <c r="C140" s="6"/>
@@ -5730,7 +5733,7 @@
       <c r="AF140" s="8"/>
       <c r="AG140" s="8"/>
     </row>
-    <row r="141" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="9"/>
       <c r="C141" s="6"/>
@@ -5765,7 +5768,7 @@
       <c r="AF141" s="8"/>
       <c r="AG141" s="8"/>
     </row>
-    <row r="142" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="9"/>
       <c r="C142" s="6"/>
@@ -5800,7 +5803,7 @@
       <c r="AF142" s="8"/>
       <c r="AG142" s="8"/>
     </row>
-    <row r="143" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="9"/>
       <c r="C143" s="6"/>
@@ -5835,7 +5838,7 @@
       <c r="AF143" s="8"/>
       <c r="AG143" s="8"/>
     </row>
-    <row r="144" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="9"/>
       <c r="C144" s="6"/>
@@ -5870,7 +5873,7 @@
       <c r="AF144" s="8"/>
       <c r="AG144" s="8"/>
     </row>
-    <row r="145" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="9"/>
       <c r="C145" s="6"/>
@@ -5905,7 +5908,7 @@
       <c r="AF145" s="8"/>
       <c r="AG145" s="8"/>
     </row>
-    <row r="146" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="9"/>
       <c r="C146" s="6"/>
@@ -5940,7 +5943,7 @@
       <c r="AF146" s="8"/>
       <c r="AG146" s="8"/>
     </row>
-    <row r="147" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="9"/>
       <c r="C147" s="6"/>
@@ -5975,7 +5978,7 @@
       <c r="AF147" s="8"/>
       <c r="AG147" s="8"/>
     </row>
-    <row r="148" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="9"/>
       <c r="C148" s="6"/>
@@ -6010,7 +6013,7 @@
       <c r="AF148" s="8"/>
       <c r="AG148" s="8"/>
     </row>
-    <row r="149" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="9"/>
       <c r="C149" s="6"/>
@@ -6045,7 +6048,7 @@
       <c r="AF149" s="8"/>
       <c r="AG149" s="8"/>
     </row>
-    <row r="150" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="9"/>
       <c r="C150" s="6"/>
@@ -6080,7 +6083,7 @@
       <c r="AF150" s="8"/>
       <c r="AG150" s="8"/>
     </row>
-    <row r="151" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="9"/>
       <c r="C151" s="6"/>
@@ -6115,7 +6118,7 @@
       <c r="AF151" s="8"/>
       <c r="AG151" s="8"/>
     </row>
-    <row r="152" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="9"/>
       <c r="C152" s="6"/>
@@ -6150,7 +6153,7 @@
       <c r="AF152" s="8"/>
       <c r="AG152" s="8"/>
     </row>
-    <row r="153" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="9"/>
       <c r="C153" s="6"/>
@@ -6185,7 +6188,7 @@
       <c r="AF153" s="8"/>
       <c r="AG153" s="8"/>
     </row>
-    <row r="154" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="9"/>
       <c r="C154" s="6"/>
@@ -6220,7 +6223,7 @@
       <c r="AF154" s="8"/>
       <c r="AG154" s="8"/>
     </row>
-    <row r="155" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="9"/>
       <c r="C155" s="6"/>
@@ -6255,7 +6258,7 @@
       <c r="AF155" s="8"/>
       <c r="AG155" s="8"/>
     </row>
-    <row r="156" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="9"/>
       <c r="C156" s="6"/>
@@ -6290,7 +6293,7 @@
       <c r="AF156" s="8"/>
       <c r="AG156" s="8"/>
     </row>
-    <row r="157" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="9"/>
       <c r="C157" s="6"/>
@@ -6325,7 +6328,7 @@
       <c r="AF157" s="8"/>
       <c r="AG157" s="8"/>
     </row>
-    <row r="158" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="9"/>
       <c r="C158" s="6"/>
@@ -6360,7 +6363,7 @@
       <c r="AF158" s="8"/>
       <c r="AG158" s="8"/>
     </row>
-    <row r="159" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="9"/>
       <c r="C159" s="6"/>
@@ -6395,7 +6398,7 @@
       <c r="AF159" s="8"/>
       <c r="AG159" s="8"/>
     </row>
-    <row r="160" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="9"/>
       <c r="C160" s="6"/>
@@ -6430,7 +6433,7 @@
       <c r="AF160" s="8"/>
       <c r="AG160" s="8"/>
     </row>
-    <row r="161" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="9"/>
       <c r="C161" s="6"/>
@@ -6465,7 +6468,7 @@
       <c r="AF161" s="8"/>
       <c r="AG161" s="8"/>
     </row>
-    <row r="162" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="9"/>
       <c r="C162" s="6"/>
@@ -6500,7 +6503,7 @@
       <c r="AF162" s="8"/>
       <c r="AG162" s="8"/>
     </row>
-    <row r="163" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="9"/>
       <c r="C163" s="6"/>
@@ -6535,7 +6538,7 @@
       <c r="AF163" s="8"/>
       <c r="AG163" s="8"/>
     </row>
-    <row r="164" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="9"/>
       <c r="C164" s="6"/>
@@ -6570,7 +6573,7 @@
       <c r="AF164" s="8"/>
       <c r="AG164" s="8"/>
     </row>
-    <row r="165" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="9"/>
       <c r="C165" s="6"/>
@@ -6605,7 +6608,7 @@
       <c r="AF165" s="8"/>
       <c r="AG165" s="8"/>
     </row>
-    <row r="166" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="9"/>
       <c r="C166" s="6"/>
@@ -6640,7 +6643,7 @@
       <c r="AF166" s="8"/>
       <c r="AG166" s="8"/>
     </row>
-    <row r="167" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="9"/>
       <c r="C167" s="6"/>
@@ -6675,7 +6678,7 @@
       <c r="AF167" s="8"/>
       <c r="AG167" s="8"/>
     </row>
-    <row r="168" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="9"/>
       <c r="C168" s="6"/>
@@ -6710,7 +6713,7 @@
       <c r="AF168" s="8"/>
       <c r="AG168" s="8"/>
     </row>
-    <row r="169" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="9"/>
       <c r="C169" s="6"/>
@@ -6745,7 +6748,7 @@
       <c r="AF169" s="8"/>
       <c r="AG169" s="8"/>
     </row>
-    <row r="170" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="9"/>
       <c r="C170" s="6"/>
@@ -6780,7 +6783,7 @@
       <c r="AF170" s="8"/>
       <c r="AG170" s="8"/>
     </row>
-    <row r="171" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="9"/>
       <c r="C171" s="6"/>
@@ -6815,7 +6818,7 @@
       <c r="AF171" s="8"/>
       <c r="AG171" s="8"/>
     </row>
-    <row r="172" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="9"/>
       <c r="C172" s="6"/>
@@ -6850,7 +6853,7 @@
       <c r="AF172" s="8"/>
       <c r="AG172" s="8"/>
     </row>
-    <row r="173" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="9"/>
       <c r="C173" s="6"/>
@@ -6885,7 +6888,7 @@
       <c r="AF173" s="8"/>
       <c r="AG173" s="8"/>
     </row>
-    <row r="174" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="9"/>
       <c r="C174" s="6"/>
@@ -6920,7 +6923,7 @@
       <c r="AF174" s="8"/>
       <c r="AG174" s="8"/>
     </row>
-    <row r="175" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="9"/>
       <c r="C175" s="6"/>
@@ -6955,7 +6958,7 @@
       <c r="AF175" s="8"/>
       <c r="AG175" s="8"/>
     </row>
-    <row r="176" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="9"/>
       <c r="C176" s="6"/>
@@ -6990,7 +6993,7 @@
       <c r="AF176" s="8"/>
       <c r="AG176" s="8"/>
     </row>
-    <row r="177" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="9"/>
       <c r="C177" s="6"/>
@@ -7025,7 +7028,7 @@
       <c r="AF177" s="8"/>
       <c r="AG177" s="8"/>
     </row>
-    <row r="178" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="9"/>
       <c r="C178" s="6"/>
@@ -7060,7 +7063,7 @@
       <c r="AF178" s="8"/>
       <c r="AG178" s="8"/>
     </row>
-    <row r="179" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="9"/>
       <c r="C179" s="6"/>
@@ -7095,7 +7098,7 @@
       <c r="AF179" s="8"/>
       <c r="AG179" s="8"/>
     </row>
-    <row r="180" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="9"/>
       <c r="C180" s="6"/>
@@ -7130,7 +7133,7 @@
       <c r="AF180" s="8"/>
       <c r="AG180" s="8"/>
     </row>
-    <row r="181" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="9"/>
       <c r="C181" s="6"/>
@@ -7165,7 +7168,7 @@
       <c r="AF181" s="8"/>
       <c r="AG181" s="8"/>
     </row>
-    <row r="182" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="9"/>
       <c r="C182" s="6"/>
@@ -7200,7 +7203,7 @@
       <c r="AF182" s="8"/>
       <c r="AG182" s="8"/>
     </row>
-    <row r="183" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="9"/>
       <c r="C183" s="6"/>
@@ -7235,7 +7238,7 @@
       <c r="AF183" s="8"/>
       <c r="AG183" s="8"/>
     </row>
-    <row r="184" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="9"/>
       <c r="C184" s="6"/>
@@ -7270,7 +7273,7 @@
       <c r="AF184" s="8"/>
       <c r="AG184" s="8"/>
     </row>
-    <row r="185" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="9"/>
       <c r="C185" s="6"/>
@@ -7305,7 +7308,7 @@
       <c r="AF185" s="8"/>
       <c r="AG185" s="8"/>
     </row>
-    <row r="186" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="9"/>
       <c r="C186" s="6"/>
@@ -7340,7 +7343,7 @@
       <c r="AF186" s="8"/>
       <c r="AG186" s="8"/>
     </row>
-    <row r="187" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="9"/>
       <c r="C187" s="6"/>
@@ -7375,7 +7378,7 @@
       <c r="AF187" s="8"/>
       <c r="AG187" s="8"/>
     </row>
-    <row r="188" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="9"/>
       <c r="C188" s="6"/>
@@ -7410,7 +7413,7 @@
       <c r="AF188" s="8"/>
       <c r="AG188" s="8"/>
     </row>
-    <row r="189" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="9"/>
       <c r="C189" s="6"/>
@@ -7445,7 +7448,7 @@
       <c r="AF189" s="8"/>
       <c r="AG189" s="8"/>
     </row>
-    <row r="190" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="9"/>
       <c r="C190" s="6"/>
@@ -7480,7 +7483,7 @@
       <c r="AF190" s="8"/>
       <c r="AG190" s="8"/>
     </row>
-    <row r="191" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="9"/>
       <c r="C191" s="6"/>
@@ -7515,7 +7518,7 @@
       <c r="AF191" s="8"/>
       <c r="AG191" s="8"/>
     </row>
-    <row r="192" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="9"/>
       <c r="C192" s="6"/>
@@ -7550,7 +7553,7 @@
       <c r="AF192" s="8"/>
       <c r="AG192" s="8"/>
     </row>
-    <row r="193" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="9"/>
       <c r="C193" s="6"/>
@@ -7585,7 +7588,7 @@
       <c r="AF193" s="8"/>
       <c r="AG193" s="8"/>
     </row>
-    <row r="194" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="9"/>
       <c r="C194" s="6"/>
@@ -7620,7 +7623,7 @@
       <c r="AF194" s="8"/>
       <c r="AG194" s="8"/>
     </row>
-    <row r="195" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="9"/>
       <c r="C195" s="6"/>
@@ -7655,7 +7658,7 @@
       <c r="AF195" s="8"/>
       <c r="AG195" s="8"/>
     </row>
-    <row r="196" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="9"/>
       <c r="C196" s="6"/>
@@ -7690,7 +7693,7 @@
       <c r="AF196" s="8"/>
       <c r="AG196" s="8"/>
     </row>
-    <row r="197" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="9"/>
       <c r="C197" s="6"/>
@@ -7725,7 +7728,7 @@
       <c r="AF197" s="8"/>
       <c r="AG197" s="8"/>
     </row>
-    <row r="198" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="9"/>
       <c r="C198" s="6"/>
@@ -7760,7 +7763,7 @@
       <c r="AF198" s="8"/>
       <c r="AG198" s="8"/>
     </row>
-    <row r="199" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="9"/>
       <c r="C199" s="6"/>
@@ -7795,7 +7798,7 @@
       <c r="AF199" s="8"/>
       <c r="AG199" s="8"/>
     </row>
-    <row r="200" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="9"/>
       <c r="C200" s="6"/>
@@ -7830,7 +7833,7 @@
       <c r="AF200" s="8"/>
       <c r="AG200" s="8"/>
     </row>
-    <row r="201" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="9"/>
       <c r="C201" s="6"/>
@@ -7865,7 +7868,7 @@
       <c r="AF201" s="8"/>
       <c r="AG201" s="8"/>
     </row>
-    <row r="202" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="9"/>
       <c r="C202" s="6"/>
@@ -7900,7 +7903,7 @@
       <c r="AF202" s="8"/>
       <c r="AG202" s="8"/>
     </row>
-    <row r="203" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="9"/>
       <c r="C203" s="6"/>
@@ -7935,7 +7938,7 @@
       <c r="AF203" s="8"/>
       <c r="AG203" s="8"/>
     </row>
-    <row r="204" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="9"/>
       <c r="C204" s="6"/>
@@ -7970,7 +7973,7 @@
       <c r="AF204" s="8"/>
       <c r="AG204" s="8"/>
     </row>
-    <row r="205" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="9"/>
       <c r="C205" s="6"/>
@@ -8005,7 +8008,7 @@
       <c r="AF205" s="8"/>
       <c r="AG205" s="8"/>
     </row>
-    <row r="206" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="9"/>
       <c r="C206" s="6"/>
@@ -8040,7 +8043,7 @@
       <c r="AF206" s="8"/>
       <c r="AG206" s="8"/>
     </row>
-    <row r="207" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="9"/>
       <c r="C207" s="6"/>
@@ -8075,7 +8078,7 @@
       <c r="AF207" s="8"/>
       <c r="AG207" s="8"/>
     </row>
-    <row r="208" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="9"/>
       <c r="C208" s="6"/>
@@ -8110,7 +8113,7 @@
       <c r="AF208" s="8"/>
       <c r="AG208" s="8"/>
     </row>
-    <row r="209" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="9"/>
       <c r="C209" s="6"/>
@@ -8145,7 +8148,7 @@
       <c r="AF209" s="8"/>
       <c r="AG209" s="8"/>
     </row>
-    <row r="210" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="9"/>
       <c r="C210" s="6"/>
@@ -8180,7 +8183,7 @@
       <c r="AF210" s="8"/>
       <c r="AG210" s="8"/>
     </row>
-    <row r="211" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="9"/>
       <c r="C211" s="6"/>
@@ -8215,7 +8218,7 @@
       <c r="AF211" s="8"/>
       <c r="AG211" s="8"/>
     </row>
-    <row r="212" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="9"/>
       <c r="C212" s="6"/>
@@ -8250,7 +8253,7 @@
       <c r="AF212" s="8"/>
       <c r="AG212" s="8"/>
     </row>
-    <row r="213" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="9"/>
       <c r="C213" s="6"/>
@@ -8285,7 +8288,7 @@
       <c r="AF213" s="8"/>
       <c r="AG213" s="8"/>
     </row>
-    <row r="214" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="9"/>
       <c r="C214" s="6"/>
@@ -8320,7 +8323,7 @@
       <c r="AF214" s="8"/>
       <c r="AG214" s="8"/>
     </row>
-    <row r="215" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="9"/>
       <c r="C215" s="6"/>
@@ -8355,7 +8358,7 @@
       <c r="AF215" s="8"/>
       <c r="AG215" s="8"/>
     </row>
-    <row r="216" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="9"/>
       <c r="C216" s="6"/>
@@ -8390,7 +8393,7 @@
       <c r="AF216" s="8"/>
       <c r="AG216" s="8"/>
     </row>
-    <row r="217" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="9"/>
       <c r="C217" s="6"/>
@@ -8425,7 +8428,7 @@
       <c r="AF217" s="8"/>
       <c r="AG217" s="8"/>
     </row>
-    <row r="218" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="9"/>
       <c r="C218" s="6"/>
@@ -8460,7 +8463,7 @@
       <c r="AF218" s="8"/>
       <c r="AG218" s="8"/>
     </row>
-    <row r="219" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="9"/>
       <c r="C219" s="6"/>
@@ -8495,7 +8498,7 @@
       <c r="AF219" s="8"/>
       <c r="AG219" s="8"/>
     </row>
-    <row r="220" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="9"/>
       <c r="C220" s="6"/>
@@ -8530,7 +8533,7 @@
       <c r="AF220" s="8"/>
       <c r="AG220" s="8"/>
     </row>
-    <row r="221" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="9"/>
       <c r="C221" s="6"/>
@@ -8565,7 +8568,7 @@
       <c r="AF221" s="8"/>
       <c r="AG221" s="8"/>
     </row>
-    <row r="222" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="9"/>
       <c r="C222" s="6"/>
@@ -8600,7 +8603,7 @@
       <c r="AF222" s="8"/>
       <c r="AG222" s="8"/>
     </row>
-    <row r="223" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="9"/>
       <c r="C223" s="6"/>
@@ -8635,7 +8638,7 @@
       <c r="AF223" s="8"/>
       <c r="AG223" s="8"/>
     </row>
-    <row r="224" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="9"/>
       <c r="C224" s="6"/>
@@ -8670,7 +8673,7 @@
       <c r="AF224" s="8"/>
       <c r="AG224" s="8"/>
     </row>
-    <row r="225" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="9"/>
       <c r="C225" s="6"/>
@@ -8705,7 +8708,7 @@
       <c r="AF225" s="8"/>
       <c r="AG225" s="8"/>
     </row>
-    <row r="226" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="9"/>
       <c r="C226" s="6"/>
@@ -8740,7 +8743,7 @@
       <c r="AF226" s="8"/>
       <c r="AG226" s="8"/>
     </row>
-    <row r="227" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="9"/>
       <c r="C227" s="6"/>
@@ -8775,7 +8778,7 @@
       <c r="AF227" s="8"/>
       <c r="AG227" s="8"/>
     </row>
-    <row r="228" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="9"/>
       <c r="C228" s="6"/>
@@ -8810,7 +8813,7 @@
       <c r="AF228" s="8"/>
       <c r="AG228" s="8"/>
     </row>
-    <row r="229" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="9"/>
       <c r="C229" s="6"/>
@@ -8845,7 +8848,7 @@
       <c r="AF229" s="8"/>
       <c r="AG229" s="8"/>
     </row>
-    <row r="230" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="9"/>
       <c r="C230" s="6"/>
@@ -8880,7 +8883,7 @@
       <c r="AF230" s="8"/>
       <c r="AG230" s="8"/>
     </row>
-    <row r="231" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="9"/>
       <c r="C231" s="6"/>
@@ -8915,7 +8918,7 @@
       <c r="AF231" s="8"/>
       <c r="AG231" s="8"/>
     </row>
-    <row r="232" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="9"/>
       <c r="C232" s="6"/>
@@ -8950,7 +8953,7 @@
       <c r="AF232" s="8"/>
       <c r="AG232" s="8"/>
     </row>
-    <row r="233" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="9"/>
       <c r="C233" s="6"/>
@@ -8985,7 +8988,7 @@
       <c r="AF233" s="8"/>
       <c r="AG233" s="8"/>
     </row>
-    <row r="234" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="9"/>
       <c r="C234" s="6"/>
@@ -9020,7 +9023,7 @@
       <c r="AF234" s="8"/>
       <c r="AG234" s="8"/>
     </row>
-    <row r="235" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="9"/>
       <c r="C235" s="6"/>
@@ -9055,7 +9058,7 @@
       <c r="AF235" s="8"/>
       <c r="AG235" s="8"/>
     </row>
-    <row r="236" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="9"/>
       <c r="C236" s="6"/>
@@ -9090,7 +9093,7 @@
       <c r="AF236" s="8"/>
       <c r="AG236" s="8"/>
     </row>
-    <row r="237" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="9"/>
       <c r="C237" s="6"/>
@@ -9125,7 +9128,7 @@
       <c r="AF237" s="8"/>
       <c r="AG237" s="8"/>
     </row>
-    <row r="238" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="9"/>
       <c r="C238" s="6"/>
@@ -9160,7 +9163,7 @@
       <c r="AF238" s="8"/>
       <c r="AG238" s="8"/>
     </row>
-    <row r="239" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="9"/>
       <c r="C239" s="6"/>
@@ -9195,7 +9198,7 @@
       <c r="AF239" s="8"/>
       <c r="AG239" s="8"/>
     </row>
-    <row r="240" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="9"/>
       <c r="C240" s="6"/>
@@ -9230,7 +9233,7 @@
       <c r="AF240" s="8"/>
       <c r="AG240" s="8"/>
     </row>
-    <row r="241" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="9"/>
       <c r="C241" s="6"/>
@@ -9265,7 +9268,7 @@
       <c r="AF241" s="8"/>
       <c r="AG241" s="8"/>
     </row>
-    <row r="242" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="9"/>
       <c r="C242" s="6"/>
@@ -9300,7 +9303,7 @@
       <c r="AF242" s="8"/>
       <c r="AG242" s="8"/>
     </row>
-    <row r="243" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="9"/>
       <c r="C243" s="6"/>
@@ -9335,7 +9338,7 @@
       <c r="AF243" s="8"/>
       <c r="AG243" s="8"/>
     </row>
-    <row r="244" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="9"/>
       <c r="C244" s="6"/>
@@ -9370,7 +9373,7 @@
       <c r="AF244" s="8"/>
       <c r="AG244" s="8"/>
     </row>
-    <row r="245" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="9"/>
       <c r="C245" s="6"/>
@@ -9405,7 +9408,7 @@
       <c r="AF245" s="8"/>
       <c r="AG245" s="8"/>
     </row>
-    <row r="246" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="9"/>
       <c r="C246" s="6"/>
@@ -9440,7 +9443,7 @@
       <c r="AF246" s="8"/>
       <c r="AG246" s="8"/>
     </row>
-    <row r="247" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="9"/>
       <c r="C247" s="6"/>
@@ -9475,7 +9478,7 @@
       <c r="AF247" s="8"/>
       <c r="AG247" s="8"/>
     </row>
-    <row r="248" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="9"/>
       <c r="C248" s="6"/>
@@ -9510,7 +9513,7 @@
       <c r="AF248" s="8"/>
       <c r="AG248" s="8"/>
     </row>
-    <row r="249" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="9"/>
       <c r="C249" s="6"/>
@@ -9545,7 +9548,7 @@
       <c r="AF249" s="8"/>
       <c r="AG249" s="8"/>
     </row>
-    <row r="250" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="9"/>
       <c r="C250" s="6"/>
@@ -9580,7 +9583,7 @@
       <c r="AF250" s="8"/>
       <c r="AG250" s="8"/>
     </row>
-    <row r="251" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="9"/>
       <c r="C251" s="6"/>
@@ -9615,7 +9618,7 @@
       <c r="AF251" s="8"/>
       <c r="AG251" s="8"/>
     </row>
-    <row r="252" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="9"/>
       <c r="C252" s="6"/>
@@ -9650,7 +9653,7 @@
       <c r="AF252" s="8"/>
       <c r="AG252" s="8"/>
     </row>
-    <row r="253" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="9"/>
       <c r="C253" s="6"/>
@@ -9685,7 +9688,7 @@
       <c r="AF253" s="8"/>
       <c r="AG253" s="8"/>
     </row>
-    <row r="254" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="9"/>
       <c r="C254" s="6"/>
@@ -9720,7 +9723,7 @@
       <c r="AF254" s="8"/>
       <c r="AG254" s="8"/>
     </row>
-    <row r="255" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="9"/>
       <c r="C255" s="6"/>
@@ -9755,7 +9758,7 @@
       <c r="AF255" s="8"/>
       <c r="AG255" s="8"/>
     </row>
-    <row r="256" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="9"/>
       <c r="C256" s="6"/>
@@ -9790,7 +9793,7 @@
       <c r="AF256" s="8"/>
       <c r="AG256" s="8"/>
     </row>
-    <row r="257" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="9"/>
       <c r="C257" s="6"/>
@@ -9825,7 +9828,7 @@
       <c r="AF257" s="8"/>
       <c r="AG257" s="8"/>
     </row>
-    <row r="258" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="9"/>
       <c r="C258" s="6"/>
@@ -9860,7 +9863,7 @@
       <c r="AF258" s="8"/>
       <c r="AG258" s="8"/>
     </row>
-    <row r="259" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="9"/>
       <c r="C259" s="6"/>
@@ -9895,7 +9898,7 @@
       <c r="AF259" s="8"/>
       <c r="AG259" s="8"/>
     </row>
-    <row r="260" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="9"/>
       <c r="C260" s="6"/>
@@ -9930,7 +9933,7 @@
       <c r="AF260" s="8"/>
       <c r="AG260" s="8"/>
     </row>
-    <row r="261" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="9"/>
       <c r="C261" s="6"/>
@@ -9965,7 +9968,7 @@
       <c r="AF261" s="8"/>
       <c r="AG261" s="8"/>
     </row>
-    <row r="262" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="9"/>
       <c r="C262" s="6"/>
@@ -10000,7 +10003,7 @@
       <c r="AF262" s="8"/>
       <c r="AG262" s="8"/>
     </row>
-    <row r="263" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="9"/>
       <c r="C263" s="6"/>
@@ -10035,7 +10038,7 @@
       <c r="AF263" s="8"/>
       <c r="AG263" s="8"/>
     </row>
-    <row r="264" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="9"/>
       <c r="C264" s="6"/>
@@ -10070,7 +10073,7 @@
       <c r="AF264" s="8"/>
       <c r="AG264" s="8"/>
     </row>
-    <row r="265" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="9"/>
       <c r="C265" s="6"/>
@@ -10105,7 +10108,7 @@
       <c r="AF265" s="8"/>
       <c r="AG265" s="8"/>
     </row>
-    <row r="266" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="9"/>
       <c r="C266" s="6"/>
@@ -10140,7 +10143,7 @@
       <c r="AF266" s="8"/>
       <c r="AG266" s="8"/>
     </row>
-    <row r="267" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="9"/>
       <c r="C267" s="6"/>
@@ -10175,7 +10178,7 @@
       <c r="AF267" s="8"/>
       <c r="AG267" s="8"/>
     </row>
-    <row r="268" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="9"/>
       <c r="C268" s="6"/>
@@ -10210,7 +10213,7 @@
       <c r="AF268" s="8"/>
       <c r="AG268" s="8"/>
     </row>
-    <row r="269" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="9"/>
       <c r="C269" s="6"/>
@@ -10245,7 +10248,7 @@
       <c r="AF269" s="8"/>
       <c r="AG269" s="8"/>
     </row>
-    <row r="270" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="9"/>
       <c r="C270" s="6"/>
@@ -10280,7 +10283,7 @@
       <c r="AF270" s="8"/>
       <c r="AG270" s="8"/>
     </row>
-    <row r="271" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="9"/>
       <c r="C271" s="6"/>
@@ -10315,7 +10318,7 @@
       <c r="AF271" s="8"/>
       <c r="AG271" s="8"/>
     </row>
-    <row r="272" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="9"/>
       <c r="C272" s="6"/>
@@ -10350,7 +10353,7 @@
       <c r="AF272" s="8"/>
       <c r="AG272" s="8"/>
     </row>
-    <row r="273" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="9"/>
       <c r="C273" s="6"/>
@@ -10385,7 +10388,7 @@
       <c r="AF273" s="8"/>
       <c r="AG273" s="8"/>
     </row>
-    <row r="274" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="9"/>
       <c r="C274" s="6"/>
@@ -10420,7 +10423,7 @@
       <c r="AF274" s="8"/>
       <c r="AG274" s="8"/>
     </row>
-    <row r="275" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="9"/>
       <c r="C275" s="6"/>
@@ -10455,7 +10458,7 @@
       <c r="AF275" s="8"/>
       <c r="AG275" s="8"/>
     </row>
-    <row r="276" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="9"/>
       <c r="C276" s="6"/>
@@ -10490,7 +10493,7 @@
       <c r="AF276" s="8"/>
       <c r="AG276" s="8"/>
     </row>
-    <row r="277" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="9"/>
       <c r="C277" s="6"/>
@@ -10525,7 +10528,7 @@
       <c r="AF277" s="8"/>
       <c r="AG277" s="8"/>
     </row>
-    <row r="278" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="9"/>
       <c r="C278" s="6"/>
@@ -10560,7 +10563,7 @@
       <c r="AF278" s="8"/>
       <c r="AG278" s="8"/>
     </row>
-    <row r="279" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="9"/>
       <c r="C279" s="6"/>
@@ -10595,7 +10598,7 @@
       <c r="AF279" s="8"/>
       <c r="AG279" s="8"/>
     </row>
-    <row r="280" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="9"/>
       <c r="C280" s="6"/>
@@ -10630,7 +10633,7 @@
       <c r="AF280" s="8"/>
       <c r="AG280" s="8"/>
     </row>
-    <row r="281" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="9"/>
       <c r="C281" s="6"/>
@@ -10665,7 +10668,7 @@
       <c r="AF281" s="8"/>
       <c r="AG281" s="8"/>
     </row>
-    <row r="282" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="9"/>
       <c r="C282" s="6"/>
@@ -10700,7 +10703,7 @@
       <c r="AF282" s="8"/>
       <c r="AG282" s="8"/>
     </row>
-    <row r="283" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="9"/>
       <c r="C283" s="6"/>
@@ -10735,7 +10738,7 @@
       <c r="AF283" s="8"/>
       <c r="AG283" s="8"/>
     </row>
-    <row r="284" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="9"/>
       <c r="C284" s="6"/>
@@ -10770,7 +10773,7 @@
       <c r="AF284" s="8"/>
       <c r="AG284" s="8"/>
     </row>
-    <row r="285" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="9"/>
       <c r="C285" s="6"/>
@@ -10805,7 +10808,7 @@
       <c r="AF285" s="8"/>
       <c r="AG285" s="8"/>
     </row>
-    <row r="286" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="9"/>
       <c r="C286" s="6"/>
@@ -10840,7 +10843,7 @@
       <c r="AF286" s="8"/>
       <c r="AG286" s="8"/>
     </row>
-    <row r="287" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="9"/>
       <c r="C287" s="6"/>
@@ -10875,7 +10878,7 @@
       <c r="AF287" s="8"/>
       <c r="AG287" s="8"/>
     </row>
-    <row r="288" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="9"/>
       <c r="C288" s="6"/>
@@ -10910,7 +10913,7 @@
       <c r="AF288" s="8"/>
       <c r="AG288" s="8"/>
     </row>
-    <row r="289" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="9"/>
       <c r="C289" s="6"/>
@@ -10945,7 +10948,7 @@
       <c r="AF289" s="8"/>
       <c r="AG289" s="8"/>
     </row>
-    <row r="290" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="9"/>
       <c r="C290" s="6"/>
@@ -10980,7 +10983,7 @@
       <c r="AF290" s="8"/>
       <c r="AG290" s="8"/>
     </row>
-    <row r="291" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="9"/>
       <c r="C291" s="6"/>
@@ -11015,7 +11018,7 @@
       <c r="AF291" s="8"/>
       <c r="AG291" s="8"/>
     </row>
-    <row r="292" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="9"/>
       <c r="C292" s="6"/>
@@ -11050,7 +11053,7 @@
       <c r="AF292" s="8"/>
       <c r="AG292" s="8"/>
     </row>
-    <row r="293" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="9"/>
       <c r="C293" s="6"/>
@@ -11085,7 +11088,7 @@
       <c r="AF293" s="8"/>
       <c r="AG293" s="8"/>
     </row>
-    <row r="294" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="9"/>
       <c r="C294" s="6"/>
@@ -11120,7 +11123,7 @@
       <c r="AF294" s="8"/>
       <c r="AG294" s="8"/>
     </row>
-    <row r="295" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="9"/>
       <c r="C295" s="6"/>
@@ -11155,7 +11158,7 @@
       <c r="AF295" s="8"/>
       <c r="AG295" s="8"/>
     </row>
-    <row r="296" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="9"/>
       <c r="C296" s="6"/>
@@ -11190,7 +11193,7 @@
       <c r="AF296" s="8"/>
       <c r="AG296" s="8"/>
     </row>
-    <row r="297" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="9"/>
       <c r="C297" s="6"/>
@@ -11225,7 +11228,7 @@
       <c r="AF297" s="8"/>
       <c r="AG297" s="8"/>
     </row>
-    <row r="298" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="9"/>
       <c r="C298" s="6"/>
@@ -11260,7 +11263,7 @@
       <c r="AF298" s="8"/>
       <c r="AG298" s="8"/>
     </row>
-    <row r="299" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="9"/>
       <c r="C299" s="6"/>
@@ -11295,7 +11298,7 @@
       <c r="AF299" s="8"/>
       <c r="AG299" s="8"/>
     </row>
-    <row r="300" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="9"/>
       <c r="C300" s="6"/>
@@ -11330,7 +11333,7 @@
       <c r="AF300" s="8"/>
       <c r="AG300" s="8"/>
     </row>
-    <row r="301" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="9"/>
       <c r="C301" s="6"/>
@@ -11365,7 +11368,7 @@
       <c r="AF301" s="8"/>
       <c r="AG301" s="8"/>
     </row>
-    <row r="302" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="9"/>
       <c r="C302" s="6"/>
@@ -11400,7 +11403,7 @@
       <c r="AF302" s="8"/>
       <c r="AG302" s="8"/>
     </row>
-    <row r="303" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="9"/>
       <c r="C303" s="6"/>
@@ -11435,7 +11438,7 @@
       <c r="AF303" s="8"/>
       <c r="AG303" s="8"/>
     </row>
-    <row r="304" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="9"/>
       <c r="C304" s="6"/>
@@ -11470,7 +11473,7 @@
       <c r="AF304" s="8"/>
       <c r="AG304" s="8"/>
     </row>
-    <row r="305" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="9"/>
       <c r="C305" s="6"/>
@@ -11505,7 +11508,7 @@
       <c r="AF305" s="8"/>
       <c r="AG305" s="8"/>
     </row>
-    <row r="306" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="9"/>
       <c r="C306" s="6"/>
@@ -11540,7 +11543,7 @@
       <c r="AF306" s="8"/>
       <c r="AG306" s="8"/>
     </row>
-    <row r="307" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="9"/>
       <c r="C307" s="6"/>
@@ -11575,7 +11578,7 @@
       <c r="AF307" s="8"/>
       <c r="AG307" s="8"/>
     </row>
-    <row r="308" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="9"/>
       <c r="C308" s="6"/>
@@ -11610,7 +11613,7 @@
       <c r="AF308" s="8"/>
       <c r="AG308" s="8"/>
     </row>
-    <row r="309" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="9"/>
       <c r="C309" s="6"/>
@@ -11645,7 +11648,7 @@
       <c r="AF309" s="8"/>
       <c r="AG309" s="8"/>
     </row>
-    <row r="310" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="9"/>
       <c r="C310" s="6"/>
@@ -11680,7 +11683,7 @@
       <c r="AF310" s="8"/>
       <c r="AG310" s="8"/>
     </row>
-    <row r="311" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="9"/>
       <c r="C311" s="6"/>
@@ -11715,7 +11718,7 @@
       <c r="AF311" s="8"/>
       <c r="AG311" s="8"/>
     </row>
-    <row r="312" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="9"/>
       <c r="C312" s="6"/>
@@ -11750,7 +11753,7 @@
       <c r="AF312" s="8"/>
       <c r="AG312" s="8"/>
     </row>
-    <row r="313" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="9"/>
       <c r="C313" s="6"/>
@@ -11785,7 +11788,7 @@
       <c r="AF313" s="8"/>
       <c r="AG313" s="8"/>
     </row>
-    <row r="314" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="9"/>
       <c r="C314" s="6"/>
@@ -11820,7 +11823,7 @@
       <c r="AF314" s="8"/>
       <c r="AG314" s="8"/>
     </row>
-    <row r="315" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="9"/>
       <c r="C315" s="6"/>
@@ -11855,7 +11858,7 @@
       <c r="AF315" s="8"/>
       <c r="AG315" s="8"/>
     </row>
-    <row r="316" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="9"/>
       <c r="C316" s="6"/>
@@ -11890,7 +11893,7 @@
       <c r="AF316" s="8"/>
       <c r="AG316" s="8"/>
     </row>
-    <row r="317" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="9"/>
       <c r="C317" s="6"/>
@@ -11925,7 +11928,7 @@
       <c r="AF317" s="8"/>
       <c r="AG317" s="8"/>
     </row>
-    <row r="318" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="9"/>
       <c r="C318" s="6"/>
@@ -11960,7 +11963,7 @@
       <c r="AF318" s="8"/>
       <c r="AG318" s="8"/>
     </row>
-    <row r="319" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="9"/>
       <c r="C319" s="6"/>
@@ -11995,7 +11998,7 @@
       <c r="AF319" s="8"/>
       <c r="AG319" s="8"/>
     </row>
-    <row r="320" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="9"/>
       <c r="C320" s="6"/>
@@ -12030,7 +12033,7 @@
       <c r="AF320" s="8"/>
       <c r="AG320" s="8"/>
     </row>
-    <row r="321" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="9"/>
       <c r="C321" s="6"/>
@@ -12065,7 +12068,7 @@
       <c r="AF321" s="8"/>
       <c r="AG321" s="8"/>
     </row>
-    <row r="322" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="9"/>
       <c r="C322" s="6"/>
@@ -12100,7 +12103,7 @@
       <c r="AF322" s="8"/>
       <c r="AG322" s="8"/>
     </row>
-    <row r="323" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="9"/>
       <c r="C323" s="6"/>
@@ -12135,7 +12138,7 @@
       <c r="AF323" s="8"/>
       <c r="AG323" s="8"/>
     </row>
-    <row r="324" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="9"/>
       <c r="C324" s="6"/>
@@ -12170,7 +12173,7 @@
       <c r="AF324" s="8"/>
       <c r="AG324" s="8"/>
     </row>
-    <row r="325" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="9"/>
       <c r="C325" s="6"/>
@@ -12205,7 +12208,7 @@
       <c r="AF325" s="8"/>
       <c r="AG325" s="8"/>
     </row>
-    <row r="326" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="9"/>
       <c r="C326" s="6"/>
@@ -12240,7 +12243,7 @@
       <c r="AF326" s="8"/>
       <c r="AG326" s="8"/>
     </row>
-    <row r="327" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="9"/>
       <c r="C327" s="6"/>
@@ -12275,7 +12278,7 @@
       <c r="AF327" s="8"/>
       <c r="AG327" s="8"/>
     </row>
-    <row r="328" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="9"/>
       <c r="C328" s="6"/>
@@ -12310,7 +12313,7 @@
       <c r="AF328" s="8"/>
       <c r="AG328" s="8"/>
     </row>
-    <row r="329" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="9"/>
       <c r="C329" s="6"/>
@@ -12345,7 +12348,7 @@
       <c r="AF329" s="8"/>
       <c r="AG329" s="8"/>
     </row>
-    <row r="330" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="9"/>
       <c r="C330" s="6"/>
@@ -12380,7 +12383,7 @@
       <c r="AF330" s="8"/>
       <c r="AG330" s="8"/>
     </row>
-    <row r="331" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="9"/>
       <c r="C331" s="6"/>
@@ -12415,7 +12418,7 @@
       <c r="AF331" s="8"/>
       <c r="AG331" s="8"/>
     </row>
-    <row r="332" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="9"/>
       <c r="C332" s="6"/>
@@ -12450,7 +12453,7 @@
       <c r="AF332" s="8"/>
       <c r="AG332" s="8"/>
     </row>
-    <row r="333" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="9"/>
       <c r="C333" s="6"/>
@@ -12485,7 +12488,7 @@
       <c r="AF333" s="8"/>
       <c r="AG333" s="8"/>
     </row>
-    <row r="334" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="9"/>
       <c r="C334" s="6"/>
@@ -12520,7 +12523,7 @@
       <c r="AF334" s="8"/>
       <c r="AG334" s="8"/>
     </row>
-    <row r="335" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="9"/>
       <c r="C335" s="6"/>
@@ -12555,7 +12558,7 @@
       <c r="AF335" s="8"/>
       <c r="AG335" s="8"/>
     </row>
-    <row r="336" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="9"/>
       <c r="C336" s="6"/>
@@ -12590,7 +12593,7 @@
       <c r="AF336" s="8"/>
       <c r="AG336" s="8"/>
     </row>
-    <row r="337" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="9"/>
       <c r="C337" s="6"/>
@@ -12625,7 +12628,7 @@
       <c r="AF337" s="8"/>
       <c r="AG337" s="8"/>
     </row>
-    <row r="338" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="9"/>
       <c r="C338" s="6"/>
@@ -12660,7 +12663,7 @@
       <c r="AF338" s="8"/>
       <c r="AG338" s="8"/>
     </row>
-    <row r="339" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="9"/>
       <c r="C339" s="6"/>
@@ -12695,7 +12698,7 @@
       <c r="AF339" s="8"/>
       <c r="AG339" s="8"/>
     </row>
-    <row r="340" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="9"/>
       <c r="C340" s="6"/>
@@ -12730,7 +12733,7 @@
       <c r="AF340" s="8"/>
       <c r="AG340" s="8"/>
     </row>
-    <row r="341" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="9"/>
       <c r="C341" s="6"/>
@@ -12765,7 +12768,7 @@
       <c r="AF341" s="8"/>
       <c r="AG341" s="8"/>
     </row>
-    <row r="342" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="9"/>
       <c r="C342" s="6"/>
@@ -12800,7 +12803,7 @@
       <c r="AF342" s="8"/>
       <c r="AG342" s="8"/>
     </row>
-    <row r="343" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="9"/>
       <c r="C343" s="6"/>
@@ -12835,7 +12838,7 @@
       <c r="AF343" s="8"/>
       <c r="AG343" s="8"/>
     </row>
-    <row r="344" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="9"/>
       <c r="C344" s="6"/>
@@ -12870,7 +12873,7 @@
       <c r="AF344" s="8"/>
       <c r="AG344" s="8"/>
     </row>
-    <row r="345" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="9"/>
       <c r="C345" s="6"/>
@@ -12905,7 +12908,7 @@
       <c r="AF345" s="8"/>
       <c r="AG345" s="8"/>
     </row>
-    <row r="346" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="9"/>
       <c r="C346" s="6"/>
@@ -12940,7 +12943,7 @@
       <c r="AF346" s="8"/>
       <c r="AG346" s="8"/>
     </row>
-    <row r="347" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="9"/>
       <c r="C347" s="6"/>
@@ -12975,7 +12978,7 @@
       <c r="AF347" s="8"/>
       <c r="AG347" s="8"/>
     </row>
-    <row r="348" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="9"/>
       <c r="C348" s="6"/>
@@ -13010,7 +13013,7 @@
       <c r="AF348" s="8"/>
       <c r="AG348" s="8"/>
     </row>
-    <row r="349" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="9"/>
       <c r="C349" s="6"/>
@@ -13045,7 +13048,7 @@
       <c r="AF349" s="8"/>
       <c r="AG349" s="8"/>
     </row>
-    <row r="350" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="9"/>
       <c r="C350" s="6"/>
@@ -13080,7 +13083,7 @@
       <c r="AF350" s="8"/>
       <c r="AG350" s="8"/>
     </row>
-    <row r="351" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="9"/>
       <c r="C351" s="6"/>
@@ -13115,7 +13118,7 @@
       <c r="AF351" s="8"/>
       <c r="AG351" s="8"/>
     </row>
-    <row r="352" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="9"/>
       <c r="C352" s="6"/>
@@ -13150,7 +13153,7 @@
       <c r="AF352" s="8"/>
       <c r="AG352" s="8"/>
     </row>
-    <row r="353" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="9"/>
       <c r="C353" s="6"/>
@@ -13185,7 +13188,7 @@
       <c r="AF353" s="8"/>
       <c r="AG353" s="8"/>
     </row>
-    <row r="354" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="9"/>
       <c r="C354" s="6"/>
@@ -13220,7 +13223,7 @@
       <c r="AF354" s="8"/>
       <c r="AG354" s="8"/>
     </row>
-    <row r="355" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="9"/>
       <c r="C355" s="6"/>
@@ -13255,7 +13258,7 @@
       <c r="AF355" s="8"/>
       <c r="AG355" s="8"/>
     </row>
-    <row r="356" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="9"/>
       <c r="C356" s="6"/>
@@ -13290,7 +13293,7 @@
       <c r="AF356" s="8"/>
       <c r="AG356" s="8"/>
     </row>
-    <row r="357" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="9"/>
       <c r="C357" s="6"/>
@@ -13325,7 +13328,7 @@
       <c r="AF357" s="8"/>
       <c r="AG357" s="8"/>
     </row>
-    <row r="358" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="9"/>
       <c r="C358" s="6"/>
@@ -13360,7 +13363,7 @@
       <c r="AF358" s="8"/>
       <c r="AG358" s="8"/>
     </row>
-    <row r="359" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="9"/>
       <c r="C359" s="6"/>
@@ -13395,7 +13398,7 @@
       <c r="AF359" s="8"/>
       <c r="AG359" s="8"/>
     </row>
-    <row r="360" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="9"/>
       <c r="C360" s="6"/>
@@ -13430,7 +13433,7 @@
       <c r="AF360" s="8"/>
       <c r="AG360" s="8"/>
     </row>
-    <row r="361" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="9"/>
       <c r="C361" s="6"/>
@@ -13465,7 +13468,7 @@
       <c r="AF361" s="8"/>
       <c r="AG361" s="8"/>
     </row>
-    <row r="362" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="9"/>
       <c r="C362" s="6"/>
@@ -13500,7 +13503,7 @@
       <c r="AF362" s="8"/>
       <c r="AG362" s="8"/>
     </row>
-    <row r="363" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="9"/>
       <c r="C363" s="6"/>
@@ -13535,7 +13538,7 @@
       <c r="AF363" s="8"/>
       <c r="AG363" s="8"/>
     </row>
-    <row r="364" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="9"/>
       <c r="C364" s="6"/>
@@ -13570,7 +13573,7 @@
       <c r="AF364" s="8"/>
       <c r="AG364" s="8"/>
     </row>
-    <row r="365" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="9"/>
       <c r="C365" s="6"/>
@@ -13605,7 +13608,7 @@
       <c r="AF365" s="8"/>
       <c r="AG365" s="8"/>
     </row>
-    <row r="366" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="9"/>
       <c r="C366" s="6"/>
@@ -13640,7 +13643,7 @@
       <c r="AF366" s="8"/>
       <c r="AG366" s="8"/>
     </row>
-    <row r="367" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="9"/>
       <c r="C367" s="6"/>
@@ -13675,7 +13678,7 @@
       <c r="AF367" s="8"/>
       <c r="AG367" s="8"/>
     </row>
-    <row r="368" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="9"/>
       <c r="C368" s="6"/>
@@ -13710,7 +13713,7 @@
       <c r="AF368" s="8"/>
       <c r="AG368" s="8"/>
     </row>
-    <row r="369" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="9"/>
       <c r="C369" s="6"/>
@@ -13745,7 +13748,7 @@
       <c r="AF369" s="8"/>
       <c r="AG369" s="8"/>
     </row>
-    <row r="370" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="9"/>
       <c r="C370" s="6"/>
@@ -13780,7 +13783,7 @@
       <c r="AF370" s="8"/>
       <c r="AG370" s="8"/>
     </row>
-    <row r="371" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="9"/>
       <c r="C371" s="6"/>
@@ -13815,7 +13818,7 @@
       <c r="AF371" s="8"/>
       <c r="AG371" s="8"/>
     </row>
-    <row r="372" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="9"/>
       <c r="C372" s="6"/>
@@ -13850,7 +13853,7 @@
       <c r="AF372" s="8"/>
       <c r="AG372" s="8"/>
     </row>
-    <row r="373" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="9"/>
       <c r="C373" s="6"/>
@@ -13885,7 +13888,7 @@
       <c r="AF373" s="8"/>
       <c r="AG373" s="8"/>
     </row>
-    <row r="374" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="9"/>
       <c r="C374" s="6"/>
@@ -13920,7 +13923,7 @@
       <c r="AF374" s="8"/>
       <c r="AG374" s="8"/>
     </row>
-    <row r="375" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="9"/>
       <c r="C375" s="6"/>
@@ -13955,7 +13958,7 @@
       <c r="AF375" s="8"/>
       <c r="AG375" s="8"/>
     </row>
-    <row r="376" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="9"/>
       <c r="C376" s="6"/>
@@ -13990,7 +13993,7 @@
       <c r="AF376" s="8"/>
       <c r="AG376" s="8"/>
     </row>
-    <row r="377" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="9"/>
       <c r="C377" s="6"/>
@@ -14025,7 +14028,7 @@
       <c r="AF377" s="8"/>
       <c r="AG377" s="8"/>
     </row>
-    <row r="378" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="9"/>
       <c r="C378" s="6"/>
@@ -14060,7 +14063,7 @@
       <c r="AF378" s="8"/>
       <c r="AG378" s="8"/>
     </row>
-    <row r="379" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="9"/>
       <c r="C379" s="6"/>
@@ -14095,7 +14098,7 @@
       <c r="AF379" s="8"/>
       <c r="AG379" s="8"/>
     </row>
-    <row r="380" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="9"/>
       <c r="C380" s="6"/>
@@ -14130,7 +14133,7 @@
       <c r="AF380" s="8"/>
       <c r="AG380" s="8"/>
     </row>
-    <row r="381" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="9"/>
       <c r="C381" s="6"/>
@@ -14165,7 +14168,7 @@
       <c r="AF381" s="8"/>
       <c r="AG381" s="8"/>
     </row>
-    <row r="382" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="9"/>
       <c r="C382" s="6"/>
@@ -14200,7 +14203,7 @@
       <c r="AF382" s="8"/>
       <c r="AG382" s="8"/>
     </row>
-    <row r="383" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="9"/>
       <c r="C383" s="6"/>
@@ -14235,7 +14238,7 @@
       <c r="AF383" s="8"/>
       <c r="AG383" s="8"/>
     </row>
-    <row r="384" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="9"/>
       <c r="C384" s="6"/>
@@ -14270,7 +14273,7 @@
       <c r="AF384" s="8"/>
       <c r="AG384" s="8"/>
     </row>
-    <row r="385" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="9"/>
       <c r="C385" s="6"/>
@@ -14305,7 +14308,7 @@
       <c r="AF385" s="8"/>
       <c r="AG385" s="8"/>
     </row>
-    <row r="386" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="9"/>
       <c r="C386" s="6"/>
@@ -14340,7 +14343,7 @@
       <c r="AF386" s="8"/>
       <c r="AG386" s="8"/>
     </row>
-    <row r="387" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="9"/>
       <c r="C387" s="6"/>
@@ -14375,7 +14378,7 @@
       <c r="AF387" s="8"/>
       <c r="AG387" s="8"/>
     </row>
-    <row r="388" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="9"/>
       <c r="C388" s="6"/>
@@ -14410,7 +14413,7 @@
       <c r="AF388" s="8"/>
       <c r="AG388" s="8"/>
     </row>
-    <row r="389" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="9"/>
       <c r="C389" s="6"/>
@@ -14445,7 +14448,7 @@
       <c r="AF389" s="8"/>
       <c r="AG389" s="8"/>
     </row>
-    <row r="390" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="9"/>
       <c r="C390" s="6"/>
@@ -14480,7 +14483,7 @@
       <c r="AF390" s="8"/>
       <c r="AG390" s="8"/>
     </row>
-    <row r="391" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="9"/>
       <c r="C391" s="6"/>
@@ -14515,7 +14518,7 @@
       <c r="AF391" s="8"/>
       <c r="AG391" s="8"/>
     </row>
-    <row r="392" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="9"/>
       <c r="C392" s="6"/>
@@ -14550,7 +14553,7 @@
       <c r="AF392" s="8"/>
       <c r="AG392" s="8"/>
     </row>
-    <row r="393" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="9"/>
       <c r="C393" s="6"/>
@@ -14585,7 +14588,7 @@
       <c r="AF393" s="8"/>
       <c r="AG393" s="8"/>
     </row>
-    <row r="394" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="9"/>
       <c r="C394" s="6"/>
@@ -14620,7 +14623,7 @@
       <c r="AF394" s="8"/>
       <c r="AG394" s="8"/>
     </row>
-    <row r="395" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="9"/>
       <c r="C395" s="6"/>
@@ -14655,7 +14658,7 @@
       <c r="AF395" s="8"/>
       <c r="AG395" s="8"/>
     </row>
-    <row r="396" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="9"/>
       <c r="C396" s="6"/>
@@ -14690,7 +14693,7 @@
       <c r="AF396" s="8"/>
       <c r="AG396" s="8"/>
     </row>
-    <row r="397" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="9"/>
       <c r="C397" s="6"/>
@@ -14725,7 +14728,7 @@
       <c r="AF397" s="8"/>
       <c r="AG397" s="8"/>
     </row>
-    <row r="398" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="9"/>
       <c r="C398" s="6"/>
@@ -14760,7 +14763,7 @@
       <c r="AF398" s="8"/>
       <c r="AG398" s="8"/>
     </row>
-    <row r="399" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="9"/>
       <c r="C399" s="6"/>
@@ -14795,7 +14798,7 @@
       <c r="AF399" s="8"/>
       <c r="AG399" s="8"/>
     </row>
-    <row r="400" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="9"/>
       <c r="C400" s="6"/>
@@ -14830,7 +14833,7 @@
       <c r="AF400" s="8"/>
       <c r="AG400" s="8"/>
     </row>
-    <row r="401" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="9"/>
       <c r="C401" s="6"/>
@@ -14865,7 +14868,7 @@
       <c r="AF401" s="8"/>
       <c r="AG401" s="8"/>
     </row>
-    <row r="402" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="9"/>
       <c r="C402" s="6"/>
@@ -14900,7 +14903,7 @@
       <c r="AF402" s="8"/>
       <c r="AG402" s="8"/>
     </row>
-    <row r="403" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="9"/>
       <c r="C403" s="6"/>
@@ -14935,7 +14938,7 @@
       <c r="AF403" s="8"/>
       <c r="AG403" s="8"/>
     </row>
-    <row r="404" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="9"/>
       <c r="C404" s="6"/>
@@ -14970,7 +14973,7 @@
       <c r="AF404" s="8"/>
       <c r="AG404" s="8"/>
     </row>
-    <row r="405" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="9"/>
       <c r="C405" s="6"/>
@@ -15005,7 +15008,7 @@
       <c r="AF405" s="8"/>
       <c r="AG405" s="8"/>
     </row>
-    <row r="406" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="9"/>
       <c r="C406" s="6"/>
@@ -15040,7 +15043,7 @@
       <c r="AF406" s="8"/>
       <c r="AG406" s="8"/>
     </row>
-    <row r="407" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="9"/>
       <c r="C407" s="6"/>
@@ -15075,7 +15078,7 @@
       <c r="AF407" s="8"/>
       <c r="AG407" s="8"/>
     </row>
-    <row r="408" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="9"/>
       <c r="C408" s="6"/>
@@ -15110,7 +15113,7 @@
       <c r="AF408" s="8"/>
       <c r="AG408" s="8"/>
     </row>
-    <row r="409" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="9"/>
       <c r="C409" s="6"/>
@@ -15145,7 +15148,7 @@
       <c r="AF409" s="8"/>
       <c r="AG409" s="8"/>
     </row>
-    <row r="410" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="9"/>
       <c r="C410" s="6"/>
@@ -15180,7 +15183,7 @@
       <c r="AF410" s="8"/>
       <c r="AG410" s="8"/>
     </row>
-    <row r="411" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="9"/>
       <c r="C411" s="6"/>
@@ -15215,7 +15218,7 @@
       <c r="AF411" s="8"/>
       <c r="AG411" s="8"/>
     </row>
-    <row r="412" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="9"/>
       <c r="C412" s="6"/>
@@ -15250,7 +15253,7 @@
       <c r="AF412" s="8"/>
       <c r="AG412" s="8"/>
     </row>
-    <row r="413" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="9"/>
       <c r="C413" s="6"/>
@@ -15285,7 +15288,7 @@
       <c r="AF413" s="8"/>
       <c r="AG413" s="8"/>
     </row>
-    <row r="414" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="9"/>
       <c r="C414" s="6"/>
@@ -15320,7 +15323,7 @@
       <c r="AF414" s="8"/>
       <c r="AG414" s="8"/>
     </row>
-    <row r="415" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="9"/>
       <c r="C415" s="6"/>
@@ -15355,7 +15358,7 @@
       <c r="AF415" s="8"/>
       <c r="AG415" s="8"/>
     </row>
-    <row r="416" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="9"/>
       <c r="C416" s="6"/>
@@ -15390,7 +15393,7 @@
       <c r="AF416" s="8"/>
       <c r="AG416" s="8"/>
     </row>
-    <row r="417" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="9"/>
       <c r="C417" s="6"/>
@@ -15425,7 +15428,7 @@
       <c r="AF417" s="8"/>
       <c r="AG417" s="8"/>
     </row>
-    <row r="418" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="9"/>
       <c r="C418" s="6"/>
@@ -15460,7 +15463,7 @@
       <c r="AF418" s="8"/>
       <c r="AG418" s="8"/>
     </row>
-    <row r="419" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="9"/>
       <c r="C419" s="6"/>
@@ -15495,7 +15498,7 @@
       <c r="AF419" s="8"/>
       <c r="AG419" s="8"/>
     </row>
-    <row r="420" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="9"/>
       <c r="C420" s="6"/>
@@ -15530,7 +15533,7 @@
       <c r="AF420" s="8"/>
       <c r="AG420" s="8"/>
     </row>
-    <row r="421" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="9"/>
       <c r="C421" s="6"/>
@@ -15565,7 +15568,7 @@
       <c r="AF421" s="8"/>
       <c r="AG421" s="8"/>
     </row>
-    <row r="422" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="9"/>
       <c r="C422" s="6"/>
@@ -15600,7 +15603,7 @@
       <c r="AF422" s="8"/>
       <c r="AG422" s="8"/>
     </row>
-    <row r="423" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="9"/>
       <c r="C423" s="6"/>
@@ -15635,7 +15638,7 @@
       <c r="AF423" s="8"/>
       <c r="AG423" s="8"/>
     </row>
-    <row r="424" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="9"/>
       <c r="C424" s="6"/>
@@ -15670,7 +15673,7 @@
       <c r="AF424" s="8"/>
       <c r="AG424" s="8"/>
     </row>
-    <row r="425" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="9"/>
       <c r="C425" s="6"/>
@@ -15705,7 +15708,7 @@
       <c r="AF425" s="8"/>
       <c r="AG425" s="8"/>
     </row>
-    <row r="426" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="9"/>
       <c r="C426" s="6"/>
@@ -15740,7 +15743,7 @@
       <c r="AF426" s="8"/>
       <c r="AG426" s="8"/>
     </row>
-    <row r="427" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="9"/>
       <c r="C427" s="6"/>
@@ -15775,7 +15778,7 @@
       <c r="AF427" s="8"/>
       <c r="AG427" s="8"/>
     </row>
-    <row r="428" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="9"/>
       <c r="C428" s="6"/>
@@ -15810,7 +15813,7 @@
       <c r="AF428" s="8"/>
       <c r="AG428" s="8"/>
     </row>
-    <row r="429" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="9"/>
       <c r="C429" s="6"/>
@@ -15845,7 +15848,7 @@
       <c r="AF429" s="8"/>
       <c r="AG429" s="8"/>
     </row>
-    <row r="430" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="9"/>
       <c r="C430" s="6"/>
@@ -15880,7 +15883,7 @@
       <c r="AF430" s="8"/>
       <c r="AG430" s="8"/>
     </row>
-    <row r="431" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="9"/>
       <c r="C431" s="6"/>
@@ -15915,7 +15918,7 @@
       <c r="AF431" s="8"/>
       <c r="AG431" s="8"/>
     </row>
-    <row r="432" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="9"/>
       <c r="C432" s="6"/>
@@ -15950,7 +15953,7 @@
       <c r="AF432" s="8"/>
       <c r="AG432" s="8"/>
     </row>
-    <row r="433" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="9"/>
       <c r="C433" s="6"/>
@@ -15985,7 +15988,7 @@
       <c r="AF433" s="8"/>
       <c r="AG433" s="8"/>
     </row>
-    <row r="434" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="9"/>
       <c r="C434" s="6"/>
@@ -16020,7 +16023,7 @@
       <c r="AF434" s="8"/>
       <c r="AG434" s="8"/>
     </row>
-    <row r="435" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="9"/>
       <c r="C435" s="6"/>
@@ -16055,7 +16058,7 @@
       <c r="AF435" s="8"/>
       <c r="AG435" s="8"/>
     </row>
-    <row r="436" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="9"/>
       <c r="C436" s="6"/>
@@ -16090,7 +16093,7 @@
       <c r="AF436" s="8"/>
       <c r="AG436" s="8"/>
     </row>
-    <row r="437" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="9"/>
       <c r="C437" s="6"/>
@@ -16125,7 +16128,7 @@
       <c r="AF437" s="8"/>
       <c r="AG437" s="8"/>
     </row>
-    <row r="438" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="9"/>
       <c r="C438" s="6"/>
@@ -16160,7 +16163,7 @@
       <c r="AF438" s="8"/>
       <c r="AG438" s="8"/>
     </row>
-    <row r="439" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="9"/>
       <c r="C439" s="6"/>
@@ -16195,7 +16198,7 @@
       <c r="AF439" s="8"/>
       <c r="AG439" s="8"/>
     </row>
-    <row r="440" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="9"/>
       <c r="C440" s="6"/>
@@ -16230,7 +16233,7 @@
       <c r="AF440" s="8"/>
       <c r="AG440" s="8"/>
     </row>
-    <row r="441" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="9"/>
       <c r="C441" s="6"/>
@@ -16265,7 +16268,7 @@
       <c r="AF441" s="8"/>
       <c r="AG441" s="8"/>
     </row>
-    <row r="442" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="9"/>
       <c r="C442" s="6"/>
@@ -16300,7 +16303,7 @@
       <c r="AF442" s="8"/>
       <c r="AG442" s="8"/>
     </row>
-    <row r="443" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="9"/>
       <c r="C443" s="6"/>
@@ -16335,7 +16338,7 @@
       <c r="AF443" s="8"/>
       <c r="AG443" s="8"/>
     </row>
-    <row r="444" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="9"/>
       <c r="C444" s="6"/>
@@ -16370,7 +16373,7 @@
       <c r="AF444" s="8"/>
       <c r="AG444" s="8"/>
     </row>
-    <row r="445" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="9"/>
       <c r="C445" s="6"/>
@@ -16405,7 +16408,7 @@
       <c r="AF445" s="8"/>
       <c r="AG445" s="8"/>
     </row>
-    <row r="446" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="9"/>
       <c r="C446" s="6"/>
@@ -16440,7 +16443,7 @@
       <c r="AF446" s="8"/>
       <c r="AG446" s="8"/>
     </row>
-    <row r="447" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="9"/>
       <c r="C447" s="6"/>
@@ -16475,7 +16478,7 @@
       <c r="AF447" s="8"/>
       <c r="AG447" s="8"/>
     </row>
-    <row r="448" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="9"/>
       <c r="C448" s="6"/>
@@ -16510,7 +16513,7 @@
       <c r="AF448" s="8"/>
       <c r="AG448" s="8"/>
     </row>
-    <row r="449" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="9"/>
       <c r="C449" s="6"/>
@@ -16545,7 +16548,7 @@
       <c r="AF449" s="8"/>
       <c r="AG449" s="8"/>
     </row>
-    <row r="450" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="9"/>
       <c r="C450" s="6"/>
@@ -16580,7 +16583,7 @@
       <c r="AF450" s="8"/>
       <c r="AG450" s="8"/>
     </row>
-    <row r="451" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="9"/>
       <c r="C451" s="6"/>
@@ -16615,7 +16618,7 @@
       <c r="AF451" s="8"/>
       <c r="AG451" s="8"/>
     </row>
-    <row r="452" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="9"/>
       <c r="C452" s="6"/>
@@ -16650,7 +16653,7 @@
       <c r="AF452" s="8"/>
       <c r="AG452" s="8"/>
     </row>
-    <row r="453" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="9"/>
       <c r="C453" s="6"/>
@@ -16685,7 +16688,7 @@
       <c r="AF453" s="8"/>
       <c r="AG453" s="8"/>
     </row>
-    <row r="454" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="9"/>
       <c r="C454" s="6"/>
@@ -16720,7 +16723,7 @@
       <c r="AF454" s="8"/>
       <c r="AG454" s="8"/>
     </row>
-    <row r="455" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="9"/>
       <c r="C455" s="6"/>
@@ -16755,7 +16758,7 @@
       <c r="AF455" s="8"/>
       <c r="AG455" s="8"/>
     </row>
-    <row r="456" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="9"/>
       <c r="C456" s="6"/>
@@ -16790,7 +16793,7 @@
       <c r="AF456" s="8"/>
       <c r="AG456" s="8"/>
     </row>
-    <row r="457" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="9"/>
       <c r="C457" s="6"/>
@@ -16825,7 +16828,7 @@
       <c r="AF457" s="8"/>
       <c r="AG457" s="8"/>
     </row>
-    <row r="458" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="9"/>
       <c r="C458" s="6"/>
@@ -16860,7 +16863,7 @@
       <c r="AF458" s="8"/>
       <c r="AG458" s="8"/>
     </row>
-    <row r="459" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="9"/>
       <c r="C459" s="6"/>
@@ -16895,7 +16898,7 @@
       <c r="AF459" s="8"/>
       <c r="AG459" s="8"/>
     </row>
-    <row r="460" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="9"/>
       <c r="C460" s="6"/>
@@ -16930,7 +16933,7 @@
       <c r="AF460" s="8"/>
       <c r="AG460" s="8"/>
     </row>
-    <row r="461" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="9"/>
       <c r="C461" s="6"/>
@@ -16965,7 +16968,7 @@
       <c r="AF461" s="8"/>
       <c r="AG461" s="8"/>
     </row>
-    <row r="462" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="9"/>
       <c r="C462" s="6"/>
@@ -17000,7 +17003,7 @@
       <c r="AF462" s="8"/>
       <c r="AG462" s="8"/>
     </row>
-    <row r="463" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="9"/>
       <c r="C463" s="6"/>
@@ -17035,7 +17038,7 @@
       <c r="AF463" s="8"/>
       <c r="AG463" s="8"/>
     </row>
-    <row r="464" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="9"/>
       <c r="C464" s="6"/>
@@ -17070,7 +17073,7 @@
       <c r="AF464" s="8"/>
       <c r="AG464" s="8"/>
     </row>
-    <row r="465" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="9"/>
       <c r="C465" s="6"/>
@@ -17105,7 +17108,7 @@
       <c r="AF465" s="8"/>
       <c r="AG465" s="8"/>
     </row>
-    <row r="466" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="9"/>
       <c r="C466" s="6"/>
@@ -17140,7 +17143,7 @@
       <c r="AF466" s="8"/>
       <c r="AG466" s="8"/>
     </row>
-    <row r="467" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="9"/>
       <c r="C467" s="6"/>
@@ -17175,7 +17178,7 @@
       <c r="AF467" s="8"/>
       <c r="AG467" s="8"/>
     </row>
-    <row r="468" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="9"/>
       <c r="C468" s="6"/>
@@ -17210,7 +17213,7 @@
       <c r="AF468" s="8"/>
       <c r="AG468" s="8"/>
     </row>
-    <row r="469" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="9"/>
       <c r="C469" s="6"/>
@@ -17245,7 +17248,7 @@
       <c r="AF469" s="8"/>
       <c r="AG469" s="8"/>
     </row>
-    <row r="470" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="9"/>
       <c r="C470" s="6"/>
@@ -17280,7 +17283,7 @@
       <c r="AF470" s="8"/>
       <c r="AG470" s="8"/>
     </row>
-    <row r="471" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="9"/>
       <c r="C471" s="6"/>
@@ -17315,7 +17318,7 @@
       <c r="AF471" s="8"/>
       <c r="AG471" s="8"/>
     </row>
-    <row r="472" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="9"/>
       <c r="C472" s="6"/>
@@ -17350,7 +17353,7 @@
       <c r="AF472" s="8"/>
       <c r="AG472" s="8"/>
     </row>
-    <row r="473" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="9"/>
       <c r="C473" s="6"/>
@@ -17385,7 +17388,7 @@
       <c r="AF473" s="8"/>
       <c r="AG473" s="8"/>
     </row>
-    <row r="474" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="9"/>
       <c r="C474" s="6"/>
@@ -17420,7 +17423,7 @@
       <c r="AF474" s="8"/>
       <c r="AG474" s="8"/>
     </row>
-    <row r="475" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="9"/>
       <c r="C475" s="6"/>
@@ -17455,7 +17458,7 @@
       <c r="AF475" s="8"/>
       <c r="AG475" s="8"/>
     </row>
-    <row r="476" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="9"/>
       <c r="C476" s="6"/>
@@ -17490,7 +17493,7 @@
       <c r="AF476" s="8"/>
       <c r="AG476" s="8"/>
     </row>
-    <row r="477" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="9"/>
       <c r="C477" s="6"/>
@@ -17525,7 +17528,7 @@
       <c r="AF477" s="8"/>
       <c r="AG477" s="8"/>
     </row>
-    <row r="478" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="9"/>
       <c r="C478" s="6"/>
@@ -17560,7 +17563,7 @@
       <c r="AF478" s="8"/>
       <c r="AG478" s="8"/>
     </row>
-    <row r="479" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="9"/>
       <c r="C479" s="6"/>
@@ -17595,7 +17598,7 @@
       <c r="AF479" s="8"/>
       <c r="AG479" s="8"/>
     </row>
-    <row r="480" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="9"/>
       <c r="C480" s="6"/>
@@ -17630,7 +17633,7 @@
       <c r="AF480" s="8"/>
       <c r="AG480" s="8"/>
     </row>
-    <row r="481" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="9"/>
       <c r="C481" s="6"/>
@@ -17665,7 +17668,7 @@
       <c r="AF481" s="8"/>
       <c r="AG481" s="8"/>
     </row>
-    <row r="482" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="9"/>
       <c r="C482" s="6"/>
@@ -17700,7 +17703,7 @@
       <c r="AF482" s="8"/>
       <c r="AG482" s="8"/>
     </row>
-    <row r="483" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="9"/>
       <c r="C483" s="6"/>
@@ -17735,7 +17738,7 @@
       <c r="AF483" s="8"/>
       <c r="AG483" s="8"/>
     </row>
-    <row r="484" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="9"/>
       <c r="C484" s="6"/>
@@ -17770,7 +17773,7 @@
       <c r="AF484" s="8"/>
       <c r="AG484" s="8"/>
     </row>
-    <row r="485" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="9"/>
       <c r="C485" s="6"/>
@@ -17805,7 +17808,7 @@
       <c r="AF485" s="8"/>
       <c r="AG485" s="8"/>
     </row>
-    <row r="486" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="9"/>
       <c r="C486" s="6"/>
@@ -17840,7 +17843,7 @@
       <c r="AF486" s="8"/>
       <c r="AG486" s="8"/>
     </row>
-    <row r="487" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="9"/>
       <c r="C487" s="6"/>
@@ -17875,7 +17878,7 @@
       <c r="AF487" s="8"/>
       <c r="AG487" s="8"/>
     </row>
-    <row r="488" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="9"/>
       <c r="C488" s="6"/>
@@ -17910,7 +17913,7 @@
       <c r="AF488" s="8"/>
       <c r="AG488" s="8"/>
     </row>
-    <row r="489" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="9"/>
       <c r="C489" s="6"/>
@@ -17945,7 +17948,7 @@
       <c r="AF489" s="8"/>
       <c r="AG489" s="8"/>
     </row>
-    <row r="490" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="9"/>
       <c r="C490" s="6"/>
@@ -17980,7 +17983,7 @@
       <c r="AF490" s="8"/>
       <c r="AG490" s="8"/>
     </row>
-    <row r="491" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="9"/>
       <c r="C491" s="6"/>
@@ -18015,7 +18018,7 @@
       <c r="AF491" s="8"/>
       <c r="AG491" s="8"/>
     </row>
-    <row r="492" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="9"/>
       <c r="C492" s="6"/>
@@ -18050,7 +18053,7 @@
       <c r="AF492" s="8"/>
       <c r="AG492" s="8"/>
     </row>
-    <row r="493" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="9"/>
       <c r="C493" s="6"/>
@@ -18085,7 +18088,7 @@
       <c r="AF493" s="8"/>
       <c r="AG493" s="8"/>
     </row>
-    <row r="494" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="9"/>
       <c r="C494" s="6"/>
@@ -18120,7 +18123,7 @@
       <c r="AF494" s="8"/>
       <c r="AG494" s="8"/>
     </row>
-    <row r="495" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="9"/>
       <c r="C495" s="6"/>
@@ -18155,7 +18158,7 @@
       <c r="AF495" s="8"/>
       <c r="AG495" s="8"/>
     </row>
-    <row r="496" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="9"/>
       <c r="C496" s="6"/>
@@ -18190,7 +18193,7 @@
       <c r="AF496" s="8"/>
       <c r="AG496" s="8"/>
     </row>
-    <row r="497" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="9"/>
       <c r="C497" s="6"/>
@@ -18225,7 +18228,7 @@
       <c r="AF497" s="8"/>
       <c r="AG497" s="8"/>
     </row>
-    <row r="498" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="9"/>
       <c r="C498" s="6"/>
@@ -18260,7 +18263,7 @@
       <c r="AF498" s="8"/>
       <c r="AG498" s="8"/>
     </row>
-    <row r="499" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="9"/>
       <c r="C499" s="6"/>
@@ -18295,7 +18298,7 @@
       <c r="AF499" s="8"/>
       <c r="AG499" s="8"/>
     </row>
-    <row r="500" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="9"/>
       <c r="C500" s="6"/>
@@ -18330,7 +18333,7 @@
       <c r="AF500" s="8"/>
       <c r="AG500" s="8"/>
     </row>
-    <row r="501" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="9"/>
       <c r="C501" s="6"/>
@@ -18365,7 +18368,7 @@
       <c r="AF501" s="8"/>
       <c r="AG501" s="8"/>
     </row>
-    <row r="502" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="9"/>
       <c r="C502" s="6"/>
@@ -18400,7 +18403,7 @@
       <c r="AF502" s="8"/>
       <c r="AG502" s="8"/>
     </row>
-    <row r="503" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="9"/>
       <c r="C503" s="6"/>
@@ -18435,7 +18438,7 @@
       <c r="AF503" s="8"/>
       <c r="AG503" s="8"/>
     </row>
-    <row r="504" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="9"/>
       <c r="C504" s="6"/>
@@ -18470,7 +18473,7 @@
       <c r="AF504" s="8"/>
       <c r="AG504" s="8"/>
     </row>
-    <row r="505" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="9"/>
       <c r="C505" s="6"/>
@@ -18505,7 +18508,7 @@
       <c r="AF505" s="8"/>
       <c r="AG505" s="8"/>
     </row>
-    <row r="506" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="9"/>
       <c r="C506" s="6"/>
@@ -18540,7 +18543,7 @@
       <c r="AF506" s="8"/>
       <c r="AG506" s="8"/>
     </row>
-    <row r="507" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="9"/>
       <c r="C507" s="6"/>
@@ -18575,7 +18578,7 @@
       <c r="AF507" s="8"/>
       <c r="AG507" s="8"/>
     </row>
-    <row r="508" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="9"/>
       <c r="C508" s="6"/>
@@ -18610,7 +18613,7 @@
       <c r="AF508" s="8"/>
       <c r="AG508" s="8"/>
     </row>
-    <row r="509" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="9"/>
       <c r="C509" s="6"/>
@@ -18645,7 +18648,7 @@
       <c r="AF509" s="8"/>
       <c r="AG509" s="8"/>
     </row>
-    <row r="510" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="9"/>
       <c r="C510" s="6"/>
@@ -18680,7 +18683,7 @@
       <c r="AF510" s="8"/>
       <c r="AG510" s="8"/>
     </row>
-    <row r="511" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="9"/>
       <c r="C511" s="6"/>
@@ -18715,7 +18718,7 @@
       <c r="AF511" s="8"/>
       <c r="AG511" s="8"/>
     </row>
-    <row r="512" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="9"/>
       <c r="C512" s="6"/>
@@ -18750,7 +18753,7 @@
       <c r="AF512" s="8"/>
       <c r="AG512" s="8"/>
     </row>
-    <row r="513" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="9"/>
       <c r="C513" s="6"/>
@@ -18785,7 +18788,7 @@
       <c r="AF513" s="8"/>
       <c r="AG513" s="8"/>
     </row>
-    <row r="514" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="9"/>
       <c r="C514" s="6"/>
@@ -18820,7 +18823,7 @@
       <c r="AF514" s="8"/>
       <c r="AG514" s="8"/>
     </row>
-    <row r="515" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="9"/>
       <c r="C515" s="6"/>
@@ -18855,7 +18858,7 @@
       <c r="AF515" s="8"/>
       <c r="AG515" s="8"/>
     </row>
-    <row r="516" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="9"/>
       <c r="C516" s="6"/>
@@ -18890,7 +18893,7 @@
       <c r="AF516" s="8"/>
       <c r="AG516" s="8"/>
     </row>
-    <row r="517" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="9"/>
       <c r="C517" s="6"/>
@@ -18925,7 +18928,7 @@
       <c r="AF517" s="8"/>
       <c r="AG517" s="8"/>
     </row>
-    <row r="518" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="9"/>
       <c r="C518" s="6"/>
@@ -18960,7 +18963,7 @@
       <c r="AF518" s="8"/>
       <c r="AG518" s="8"/>
     </row>
-    <row r="519" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="9"/>
       <c r="C519" s="6"/>
@@ -18995,7 +18998,7 @@
       <c r="AF519" s="8"/>
       <c r="AG519" s="8"/>
     </row>
-    <row r="520" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="9"/>
       <c r="C520" s="6"/>
@@ -19030,7 +19033,7 @@
       <c r="AF520" s="8"/>
       <c r="AG520" s="8"/>
     </row>
-    <row r="521" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="9"/>
       <c r="C521" s="6"/>
@@ -19065,7 +19068,7 @@
       <c r="AF521" s="8"/>
       <c r="AG521" s="8"/>
     </row>
-    <row r="522" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="9"/>
       <c r="C522" s="6"/>
@@ -19100,7 +19103,7 @@
       <c r="AF522" s="8"/>
       <c r="AG522" s="8"/>
     </row>
-    <row r="523" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="9"/>
       <c r="C523" s="6"/>
@@ -19135,7 +19138,7 @@
       <c r="AF523" s="8"/>
       <c r="AG523" s="8"/>
     </row>
-    <row r="524" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="9"/>
       <c r="C524" s="6"/>
@@ -19170,7 +19173,7 @@
       <c r="AF524" s="8"/>
       <c r="AG524" s="8"/>
     </row>
-    <row r="525" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="9"/>
       <c r="C525" s="6"/>
@@ -19205,7 +19208,7 @@
       <c r="AF525" s="8"/>
       <c r="AG525" s="8"/>
     </row>
-    <row r="526" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="9"/>
       <c r="C526" s="6"/>
@@ -19240,7 +19243,7 @@
       <c r="AF526" s="8"/>
       <c r="AG526" s="8"/>
     </row>
-    <row r="527" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="9"/>
       <c r="C527" s="6"/>
@@ -19275,7 +19278,7 @@
       <c r="AF527" s="8"/>
       <c r="AG527" s="8"/>
     </row>
-    <row r="528" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="9"/>
       <c r="C528" s="6"/>
@@ -19310,7 +19313,7 @@
       <c r="AF528" s="8"/>
       <c r="AG528" s="8"/>
     </row>
-    <row r="529" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="9"/>
       <c r="C529" s="6"/>
@@ -19345,7 +19348,7 @@
       <c r="AF529" s="8"/>
       <c r="AG529" s="8"/>
     </row>
-    <row r="530" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="9"/>
       <c r="C530" s="6"/>
@@ -19380,7 +19383,7 @@
       <c r="AF530" s="8"/>
       <c r="AG530" s="8"/>
     </row>
-    <row r="531" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="9"/>
       <c r="C531" s="6"/>
@@ -19415,7 +19418,7 @@
       <c r="AF531" s="8"/>
       <c r="AG531" s="8"/>
     </row>
-    <row r="532" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="9"/>
       <c r="C532" s="6"/>
@@ -19450,7 +19453,7 @@
       <c r="AF532" s="8"/>
       <c r="AG532" s="8"/>
     </row>
-    <row r="533" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="9"/>
       <c r="C533" s="6"/>
@@ -19485,7 +19488,7 @@
       <c r="AF533" s="8"/>
       <c r="AG533" s="8"/>
     </row>
-    <row r="534" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="9"/>
       <c r="C534" s="6"/>
@@ -19520,7 +19523,7 @@
       <c r="AF534" s="8"/>
       <c r="AG534" s="8"/>
     </row>
-    <row r="535" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="9"/>
       <c r="C535" s="6"/>
@@ -19555,7 +19558,7 @@
       <c r="AF535" s="8"/>
       <c r="AG535" s="8"/>
     </row>
-    <row r="536" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="9"/>
       <c r="C536" s="6"/>
@@ -19590,7 +19593,7 @@
       <c r="AF536" s="8"/>
       <c r="AG536" s="8"/>
     </row>
-    <row r="537" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="9"/>
       <c r="C537" s="6"/>
@@ -19625,7 +19628,7 @@
       <c r="AF537" s="8"/>
       <c r="AG537" s="8"/>
     </row>
-    <row r="538" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="9"/>
       <c r="C538" s="6"/>
@@ -19660,7 +19663,7 @@
       <c r="AF538" s="8"/>
       <c r="AG538" s="8"/>
     </row>
-    <row r="539" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="9"/>
       <c r="C539" s="6"/>
@@ -19695,7 +19698,7 @@
       <c r="AF539" s="8"/>
       <c r="AG539" s="8"/>
     </row>
-    <row r="540" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="9"/>
       <c r="C540" s="6"/>
@@ -19730,7 +19733,7 @@
       <c r="AF540" s="8"/>
       <c r="AG540" s="8"/>
     </row>
-    <row r="541" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="9"/>
       <c r="C541" s="6"/>
@@ -19765,7 +19768,7 @@
       <c r="AF541" s="8"/>
       <c r="AG541" s="8"/>
     </row>
-    <row r="542" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="9"/>
       <c r="C542" s="6"/>
@@ -19800,7 +19803,7 @@
       <c r="AF542" s="8"/>
       <c r="AG542" s="8"/>
     </row>
-    <row r="543" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="9"/>
       <c r="C543" s="6"/>
@@ -19835,7 +19838,7 @@
       <c r="AF543" s="8"/>
       <c r="AG543" s="8"/>
     </row>
-    <row r="544" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="9"/>
       <c r="C544" s="6"/>
@@ -19870,7 +19873,7 @@
       <c r="AF544" s="8"/>
       <c r="AG544" s="8"/>
     </row>
-    <row r="545" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="9"/>
       <c r="C545" s="6"/>
@@ -19905,7 +19908,7 @@
       <c r="AF545" s="8"/>
       <c r="AG545" s="8"/>
     </row>
-    <row r="546" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="9"/>
       <c r="C546" s="6"/>
@@ -19940,7 +19943,7 @@
       <c r="AF546" s="8"/>
       <c r="AG546" s="8"/>
     </row>
-    <row r="547" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="9"/>
       <c r="C547" s="6"/>
@@ -19975,7 +19978,7 @@
       <c r="AF547" s="8"/>
       <c r="AG547" s="8"/>
     </row>
-    <row r="548" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="9"/>
       <c r="C548" s="6"/>
@@ -20010,7 +20013,7 @@
       <c r="AF548" s="8"/>
       <c r="AG548" s="8"/>
     </row>
-    <row r="549" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="9"/>
       <c r="C549" s="6"/>
@@ -20045,7 +20048,7 @@
       <c r="AF549" s="8"/>
       <c r="AG549" s="8"/>
     </row>
-    <row r="550" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="9"/>
       <c r="C550" s="6"/>
@@ -20080,7 +20083,7 @@
       <c r="AF550" s="8"/>
       <c r="AG550" s="8"/>
     </row>
-    <row r="551" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="9"/>
       <c r="C551" s="6"/>
@@ -20115,7 +20118,7 @@
       <c r="AF551" s="8"/>
       <c r="AG551" s="8"/>
     </row>
-    <row r="552" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="9"/>
       <c r="C552" s="6"/>
@@ -20150,7 +20153,7 @@
       <c r="AF552" s="8"/>
       <c r="AG552" s="8"/>
     </row>
-    <row r="553" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="9"/>
       <c r="C553" s="6"/>
@@ -20185,7 +20188,7 @@
       <c r="AF553" s="8"/>
       <c r="AG553" s="8"/>
     </row>
-    <row r="554" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="9"/>
       <c r="C554" s="6"/>
@@ -20220,7 +20223,7 @@
       <c r="AF554" s="8"/>
       <c r="AG554" s="8"/>
     </row>
-    <row r="555" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="9"/>
       <c r="C555" s="6"/>
@@ -20255,7 +20258,7 @@
       <c r="AF555" s="8"/>
       <c r="AG555" s="8"/>
     </row>
-    <row r="556" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="9"/>
       <c r="C556" s="6"/>
@@ -20290,7 +20293,7 @@
       <c r="AF556" s="8"/>
       <c r="AG556" s="8"/>
     </row>
-    <row r="557" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="9"/>
       <c r="C557" s="6"/>
@@ -20325,7 +20328,7 @@
       <c r="AF557" s="8"/>
       <c r="AG557" s="8"/>
     </row>
-    <row r="558" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="9"/>
       <c r="C558" s="6"/>
@@ -20360,7 +20363,7 @@
       <c r="AF558" s="8"/>
       <c r="AG558" s="8"/>
     </row>
-    <row r="559" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="9"/>
       <c r="C559" s="6"/>
@@ -20395,7 +20398,7 @@
       <c r="AF559" s="8"/>
       <c r="AG559" s="8"/>
     </row>
-    <row r="560" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="9"/>
       <c r="C560" s="6"/>
@@ -20430,7 +20433,7 @@
       <c r="AF560" s="8"/>
       <c r="AG560" s="8"/>
     </row>
-    <row r="561" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="9"/>
       <c r="C561" s="6"/>
@@ -20465,7 +20468,7 @@
       <c r="AF561" s="8"/>
       <c r="AG561" s="8"/>
     </row>
-    <row r="562" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="9"/>
       <c r="C562" s="6"/>
@@ -20500,7 +20503,7 @@
       <c r="AF562" s="8"/>
       <c r="AG562" s="8"/>
     </row>
-    <row r="563" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="9"/>
       <c r="C563" s="6"/>
@@ -20535,7 +20538,7 @@
       <c r="AF563" s="8"/>
       <c r="AG563" s="8"/>
     </row>
-    <row r="564" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="9"/>
       <c r="C564" s="6"/>
@@ -20570,7 +20573,7 @@
       <c r="AF564" s="8"/>
       <c r="AG564" s="8"/>
     </row>
-    <row r="565" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="9"/>
       <c r="C565" s="6"/>
@@ -20605,7 +20608,7 @@
       <c r="AF565" s="8"/>
       <c r="AG565" s="8"/>
     </row>
-    <row r="566" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="9"/>
       <c r="C566" s="6"/>
@@ -20640,7 +20643,7 @@
       <c r="AF566" s="8"/>
       <c r="AG566" s="8"/>
     </row>
-    <row r="567" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="9"/>
       <c r="C567" s="6"/>
@@ -20675,7 +20678,7 @@
       <c r="AF567" s="8"/>
       <c r="AG567" s="8"/>
     </row>
-    <row r="568" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="9"/>
       <c r="C568" s="6"/>
@@ -20710,7 +20713,7 @@
       <c r="AF568" s="8"/>
       <c r="AG568" s="8"/>
     </row>
-    <row r="569" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="9"/>
       <c r="C569" s="6"/>
@@ -20745,7 +20748,7 @@
       <c r="AF569" s="8"/>
       <c r="AG569" s="8"/>
     </row>
-    <row r="570" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="9"/>
       <c r="C570" s="6"/>
@@ -20780,7 +20783,7 @@
       <c r="AF570" s="8"/>
       <c r="AG570" s="8"/>
     </row>
-    <row r="571" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="9"/>
       <c r="C571" s="6"/>
@@ -20815,7 +20818,7 @@
       <c r="AF571" s="8"/>
       <c r="AG571" s="8"/>
     </row>
-    <row r="572" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="9"/>
       <c r="C572" s="6"/>
@@ -20850,7 +20853,7 @@
       <c r="AF572" s="8"/>
       <c r="AG572" s="8"/>
     </row>
-    <row r="573" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="9"/>
       <c r="C573" s="6"/>
@@ -20885,7 +20888,7 @@
       <c r="AF573" s="8"/>
       <c r="AG573" s="8"/>
     </row>
-    <row r="574" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="9"/>
       <c r="C574" s="6"/>
@@ -20920,7 +20923,7 @@
       <c r="AF574" s="8"/>
       <c r="AG574" s="8"/>
     </row>
-    <row r="575" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="9"/>
       <c r="C575" s="6"/>
@@ -20955,7 +20958,7 @@
       <c r="AF575" s="8"/>
       <c r="AG575" s="8"/>
     </row>
-    <row r="576" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="9"/>
       <c r="C576" s="6"/>
@@ -20990,7 +20993,7 @@
       <c r="AF576" s="8"/>
       <c r="AG576" s="8"/>
     </row>
-    <row r="577" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="9"/>
       <c r="C577" s="6"/>
@@ -21025,7 +21028,7 @@
       <c r="AF577" s="8"/>
       <c r="AG577" s="8"/>
     </row>
-    <row r="578" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="9"/>
       <c r="C578" s="6"/>
@@ -21060,7 +21063,7 @@
       <c r="AF578" s="8"/>
       <c r="AG578" s="8"/>
     </row>
-    <row r="579" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="9"/>
       <c r="C579" s="6"/>
@@ -21095,7 +21098,7 @@
       <c r="AF579" s="8"/>
       <c r="AG579" s="8"/>
     </row>
-    <row r="580" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="9"/>
       <c r="C580" s="6"/>
@@ -21130,7 +21133,7 @@
       <c r="AF580" s="8"/>
       <c r="AG580" s="8"/>
     </row>
-    <row r="581" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="9"/>
       <c r="C581" s="6"/>
@@ -21165,7 +21168,7 @@
       <c r="AF581" s="8"/>
       <c r="AG581" s="8"/>
     </row>
-    <row r="582" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="9"/>
       <c r="C582" s="6"/>
@@ -21200,7 +21203,7 @@
       <c r="AF582" s="8"/>
       <c r="AG582" s="8"/>
     </row>
-    <row r="583" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="9"/>
       <c r="C583" s="6"/>
@@ -21235,7 +21238,7 @@
       <c r="AF583" s="8"/>
       <c r="AG583" s="8"/>
     </row>
-    <row r="584" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="9"/>
       <c r="C584" s="6"/>
@@ -21270,7 +21273,7 @@
       <c r="AF584" s="8"/>
       <c r="AG584" s="8"/>
     </row>
-    <row r="585" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="9"/>
       <c r="C585" s="6"/>
@@ -21305,7 +21308,7 @@
       <c r="AF585" s="8"/>
       <c r="AG585" s="8"/>
     </row>
-    <row r="586" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="9"/>
       <c r="C586" s="6"/>
@@ -21340,7 +21343,7 @@
       <c r="AF586" s="8"/>
       <c r="AG586" s="8"/>
     </row>
-    <row r="587" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="9"/>
       <c r="C587" s="6"/>
@@ -21375,7 +21378,7 @@
       <c r="AF587" s="8"/>
       <c r="AG587" s="8"/>
     </row>
-    <row r="588" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="9"/>
       <c r="C588" s="6"/>
@@ -21410,7 +21413,7 @@
       <c r="AF588" s="8"/>
       <c r="AG588" s="8"/>
     </row>
-    <row r="589" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="9"/>
       <c r="C589" s="6"/>
@@ -21445,7 +21448,7 @@
       <c r="AF589" s="8"/>
       <c r="AG589" s="8"/>
     </row>
-    <row r="590" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="9"/>
       <c r="C590" s="6"/>
@@ -21480,7 +21483,7 @@
       <c r="AF590" s="8"/>
       <c r="AG590" s="8"/>
     </row>
-    <row r="591" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="9"/>
       <c r="C591" s="6"/>
@@ -21515,7 +21518,7 @@
       <c r="AF591" s="8"/>
       <c r="AG591" s="8"/>
     </row>
-    <row r="592" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="9"/>
       <c r="C592" s="6"/>
@@ -21550,7 +21553,7 @@
       <c r="AF592" s="8"/>
       <c r="AG592" s="8"/>
     </row>
-    <row r="593" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="9"/>
       <c r="C593" s="6"/>
@@ -21585,7 +21588,7 @@
       <c r="AF593" s="8"/>
       <c r="AG593" s="8"/>
     </row>
-    <row r="594" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="9"/>
       <c r="C594" s="6"/>
@@ -21620,7 +21623,7 @@
       <c r="AF594" s="8"/>
       <c r="AG594" s="8"/>
     </row>
-    <row r="595" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="9"/>
       <c r="C595" s="6"/>
@@ -21655,7 +21658,7 @@
       <c r="AF595" s="8"/>
       <c r="AG595" s="8"/>
     </row>
-    <row r="596" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="9"/>
       <c r="C596" s="6"/>
@@ -21690,7 +21693,7 @@
       <c r="AF596" s="8"/>
       <c r="AG596" s="8"/>
     </row>
-    <row r="597" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="9"/>
       <c r="C597" s="6"/>
@@ -21725,7 +21728,7 @@
       <c r="AF597" s="8"/>
       <c r="AG597" s="8"/>
     </row>
-    <row r="598" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="9"/>
       <c r="C598" s="6"/>
@@ -21760,7 +21763,7 @@
       <c r="AF598" s="8"/>
       <c r="AG598" s="8"/>
     </row>
-    <row r="599" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="9"/>
       <c r="C599" s="6"/>
@@ -21795,7 +21798,7 @@
       <c r="AF599" s="8"/>
       <c r="AG599" s="8"/>
     </row>
-    <row r="600" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="9"/>
       <c r="C600" s="6"/>
@@ -21830,7 +21833,7 @@
       <c r="AF600" s="8"/>
       <c r="AG600" s="8"/>
     </row>
-    <row r="601" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="9"/>
       <c r="C601" s="6"/>
@@ -21865,7 +21868,7 @@
       <c r="AF601" s="8"/>
       <c r="AG601" s="8"/>
     </row>
-    <row r="602" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="9"/>
       <c r="C602" s="6"/>
@@ -21900,7 +21903,7 @@
       <c r="AF602" s="8"/>
       <c r="AG602" s="8"/>
     </row>
-    <row r="603" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="9"/>
       <c r="C603" s="6"/>
@@ -21935,7 +21938,7 @@
       <c r="AF603" s="8"/>
       <c r="AG603" s="8"/>
     </row>
-    <row r="604" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="9"/>
       <c r="C604" s="6"/>
@@ -21970,7 +21973,7 @@
       <c r="AF604" s="8"/>
       <c r="AG604" s="8"/>
     </row>
-    <row r="605" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="9"/>
       <c r="C605" s="6"/>
@@ -22005,7 +22008,7 @@
       <c r="AF605" s="8"/>
       <c r="AG605" s="8"/>
     </row>
-    <row r="606" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="9"/>
       <c r="C606" s="6"/>
@@ -22040,7 +22043,7 @@
       <c r="AF606" s="8"/>
       <c r="AG606" s="8"/>
     </row>
-    <row r="607" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="9"/>
       <c r="C607" s="6"/>
@@ -22075,7 +22078,7 @@
       <c r="AF607" s="8"/>
       <c r="AG607" s="8"/>
     </row>
-    <row r="608" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="9"/>
       <c r="C608" s="6"/>
@@ -22110,7 +22113,7 @@
       <c r="AF608" s="8"/>
       <c r="AG608" s="8"/>
     </row>
-    <row r="609" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="9"/>
       <c r="C609" s="6"/>
@@ -22145,7 +22148,7 @@
       <c r="AF609" s="8"/>
       <c r="AG609" s="8"/>
     </row>
-    <row r="610" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="9"/>
       <c r="C610" s="6"/>
@@ -22180,7 +22183,7 @@
       <c r="AF610" s="8"/>
       <c r="AG610" s="8"/>
     </row>
-    <row r="611" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="9"/>
       <c r="C611" s="6"/>
@@ -22215,7 +22218,7 @@
       <c r="AF611" s="8"/>
       <c r="AG611" s="8"/>
     </row>
-    <row r="612" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="9"/>
       <c r="C612" s="6"/>
@@ -22250,7 +22253,7 @@
       <c r="AF612" s="8"/>
       <c r="AG612" s="8"/>
     </row>
-    <row r="613" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="9"/>
       <c r="C613" s="6"/>
@@ -22285,7 +22288,7 @@
       <c r="AF613" s="8"/>
       <c r="AG613" s="8"/>
     </row>
-    <row r="614" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="9"/>
       <c r="C614" s="6"/>
@@ -22320,7 +22323,7 @@
       <c r="AF614" s="8"/>
       <c r="AG614" s="8"/>
     </row>
-    <row r="615" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="9"/>
       <c r="C615" s="6"/>
@@ -22355,7 +22358,7 @@
       <c r="AF615" s="8"/>
       <c r="AG615" s="8"/>
     </row>
-    <row r="616" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="9"/>
       <c r="C616" s="6"/>
@@ -22390,7 +22393,7 @@
       <c r="AF616" s="8"/>
       <c r="AG616" s="8"/>
     </row>
-    <row r="617" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="9"/>
       <c r="C617" s="6"/>
@@ -22425,7 +22428,7 @@
       <c r="AF617" s="8"/>
       <c r="AG617" s="8"/>
     </row>
-    <row r="618" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="9"/>
       <c r="C618" s="6"/>
@@ -22460,7 +22463,7 @@
       <c r="AF618" s="8"/>
       <c r="AG618" s="8"/>
     </row>
-    <row r="619" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="9"/>
       <c r="C619" s="6"/>
@@ -22495,7 +22498,7 @@
       <c r="AF619" s="8"/>
       <c r="AG619" s="8"/>
     </row>
-    <row r="620" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="9"/>
       <c r="C620" s="6"/>
@@ -22530,7 +22533,7 @@
       <c r="AF620" s="8"/>
       <c r="AG620" s="8"/>
     </row>
-    <row r="621" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="9"/>
       <c r="C621" s="6"/>
@@ -22565,7 +22568,7 @@
       <c r="AF621" s="8"/>
       <c r="AG621" s="8"/>
     </row>
-    <row r="622" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="9"/>
       <c r="C622" s="6"/>
@@ -22600,7 +22603,7 @@
       <c r="AF622" s="8"/>
       <c r="AG622" s="8"/>
     </row>
-    <row r="623" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="9"/>
       <c r="C623" s="6"/>
@@ -22635,7 +22638,7 @@
       <c r="AF623" s="8"/>
       <c r="AG623" s="8"/>
     </row>
-    <row r="624" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="9"/>
       <c r="C624" s="6"/>
@@ -22670,7 +22673,7 @@
       <c r="AF624" s="8"/>
       <c r="AG624" s="8"/>
     </row>
-    <row r="625" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="9"/>
       <c r="C625" s="6"/>
@@ -22705,7 +22708,7 @@
       <c r="AF625" s="8"/>
       <c r="AG625" s="8"/>
     </row>
-    <row r="626" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="9"/>
       <c r="C626" s="6"/>
@@ -22740,7 +22743,7 @@
       <c r="AF626" s="8"/>
       <c r="AG626" s="8"/>
     </row>
-    <row r="627" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="9"/>
       <c r="C627" s="6"/>
@@ -22775,7 +22778,7 @@
       <c r="AF627" s="8"/>
       <c r="AG627" s="8"/>
     </row>
-    <row r="628" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="9"/>
       <c r="C628" s="6"/>
@@ -22810,7 +22813,7 @@
       <c r="AF628" s="8"/>
       <c r="AG628" s="8"/>
     </row>
-    <row r="629" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="9"/>
       <c r="C629" s="6"/>
@@ -22845,7 +22848,7 @@
       <c r="AF629" s="8"/>
       <c r="AG629" s="8"/>
     </row>
-    <row r="630" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="9"/>
       <c r="C630" s="6"/>
@@ -22880,7 +22883,7 @@
       <c r="AF630" s="8"/>
       <c r="AG630" s="8"/>
     </row>
-    <row r="631" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="9"/>
       <c r="C631" s="6"/>
@@ -22915,7 +22918,7 @@
       <c r="AF631" s="8"/>
       <c r="AG631" s="8"/>
     </row>
-    <row r="632" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="9"/>
       <c r="C632" s="6"/>
@@ -22950,7 +22953,7 @@
       <c r="AF632" s="8"/>
       <c r="AG632" s="8"/>
     </row>
-    <row r="633" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="9"/>
       <c r="C633" s="6"/>
@@ -22985,7 +22988,7 @@
       <c r="AF633" s="8"/>
       <c r="AG633" s="8"/>
     </row>
-    <row r="634" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="9"/>
       <c r="C634" s="6"/>
@@ -23020,7 +23023,7 @@
       <c r="AF634" s="8"/>
       <c r="AG634" s="8"/>
     </row>
-    <row r="635" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="9"/>
       <c r="C635" s="6"/>
@@ -23055,7 +23058,7 @@
       <c r="AF635" s="8"/>
       <c r="AG635" s="8"/>
     </row>
-    <row r="636" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="9"/>
       <c r="C636" s="6"/>
@@ -23090,7 +23093,7 @@
       <c r="AF636" s="8"/>
       <c r="AG636" s="8"/>
     </row>
-    <row r="637" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="9"/>
       <c r="C637" s="6"/>
@@ -23125,7 +23128,7 @@
       <c r="AF637" s="8"/>
       <c r="AG637" s="8"/>
     </row>
-    <row r="638" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="9"/>
       <c r="C638" s="6"/>
@@ -23160,7 +23163,7 @@
       <c r="AF638" s="8"/>
       <c r="AG638" s="8"/>
     </row>
-    <row r="639" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="9"/>
       <c r="C639" s="6"/>
@@ -23195,7 +23198,7 @@
       <c r="AF639" s="8"/>
       <c r="AG639" s="8"/>
     </row>
-    <row r="640" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="9"/>
       <c r="C640" s="6"/>
@@ -23230,7 +23233,7 @@
       <c r="AF640" s="8"/>
       <c r="AG640" s="8"/>
     </row>
-    <row r="641" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="9"/>
       <c r="C641" s="6"/>
@@ -23265,7 +23268,7 @@
       <c r="AF641" s="8"/>
       <c r="AG641" s="8"/>
     </row>
-    <row r="642" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="9"/>
       <c r="C642" s="6"/>
@@ -23300,7 +23303,7 @@
       <c r="AF642" s="8"/>
       <c r="AG642" s="8"/>
     </row>
-    <row r="643" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="9"/>
       <c r="C643" s="6"/>
@@ -23335,7 +23338,7 @@
       <c r="AF643" s="8"/>
       <c r="AG643" s="8"/>
     </row>
-    <row r="644" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="9"/>
       <c r="C644" s="6"/>
@@ -23370,7 +23373,7 @@
       <c r="AF644" s="8"/>
       <c r="AG644" s="8"/>
     </row>
-    <row r="645" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="9"/>
       <c r="C645" s="6"/>
@@ -23405,7 +23408,7 @@
       <c r="AF645" s="8"/>
       <c r="AG645" s="8"/>
     </row>
-    <row r="646" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="9"/>
       <c r="C646" s="6"/>
@@ -23440,7 +23443,7 @@
       <c r="AF646" s="8"/>
       <c r="AG646" s="8"/>
     </row>
-    <row r="647" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="9"/>
       <c r="C647" s="6"/>
@@ -23475,7 +23478,7 @@
       <c r="AF647" s="8"/>
       <c r="AG647" s="8"/>
     </row>
-    <row r="648" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="9"/>
       <c r="C648" s="6"/>
@@ -23510,7 +23513,7 @@
       <c r="AF648" s="8"/>
       <c r="AG648" s="8"/>
     </row>
-    <row r="649" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="9"/>
       <c r="C649" s="6"/>
@@ -23545,7 +23548,7 @@
       <c r="AF649" s="8"/>
       <c r="AG649" s="8"/>
     </row>
-    <row r="650" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="9"/>
       <c r="C650" s="6"/>
@@ -23580,7 +23583,7 @@
       <c r="AF650" s="8"/>
       <c r="AG650" s="8"/>
     </row>
-    <row r="651" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="9"/>
       <c r="C651" s="6"/>
@@ -23615,7 +23618,7 @@
       <c r="AF651" s="8"/>
       <c r="AG651" s="8"/>
     </row>
-    <row r="652" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="9"/>
       <c r="C652" s="6"/>
@@ -23650,7 +23653,7 @@
       <c r="AF652" s="8"/>
       <c r="AG652" s="8"/>
     </row>
-    <row r="653" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="9"/>
       <c r="C653" s="6"/>
@@ -23685,7 +23688,7 @@
       <c r="AF653" s="8"/>
       <c r="AG653" s="8"/>
     </row>
-    <row r="654" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="9"/>
       <c r="C654" s="6"/>
@@ -23720,7 +23723,7 @@
       <c r="AF654" s="8"/>
       <c r="AG654" s="8"/>
     </row>
-    <row r="655" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="9"/>
       <c r="C655" s="6"/>
@@ -23755,7 +23758,7 @@
       <c r="AF655" s="8"/>
       <c r="AG655" s="8"/>
     </row>
-    <row r="656" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="9"/>
       <c r="C656" s="6"/>
@@ -23790,7 +23793,7 @@
       <c r="AF656" s="8"/>
       <c r="AG656" s="8"/>
     </row>
-    <row r="657" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="9"/>
       <c r="C657" s="6"/>
@@ -23825,7 +23828,7 @@
       <c r="AF657" s="8"/>
       <c r="AG657" s="8"/>
     </row>
-    <row r="658" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="9"/>
       <c r="C658" s="6"/>
@@ -23860,7 +23863,7 @@
       <c r="AF658" s="8"/>
       <c r="AG658" s="8"/>
     </row>
-    <row r="659" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="9"/>
       <c r="C659" s="6"/>
@@ -23895,7 +23898,7 @@
       <c r="AF659" s="8"/>
       <c r="AG659" s="8"/>
     </row>
-    <row r="660" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="9"/>
       <c r="C660" s="6"/>
@@ -23930,7 +23933,7 @@
       <c r="AF660" s="8"/>
       <c r="AG660" s="8"/>
     </row>
-    <row r="661" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="9"/>
       <c r="C661" s="6"/>
@@ -23965,7 +23968,7 @@
       <c r="AF661" s="8"/>
       <c r="AG661" s="8"/>
     </row>
-    <row r="662" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="9"/>
       <c r="C662" s="6"/>
@@ -24000,7 +24003,7 @@
       <c r="AF662" s="8"/>
       <c r="AG662" s="8"/>
     </row>
-    <row r="663" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="9"/>
       <c r="C663" s="6"/>
@@ -24035,7 +24038,7 @@
       <c r="AF663" s="8"/>
       <c r="AG663" s="8"/>
     </row>
-    <row r="664" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="9"/>
       <c r="C664" s="6"/>
@@ -24070,7 +24073,7 @@
       <c r="AF664" s="8"/>
       <c r="AG664" s="8"/>
     </row>
-    <row r="665" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="9"/>
       <c r="C665" s="6"/>
@@ -24105,7 +24108,7 @@
       <c r="AF665" s="8"/>
       <c r="AG665" s="8"/>
     </row>
-    <row r="666" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="9"/>
       <c r="C666" s="6"/>
@@ -24140,7 +24143,7 @@
       <c r="AF666" s="8"/>
       <c r="AG666" s="8"/>
     </row>
-    <row r="667" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="9"/>
       <c r="C667" s="6"/>
@@ -24175,7 +24178,7 @@
       <c r="AF667" s="8"/>
       <c r="AG667" s="8"/>
     </row>
-    <row r="668" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="9"/>
       <c r="C668" s="6"/>
@@ -24210,7 +24213,7 @@
       <c r="AF668" s="8"/>
       <c r="AG668" s="8"/>
     </row>
-    <row r="669" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="9"/>
       <c r="C669" s="6"/>
@@ -24245,7 +24248,7 @@
       <c r="AF669" s="8"/>
       <c r="AG669" s="8"/>
     </row>
-    <row r="670" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="9"/>
       <c r="C670" s="6"/>
@@ -24280,7 +24283,7 @@
       <c r="AF670" s="8"/>
       <c r="AG670" s="8"/>
     </row>
-    <row r="671" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="9"/>
       <c r="C671" s="6"/>
@@ -24315,7 +24318,7 @@
       <c r="AF671" s="8"/>
       <c r="AG671" s="8"/>
     </row>
-    <row r="672" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="9"/>
       <c r="C672" s="6"/>
@@ -24350,7 +24353,7 @@
       <c r="AF672" s="8"/>
       <c r="AG672" s="8"/>
     </row>
-    <row r="673" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="9"/>
       <c r="C673" s="6"/>
@@ -24385,7 +24388,7 @@
       <c r="AF673" s="8"/>
       <c r="AG673" s="8"/>
     </row>
-    <row r="674" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="9"/>
       <c r="C674" s="6"/>
@@ -24420,7 +24423,7 @@
       <c r="AF674" s="8"/>
       <c r="AG674" s="8"/>
     </row>
-    <row r="675" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="9"/>
       <c r="C675" s="6"/>
@@ -24455,7 +24458,7 @@
       <c r="AF675" s="8"/>
       <c r="AG675" s="8"/>
     </row>
-    <row r="676" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="9"/>
       <c r="C676" s="6"/>
@@ -24490,7 +24493,7 @@
       <c r="AF676" s="8"/>
       <c r="AG676" s="8"/>
     </row>
-    <row r="677" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="9"/>
       <c r="C677" s="6"/>
@@ -24525,7 +24528,7 @@
       <c r="AF677" s="8"/>
       <c r="AG677" s="8"/>
     </row>
-    <row r="678" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="9"/>
       <c r="C678" s="6"/>
@@ -24560,7 +24563,7 @@
       <c r="AF678" s="8"/>
       <c r="AG678" s="8"/>
     </row>
-    <row r="679" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="9"/>
       <c r="C679" s="6"/>
@@ -24595,7 +24598,7 @@
       <c r="AF679" s="8"/>
       <c r="AG679" s="8"/>
     </row>
-    <row r="680" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="9"/>
       <c r="C680" s="6"/>
@@ -24630,7 +24633,7 @@
       <c r="AF680" s="8"/>
       <c r="AG680" s="8"/>
     </row>
-    <row r="681" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="9"/>
       <c r="C681" s="6"/>
@@ -24665,7 +24668,7 @@
       <c r="AF681" s="8"/>
       <c r="AG681" s="8"/>
     </row>
-    <row r="682" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="9"/>
       <c r="C682" s="6"/>
@@ -24700,7 +24703,7 @@
       <c r="AF682" s="8"/>
       <c r="AG682" s="8"/>
     </row>
-    <row r="683" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="9"/>
       <c r="C683" s="6"/>
@@ -24735,7 +24738,7 @@
       <c r="AF683" s="8"/>
       <c r="AG683" s="8"/>
     </row>
-    <row r="684" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="9"/>
       <c r="C684" s="6"/>
@@ -24770,7 +24773,7 @@
       <c r="AF684" s="8"/>
       <c r="AG684" s="8"/>
     </row>
-    <row r="685" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="9"/>
       <c r="C685" s="6"/>
@@ -24805,7 +24808,7 @@
       <c r="AF685" s="8"/>
       <c r="AG685" s="8"/>
     </row>
-    <row r="686" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="9"/>
       <c r="C686" s="6"/>
@@ -24840,7 +24843,7 @@
       <c r="AF686" s="8"/>
       <c r="AG686" s="8"/>
     </row>
-    <row r="687" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="9"/>
       <c r="C687" s="6"/>
@@ -24875,7 +24878,7 @@
       <c r="AF687" s="8"/>
       <c r="AG687" s="8"/>
     </row>
-    <row r="688" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="9"/>
       <c r="C688" s="6"/>
@@ -24910,7 +24913,7 @@
       <c r="AF688" s="8"/>
       <c r="AG688" s="8"/>
     </row>
-    <row r="689" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="9"/>
       <c r="C689" s="6"/>
@@ -24945,7 +24948,7 @@
       <c r="AF689" s="8"/>
       <c r="AG689" s="8"/>
     </row>
-    <row r="690" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="9"/>
       <c r="C690" s="6"/>
@@ -24980,7 +24983,7 @@
       <c r="AF690" s="8"/>
       <c r="AG690" s="8"/>
     </row>
-    <row r="691" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="9"/>
       <c r="C691" s="6"/>
@@ -25015,7 +25018,7 @@
       <c r="AF691" s="8"/>
       <c r="AG691" s="8"/>
     </row>
-    <row r="692" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="9"/>
       <c r="C692" s="6"/>
@@ -25050,7 +25053,7 @@
       <c r="AF692" s="8"/>
       <c r="AG692" s="8"/>
     </row>
-    <row r="693" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="9"/>
       <c r="C693" s="6"/>
@@ -25085,7 +25088,7 @@
       <c r="AF693" s="8"/>
       <c r="AG693" s="8"/>
     </row>
-    <row r="694" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="9"/>
       <c r="C694" s="6"/>
@@ -25120,7 +25123,7 @@
       <c r="AF694" s="8"/>
       <c r="AG694" s="8"/>
     </row>
-    <row r="695" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="9"/>
       <c r="C695" s="6"/>
@@ -25155,7 +25158,7 @@
       <c r="AF695" s="8"/>
       <c r="AG695" s="8"/>
     </row>
-    <row r="696" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="9"/>
       <c r="C696" s="6"/>
@@ -25190,7 +25193,7 @@
       <c r="AF696" s="8"/>
       <c r="AG696" s="8"/>
     </row>
-    <row r="697" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="9"/>
       <c r="C697" s="6"/>
@@ -25225,7 +25228,7 @@
       <c r="AF697" s="8"/>
       <c r="AG697" s="8"/>
     </row>
-    <row r="698" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="9"/>
       <c r="C698" s="6"/>
@@ -25260,7 +25263,7 @@
       <c r="AF698" s="8"/>
       <c r="AG698" s="8"/>
     </row>
-    <row r="699" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="9"/>
       <c r="C699" s="6"/>
@@ -25295,7 +25298,7 @@
       <c r="AF699" s="8"/>
       <c r="AG699" s="8"/>
     </row>
-    <row r="700" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="9"/>
       <c r="C700" s="6"/>
@@ -25330,7 +25333,7 @@
       <c r="AF700" s="8"/>
       <c r="AG700" s="8"/>
     </row>
-    <row r="701" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="9"/>
       <c r="C701" s="6"/>
@@ -25365,7 +25368,7 @@
       <c r="AF701" s="8"/>
       <c r="AG701" s="8"/>
     </row>
-    <row r="702" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="9"/>
       <c r="C702" s="6"/>
@@ -25400,7 +25403,7 @@
       <c r="AF702" s="8"/>
       <c r="AG702" s="8"/>
     </row>
-    <row r="703" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="9"/>
       <c r="C703" s="6"/>
@@ -25435,7 +25438,7 @@
       <c r="AF703" s="8"/>
       <c r="AG703" s="8"/>
     </row>
-    <row r="704" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="9"/>
       <c r="C704" s="6"/>
@@ -25470,7 +25473,7 @@
       <c r="AF704" s="8"/>
       <c r="AG704" s="8"/>
     </row>
-    <row r="705" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="9"/>
       <c r="C705" s="6"/>
@@ -25505,7 +25508,7 @@
       <c r="AF705" s="8"/>
       <c r="AG705" s="8"/>
     </row>
-    <row r="706" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="9"/>
       <c r="C706" s="6"/>
@@ -25540,7 +25543,7 @@
       <c r="AF706" s="8"/>
       <c r="AG706" s="8"/>
     </row>
-    <row r="707" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="9"/>
       <c r="C707" s="6"/>
@@ -25575,7 +25578,7 @@
       <c r="AF707" s="8"/>
       <c r="AG707" s="8"/>
     </row>
-    <row r="708" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="9"/>
       <c r="C708" s="6"/>
@@ -25610,7 +25613,7 @@
       <c r="AF708" s="8"/>
       <c r="AG708" s="8"/>
     </row>
-    <row r="709" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="9"/>
       <c r="C709" s="6"/>
@@ -25645,7 +25648,7 @@
       <c r="AF709" s="8"/>
       <c r="AG709" s="8"/>
     </row>
-    <row r="710" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="9"/>
       <c r="C710" s="6"/>
@@ -25680,7 +25683,7 @@
       <c r="AF710" s="8"/>
       <c r="AG710" s="8"/>
     </row>
-    <row r="711" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="9"/>
       <c r="C711" s="6"/>
@@ -25715,7 +25718,7 @@
       <c r="AF711" s="8"/>
       <c r="AG711" s="8"/>
     </row>
-    <row r="712" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="9"/>
       <c r="C712" s="6"/>
@@ -25750,7 +25753,7 @@
       <c r="AF712" s="8"/>
       <c r="AG712" s="8"/>
     </row>
-    <row r="713" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="9"/>
       <c r="C713" s="6"/>
@@ -25785,7 +25788,7 @@
       <c r="AF713" s="8"/>
       <c r="AG713" s="8"/>
     </row>
-    <row r="714" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="9"/>
       <c r="C714" s="6"/>
@@ -25820,7 +25823,7 @@
       <c r="AF714" s="8"/>
       <c r="AG714" s="8"/>
     </row>
-    <row r="715" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="9"/>
       <c r="C715" s="6"/>
@@ -25855,7 +25858,7 @@
       <c r="AF715" s="8"/>
       <c r="AG715" s="8"/>
     </row>
-    <row r="716" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="9"/>
       <c r="C716" s="6"/>
@@ -25890,7 +25893,7 @@
       <c r="AF716" s="8"/>
       <c r="AG716" s="8"/>
     </row>
-    <row r="717" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="9"/>
       <c r="C717" s="6"/>
@@ -25925,7 +25928,7 @@
       <c r="AF717" s="8"/>
       <c r="AG717" s="8"/>
     </row>
-    <row r="718" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="9"/>
       <c r="C718" s="6"/>
@@ -25960,7 +25963,7 @@
       <c r="AF718" s="8"/>
       <c r="AG718" s="8"/>
     </row>
-    <row r="719" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="9"/>
       <c r="C719" s="6"/>
@@ -25995,7 +25998,7 @@
       <c r="AF719" s="8"/>
       <c r="AG719" s="8"/>
     </row>
-    <row r="720" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="9"/>
       <c r="C720" s="6"/>
@@ -26030,7 +26033,7 @@
       <c r="AF720" s="8"/>
       <c r="AG720" s="8"/>
     </row>
-    <row r="721" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="9"/>
       <c r="C721" s="6"/>
@@ -26065,7 +26068,7 @@
       <c r="AF721" s="8"/>
       <c r="AG721" s="8"/>
     </row>
-    <row r="722" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="9"/>
       <c r="C722" s="6"/>
@@ -26100,7 +26103,7 @@
       <c r="AF722" s="8"/>
       <c r="AG722" s="8"/>
     </row>
-    <row r="723" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="9"/>
       <c r="C723" s="6"/>
@@ -26135,7 +26138,7 @@
       <c r="AF723" s="8"/>
       <c r="AG723" s="8"/>
     </row>
-    <row r="724" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="9"/>
       <c r="C724" s="6"/>
@@ -26170,7 +26173,7 @@
       <c r="AF724" s="8"/>
       <c r="AG724" s="8"/>
     </row>
-    <row r="725" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="9"/>
       <c r="C725" s="6"/>
@@ -26205,7 +26208,7 @@
       <c r="AF725" s="8"/>
       <c r="AG725" s="8"/>
     </row>
-    <row r="726" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="9"/>
       <c r="C726" s="6"/>
@@ -26240,7 +26243,7 @@
       <c r="AF726" s="8"/>
       <c r="AG726" s="8"/>
     </row>
-    <row r="727" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="9"/>
       <c r="C727" s="6"/>
@@ -26275,7 +26278,7 @@
       <c r="AF727" s="8"/>
       <c r="AG727" s="8"/>
     </row>
-    <row r="728" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="9"/>
       <c r="C728" s="6"/>
@@ -26310,7 +26313,7 @@
       <c r="AF728" s="8"/>
       <c r="AG728" s="8"/>
     </row>
-    <row r="729" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="9"/>
       <c r="C729" s="6"/>
@@ -26345,7 +26348,7 @@
       <c r="AF729" s="8"/>
       <c r="AG729" s="8"/>
     </row>
-    <row r="730" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="9"/>
       <c r="C730" s="6"/>
@@ -26380,7 +26383,7 @@
       <c r="AF730" s="8"/>
       <c r="AG730" s="8"/>
     </row>
-    <row r="731" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="9"/>
       <c r="C731" s="6"/>
@@ -26415,7 +26418,7 @@
       <c r="AF731" s="8"/>
       <c r="AG731" s="8"/>
     </row>
-    <row r="732" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="9"/>
       <c r="C732" s="6"/>
@@ -26450,7 +26453,7 @@
       <c r="AF732" s="8"/>
       <c r="AG732" s="8"/>
     </row>
-    <row r="733" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="9"/>
       <c r="C733" s="6"/>
@@ -26485,7 +26488,7 @@
       <c r="AF733" s="8"/>
       <c r="AG733" s="8"/>
     </row>
-    <row r="734" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="9"/>
       <c r="C734" s="6"/>
@@ -26520,7 +26523,7 @@
       <c r="AF734" s="8"/>
       <c r="AG734" s="8"/>
     </row>
-    <row r="735" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="9"/>
       <c r="C735" s="6"/>
@@ -26555,7 +26558,7 @@
       <c r="AF735" s="8"/>
       <c r="AG735" s="8"/>
     </row>
-    <row r="736" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="9"/>
       <c r="C736" s="6"/>
@@ -26590,7 +26593,7 @@
       <c r="AF736" s="8"/>
       <c r="AG736" s="8"/>
     </row>
-    <row r="737" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="9"/>
       <c r="C737" s="6"/>
@@ -26625,7 +26628,7 @@
       <c r="AF737" s="8"/>
       <c r="AG737" s="8"/>
     </row>
-    <row r="738" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="9"/>
       <c r="C738" s="6"/>
@@ -26660,7 +26663,7 @@
       <c r="AF738" s="8"/>
       <c r="AG738" s="8"/>
     </row>
-    <row r="739" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="9"/>
       <c r="C739" s="6"/>
@@ -26695,7 +26698,7 @@
       <c r="AF739" s="8"/>
       <c r="AG739" s="8"/>
     </row>
-    <row r="740" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="9"/>
       <c r="C740" s="6"/>
@@ -26730,7 +26733,7 @@
       <c r="AF740" s="8"/>
       <c r="AG740" s="8"/>
     </row>
-    <row r="741" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="9"/>
       <c r="C741" s="6"/>
@@ -26765,7 +26768,7 @@
       <c r="AF741" s="8"/>
       <c r="AG741" s="8"/>
     </row>
-    <row r="742" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="9"/>
       <c r="C742" s="6"/>
@@ -26800,7 +26803,7 @@
       <c r="AF742" s="8"/>
       <c r="AG742" s="8"/>
     </row>
-    <row r="743" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="9"/>
       <c r="C743" s="6"/>
@@ -26835,7 +26838,7 @@
       <c r="AF743" s="8"/>
       <c r="AG743" s="8"/>
     </row>
-    <row r="744" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="9"/>
       <c r="C744" s="6"/>
@@ -26870,7 +26873,7 @@
       <c r="AF744" s="8"/>
       <c r="AG744" s="8"/>
     </row>
-    <row r="745" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="9"/>
       <c r="C745" s="6"/>
@@ -26905,7 +26908,7 @@
       <c r="AF745" s="8"/>
       <c r="AG745" s="8"/>
     </row>
-    <row r="746" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="9"/>
       <c r="C746" s="6"/>
@@ -26940,7 +26943,7 @@
       <c r="AF746" s="8"/>
       <c r="AG746" s="8"/>
     </row>
-    <row r="747" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="9"/>
       <c r="C747" s="6"/>
@@ -26975,7 +26978,7 @@
       <c r="AF747" s="8"/>
       <c r="AG747" s="8"/>
     </row>
-    <row r="748" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="9"/>
       <c r="C748" s="6"/>
@@ -27010,7 +27013,7 @@
       <c r="AF748" s="8"/>
       <c r="AG748" s="8"/>
     </row>
-    <row r="749" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="9"/>
       <c r="C749" s="6"/>
@@ -27045,7 +27048,7 @@
       <c r="AF749" s="8"/>
       <c r="AG749" s="8"/>
     </row>
-    <row r="750" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="9"/>
       <c r="C750" s="6"/>
@@ -27080,7 +27083,7 @@
       <c r="AF750" s="8"/>
       <c r="AG750" s="8"/>
     </row>
-    <row r="751" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="9"/>
       <c r="C751" s="6"/>
@@ -27115,7 +27118,7 @@
       <c r="AF751" s="8"/>
       <c r="AG751" s="8"/>
     </row>
-    <row r="752" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="9"/>
       <c r="C752" s="6"/>
@@ -27150,7 +27153,7 @@
       <c r="AF752" s="8"/>
       <c r="AG752" s="8"/>
     </row>
-    <row r="753" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="9"/>
       <c r="C753" s="6"/>
@@ -27185,7 +27188,7 @@
       <c r="AF753" s="8"/>
       <c r="AG753" s="8"/>
     </row>
-    <row r="754" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="9"/>
       <c r="C754" s="6"/>
@@ -27220,7 +27223,7 @@
       <c r="AF754" s="8"/>
       <c r="AG754" s="8"/>
     </row>
-    <row r="755" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="9"/>
       <c r="C755" s="6"/>
@@ -27255,7 +27258,7 @@
       <c r="AF755" s="8"/>
       <c r="AG755" s="8"/>
     </row>
-    <row r="756" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="9"/>
       <c r="C756" s="6"/>
@@ -27290,7 +27293,7 @@
       <c r="AF756" s="8"/>
       <c r="AG756" s="8"/>
     </row>
-    <row r="757" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="9"/>
       <c r="C757" s="6"/>
@@ -27325,7 +27328,7 @@
       <c r="AF757" s="8"/>
       <c r="AG757" s="8"/>
     </row>
-    <row r="758" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="9"/>
       <c r="C758" s="6"/>
@@ -27360,7 +27363,7 @@
       <c r="AF758" s="8"/>
       <c r="AG758" s="8"/>
     </row>
-    <row r="759" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="9"/>
       <c r="C759" s="6"/>
@@ -27395,7 +27398,7 @@
       <c r="AF759" s="8"/>
       <c r="AG759" s="8"/>
     </row>
-    <row r="760" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="9"/>
       <c r="C760" s="6"/>
@@ -27430,7 +27433,7 @@
       <c r="AF760" s="8"/>
       <c r="AG760" s="8"/>
     </row>
-    <row r="761" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="9"/>
       <c r="C761" s="6"/>
@@ -27465,7 +27468,7 @@
       <c r="AF761" s="8"/>
       <c r="AG761" s="8"/>
     </row>
-    <row r="762" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="9"/>
       <c r="C762" s="6"/>
@@ -27500,7 +27503,7 @@
       <c r="AF762" s="8"/>
       <c r="AG762" s="8"/>
     </row>
-    <row r="763" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="9"/>
       <c r="C763" s="6"/>
@@ -27535,7 +27538,7 @@
       <c r="AF763" s="8"/>
       <c r="AG763" s="8"/>
     </row>
-    <row r="764" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="9"/>
       <c r="C764" s="6"/>
@@ -27570,7 +27573,7 @@
       <c r="AF764" s="8"/>
       <c r="AG764" s="8"/>
     </row>
-    <row r="765" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="9"/>
       <c r="C765" s="6"/>
@@ -27605,7 +27608,7 @@
       <c r="AF765" s="8"/>
       <c r="AG765" s="8"/>
     </row>
-    <row r="766" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="9"/>
       <c r="C766" s="6"/>
@@ -27640,7 +27643,7 @@
       <c r="AF766" s="8"/>
       <c r="AG766" s="8"/>
     </row>
-    <row r="767" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="9"/>
       <c r="C767" s="6"/>
@@ -27675,7 +27678,7 @@
       <c r="AF767" s="8"/>
       <c r="AG767" s="8"/>
     </row>
-    <row r="768" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="9"/>
       <c r="C768" s="6"/>
@@ -27710,7 +27713,7 @@
       <c r="AF768" s="8"/>
       <c r="AG768" s="8"/>
     </row>
-    <row r="769" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="9"/>
       <c r="C769" s="6"/>
@@ -27745,7 +27748,7 @@
       <c r="AF769" s="8"/>
       <c r="AG769" s="8"/>
     </row>
-    <row r="770" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="9"/>
       <c r="C770" s="6"/>
@@ -27780,7 +27783,7 @@
       <c r="AF770" s="8"/>
       <c r="AG770" s="8"/>
     </row>
-    <row r="771" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="9"/>
       <c r="C771" s="6"/>
@@ -27815,7 +27818,7 @@
       <c r="AF771" s="8"/>
       <c r="AG771" s="8"/>
     </row>
-    <row r="772" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="9"/>
       <c r="C772" s="6"/>
@@ -27850,7 +27853,7 @@
       <c r="AF772" s="8"/>
       <c r="AG772" s="8"/>
     </row>
-    <row r="773" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="9"/>
       <c r="C773" s="6"/>
@@ -27885,7 +27888,7 @@
       <c r="AF773" s="8"/>
       <c r="AG773" s="8"/>
     </row>
-    <row r="774" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="9"/>
       <c r="C774" s="6"/>
@@ -27920,7 +27923,7 @@
       <c r="AF774" s="8"/>
       <c r="AG774" s="8"/>
     </row>
-    <row r="775" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="9"/>
       <c r="C775" s="6"/>
@@ -27955,7 +27958,7 @@
       <c r="AF775" s="8"/>
       <c r="AG775" s="8"/>
     </row>
-    <row r="776" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="9"/>
       <c r="C776" s="6"/>
@@ -27990,7 +27993,7 @@
       <c r="AF776" s="8"/>
       <c r="AG776" s="8"/>
     </row>
-    <row r="777" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="9"/>
       <c r="C777" s="6"/>
@@ -28025,7 +28028,7 @@
       <c r="AF777" s="8"/>
       <c r="AG777" s="8"/>
     </row>
-    <row r="778" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="9"/>
       <c r="C778" s="6"/>
@@ -28060,7 +28063,7 @@
       <c r="AF778" s="8"/>
       <c r="AG778" s="8"/>
     </row>
-    <row r="779" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="9"/>
       <c r="C779" s="6"/>
@@ -28095,7 +28098,7 @@
       <c r="AF779" s="8"/>
       <c r="AG779" s="8"/>
     </row>
-    <row r="780" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="9"/>
       <c r="C780" s="6"/>
@@ -28130,7 +28133,7 @@
       <c r="AF780" s="8"/>
       <c r="AG780" s="8"/>
     </row>
-    <row r="781" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="9"/>
       <c r="C781" s="6"/>
@@ -28165,7 +28168,7 @@
       <c r="AF781" s="8"/>
       <c r="AG781" s="8"/>
     </row>
-    <row r="782" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="9"/>
       <c r="C782" s="6"/>
@@ -28200,7 +28203,7 @@
       <c r="AF782" s="8"/>
       <c r="AG782" s="8"/>
     </row>
-    <row r="783" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="9"/>
       <c r="C783" s="6"/>
@@ -28235,7 +28238,7 @@
       <c r="AF783" s="8"/>
       <c r="AG783" s="8"/>
     </row>
-    <row r="784" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="9"/>
       <c r="C784" s="6"/>
@@ -28270,7 +28273,7 @@
       <c r="AF784" s="8"/>
       <c r="AG784" s="8"/>
     </row>
-    <row r="785" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="9"/>
       <c r="C785" s="6"/>
@@ -28305,7 +28308,7 @@
       <c r="AF785" s="8"/>
       <c r="AG785" s="8"/>
     </row>
-    <row r="786" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="9"/>
       <c r="C786" s="6"/>
@@ -28340,7 +28343,7 @@
       <c r="AF786" s="8"/>
       <c r="AG786" s="8"/>
     </row>
-    <row r="787" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="9"/>
       <c r="C787" s="6"/>
@@ -28375,7 +28378,7 @@
       <c r="AF787" s="8"/>
       <c r="AG787" s="8"/>
     </row>
-    <row r="788" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="9"/>
       <c r="C788" s="6"/>
@@ -28410,7 +28413,7 @@
       <c r="AF788" s="8"/>
       <c r="AG788" s="8"/>
     </row>
-    <row r="789" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="9"/>
       <c r="C789" s="6"/>
@@ -28445,7 +28448,7 @@
       <c r="AF789" s="8"/>
       <c r="AG789" s="8"/>
     </row>
-    <row r="790" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="9"/>
       <c r="C790" s="6"/>
@@ -28480,7 +28483,7 @@
       <c r="AF790" s="8"/>
       <c r="AG790" s="8"/>
     </row>
-    <row r="791" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="9"/>
       <c r="C791" s="6"/>
@@ -28515,7 +28518,7 @@
       <c r="AF791" s="8"/>
       <c r="AG791" s="8"/>
     </row>
-    <row r="792" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="9"/>
       <c r="C792" s="6"/>
@@ -28550,7 +28553,7 @@
       <c r="AF792" s="8"/>
       <c r="AG792" s="8"/>
     </row>
-    <row r="793" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="9"/>
       <c r="C793" s="6"/>
@@ -28585,7 +28588,7 @@
       <c r="AF793" s="8"/>
       <c r="AG793" s="8"/>
     </row>
-    <row r="794" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="9"/>
       <c r="C794" s="6"/>
@@ -28620,7 +28623,7 @@
       <c r="AF794" s="8"/>
       <c r="AG794" s="8"/>
     </row>
-    <row r="795" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="9"/>
       <c r="C795" s="6"/>
@@ -28655,7 +28658,7 @@
       <c r="AF795" s="8"/>
       <c r="AG795" s="8"/>
     </row>
-    <row r="796" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="9"/>
       <c r="C796" s="6"/>
@@ -28690,7 +28693,7 @@
       <c r="AF796" s="8"/>
       <c r="AG796" s="8"/>
     </row>
-    <row r="797" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="9"/>
       <c r="C797" s="6"/>
@@ -28725,7 +28728,7 @@
       <c r="AF797" s="8"/>
       <c r="AG797" s="8"/>
     </row>
-    <row r="798" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="9"/>
       <c r="C798" s="6"/>
@@ -28760,7 +28763,7 @@
       <c r="AF798" s="8"/>
       <c r="AG798" s="8"/>
     </row>
-    <row r="799" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="9"/>
       <c r="C799" s="6"/>
@@ -28795,7 +28798,7 @@
       <c r="AF799" s="8"/>
       <c r="AG799" s="8"/>
     </row>
-    <row r="800" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="9"/>
       <c r="C800" s="6"/>
@@ -28830,7 +28833,7 @@
       <c r="AF800" s="8"/>
       <c r="AG800" s="8"/>
     </row>
-    <row r="801" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="9"/>
       <c r="C801" s="6"/>
@@ -28865,7 +28868,7 @@
       <c r="AF801" s="8"/>
       <c r="AG801" s="8"/>
     </row>
-    <row r="802" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="9"/>
       <c r="C802" s="6"/>
@@ -28900,7 +28903,7 @@
       <c r="AF802" s="8"/>
       <c r="AG802" s="8"/>
     </row>
-    <row r="803" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="9"/>
       <c r="C803" s="6"/>
@@ -28935,7 +28938,7 @@
       <c r="AF803" s="8"/>
       <c r="AG803" s="8"/>
     </row>
-    <row r="804" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="9"/>
       <c r="C804" s="6"/>
@@ -28970,7 +28973,7 @@
       <c r="AF804" s="8"/>
       <c r="AG804" s="8"/>
     </row>
-    <row r="805" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="9"/>
       <c r="C805" s="6"/>
@@ -29005,7 +29008,7 @@
       <c r="AF805" s="8"/>
       <c r="AG805" s="8"/>
     </row>
-    <row r="806" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="9"/>
       <c r="C806" s="6"/>
@@ -29040,7 +29043,7 @@
       <c r="AF806" s="8"/>
       <c r="AG806" s="8"/>
     </row>
-    <row r="807" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="9"/>
       <c r="C807" s="6"/>
@@ -29075,7 +29078,7 @@
       <c r="AF807" s="8"/>
       <c r="AG807" s="8"/>
     </row>
-    <row r="808" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="9"/>
       <c r="C808" s="6"/>
@@ -29110,7 +29113,7 @@
       <c r="AF808" s="8"/>
       <c r="AG808" s="8"/>
     </row>
-    <row r="809" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="9"/>
       <c r="C809" s="6"/>
@@ -29145,7 +29148,7 @@
       <c r="AF809" s="8"/>
       <c r="AG809" s="8"/>
     </row>
-    <row r="810" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="9"/>
       <c r="C810" s="6"/>
@@ -29180,7 +29183,7 @@
       <c r="AF810" s="8"/>
       <c r="AG810" s="8"/>
     </row>
-    <row r="811" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="9"/>
       <c r="C811" s="6"/>
@@ -29215,7 +29218,7 @@
       <c r="AF811" s="8"/>
       <c r="AG811" s="8"/>
     </row>
-    <row r="812" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="9"/>
       <c r="C812" s="6"/>
@@ -29250,7 +29253,7 @@
       <c r="AF812" s="8"/>
       <c r="AG812" s="8"/>
     </row>
-    <row r="813" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="9"/>
       <c r="C813" s="6"/>
@@ -29285,7 +29288,7 @@
       <c r="AF813" s="8"/>
       <c r="AG813" s="8"/>
     </row>
-    <row r="814" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="9"/>
       <c r="C814" s="6"/>
@@ -29320,7 +29323,7 @@
       <c r="AF814" s="8"/>
       <c r="AG814" s="8"/>
     </row>
-    <row r="815" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="9"/>
       <c r="C815" s="6"/>
@@ -29355,7 +29358,7 @@
       <c r="AF815" s="8"/>
       <c r="AG815" s="8"/>
     </row>
-    <row r="816" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="9"/>
       <c r="C816" s="6"/>
@@ -29390,7 +29393,7 @@
       <c r="AF816" s="8"/>
       <c r="AG816" s="8"/>
     </row>
-    <row r="817" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="9"/>
       <c r="C817" s="6"/>
@@ -29425,7 +29428,7 @@
       <c r="AF817" s="8"/>
       <c r="AG817" s="8"/>
     </row>
-    <row r="818" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="9"/>
       <c r="C818" s="6"/>
@@ -29460,7 +29463,7 @@
       <c r="AF818" s="8"/>
       <c r="AG818" s="8"/>
     </row>
-    <row r="819" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="9"/>
       <c r="C819" s="6"/>
@@ -29495,7 +29498,7 @@
       <c r="AF819" s="8"/>
       <c r="AG819" s="8"/>
     </row>
-    <row r="820" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="9"/>
       <c r="C820" s="6"/>
@@ -29530,7 +29533,7 @@
       <c r="AF820" s="8"/>
       <c r="AG820" s="8"/>
     </row>
-    <row r="821" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="9"/>
       <c r="C821" s="6"/>
@@ -29565,7 +29568,7 @@
       <c r="AF821" s="8"/>
       <c r="AG821" s="8"/>
     </row>
-    <row r="822" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="9"/>
       <c r="C822" s="6"/>
@@ -29600,7 +29603,7 @@
       <c r="AF822" s="8"/>
       <c r="AG822" s="8"/>
     </row>
-    <row r="823" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="9"/>
       <c r="C823" s="6"/>
@@ -29635,7 +29638,7 @@
       <c r="AF823" s="8"/>
       <c r="AG823" s="8"/>
     </row>
-    <row r="824" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="9"/>
       <c r="C824" s="6"/>
@@ -29670,7 +29673,7 @@
       <c r="AF824" s="8"/>
       <c r="AG824" s="8"/>
     </row>
-    <row r="825" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="9"/>
       <c r="C825" s="6"/>
@@ -29705,7 +29708,7 @@
       <c r="AF825" s="8"/>
       <c r="AG825" s="8"/>
     </row>
-    <row r="826" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="9"/>
       <c r="C826" s="6"/>
@@ -29740,7 +29743,7 @@
       <c r="AF826" s="8"/>
       <c r="AG826" s="8"/>
     </row>
-    <row r="827" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="9"/>
       <c r="C827" s="6"/>
@@ -29775,7 +29778,7 @@
       <c r="AF827" s="8"/>
       <c r="AG827" s="8"/>
     </row>
-    <row r="828" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="9"/>
       <c r="C828" s="6"/>
@@ -29810,7 +29813,7 @@
       <c r="AF828" s="8"/>
       <c r="AG828" s="8"/>
     </row>
-    <row r="829" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="9"/>
       <c r="C829" s="6"/>
@@ -29845,7 +29848,7 @@
       <c r="AF829" s="8"/>
       <c r="AG829" s="8"/>
     </row>
-    <row r="830" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="9"/>
       <c r="C830" s="6"/>
@@ -29880,7 +29883,7 @@
       <c r="AF830" s="8"/>
       <c r="AG830" s="8"/>
     </row>
-    <row r="831" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="9"/>
       <c r="C831" s="6"/>
@@ -29915,7 +29918,7 @@
       <c r="AF831" s="8"/>
       <c r="AG831" s="8"/>
     </row>
-    <row r="832" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="9"/>
       <c r="C832" s="6"/>
@@ -29950,7 +29953,7 @@
       <c r="AF832" s="8"/>
       <c r="AG832" s="8"/>
     </row>
-    <row r="833" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="9"/>
       <c r="C833" s="6"/>
@@ -29985,7 +29988,7 @@
       <c r="AF833" s="8"/>
       <c r="AG833" s="8"/>
     </row>
-    <row r="834" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="9"/>
       <c r="C834" s="6"/>
@@ -30020,7 +30023,7 @@
       <c r="AF834" s="8"/>
       <c r="AG834" s="8"/>
     </row>
-    <row r="835" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="9"/>
       <c r="C835" s="6"/>
@@ -30055,7 +30058,7 @@
       <c r="AF835" s="8"/>
       <c r="AG835" s="8"/>
     </row>
-    <row r="836" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="9"/>
       <c r="C836" s="6"/>
@@ -30090,7 +30093,7 @@
       <c r="AF836" s="8"/>
       <c r="AG836" s="8"/>
     </row>
-    <row r="837" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="9"/>
       <c r="C837" s="6"/>
@@ -30125,7 +30128,7 @@
       <c r="AF837" s="8"/>
       <c r="AG837" s="8"/>
     </row>
-    <row r="838" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="9"/>
       <c r="C838" s="6"/>
@@ -30160,7 +30163,7 @@
       <c r="AF838" s="8"/>
       <c r="AG838" s="8"/>
     </row>
-    <row r="839" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="9"/>
       <c r="C839" s="6"/>
@@ -30195,7 +30198,7 @@
       <c r="AF839" s="8"/>
       <c r="AG839" s="8"/>
     </row>
-    <row r="840" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="9"/>
       <c r="C840" s="6"/>
@@ -30230,7 +30233,7 @@
       <c r="AF840" s="8"/>
       <c r="AG840" s="8"/>
     </row>
-    <row r="841" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="9"/>
       <c r="C841" s="6"/>
@@ -30265,7 +30268,7 @@
       <c r="AF841" s="8"/>
       <c r="AG841" s="8"/>
     </row>
-    <row r="842" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="9"/>
       <c r="C842" s="6"/>
@@ -30300,7 +30303,7 @@
       <c r="AF842" s="8"/>
       <c r="AG842" s="8"/>
     </row>
-    <row r="843" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="9"/>
       <c r="C843" s="6"/>
@@ -30335,7 +30338,7 @@
       <c r="AF843" s="8"/>
       <c r="AG843" s="8"/>
     </row>
-    <row r="844" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="9"/>
       <c r="C844" s="6"/>
@@ -30370,7 +30373,7 @@
       <c r="AF844" s="8"/>
       <c r="AG844" s="8"/>
     </row>
-    <row r="845" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="9"/>
       <c r="C845" s="6"/>
@@ -30405,7 +30408,7 @@
       <c r="AF845" s="8"/>
       <c r="AG845" s="8"/>
     </row>
-    <row r="846" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="9"/>
       <c r="C846" s="6"/>
@@ -30440,7 +30443,7 @@
       <c r="AF846" s="8"/>
       <c r="AG846" s="8"/>
     </row>
-    <row r="847" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="9"/>
       <c r="C847" s="6"/>
@@ -30475,7 +30478,7 @@
       <c r="AF847" s="8"/>
       <c r="AG847" s="8"/>
     </row>
-    <row r="848" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="9"/>
       <c r="C848" s="6"/>
@@ -30510,7 +30513,7 @@
       <c r="AF848" s="8"/>
       <c r="AG848" s="8"/>
     </row>
-    <row r="849" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="9"/>
       <c r="C849" s="6"/>
@@ -30545,7 +30548,7 @@
       <c r="AF849" s="8"/>
       <c r="AG849" s="8"/>
     </row>
-    <row r="850" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="9"/>
       <c r="C850" s="6"/>
@@ -30580,7 +30583,7 @@
       <c r="AF850" s="8"/>
       <c r="AG850" s="8"/>
     </row>
-    <row r="851" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="9"/>
       <c r="C851" s="6"/>
@@ -30615,7 +30618,7 @@
       <c r="AF851" s="8"/>
       <c r="AG851" s="8"/>
     </row>
-    <row r="852" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="9"/>
       <c r="C852" s="6"/>
@@ -30650,7 +30653,7 @@
       <c r="AF852" s="8"/>
       <c r="AG852" s="8"/>
     </row>
-    <row r="853" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="9"/>
       <c r="C853" s="6"/>
@@ -30685,7 +30688,7 @@
       <c r="AF853" s="8"/>
       <c r="AG853" s="8"/>
     </row>
-    <row r="854" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="9"/>
       <c r="C854" s="6"/>
@@ -30720,7 +30723,7 @@
       <c r="AF854" s="8"/>
       <c r="AG854" s="8"/>
     </row>
-    <row r="855" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="9"/>
       <c r="C855" s="6"/>
@@ -30755,7 +30758,7 @@
       <c r="AF855" s="8"/>
       <c r="AG855" s="8"/>
     </row>
-    <row r="856" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="9"/>
       <c r="C856" s="6"/>
@@ -30790,7 +30793,7 @@
       <c r="AF856" s="8"/>
       <c r="AG856" s="8"/>
     </row>
-    <row r="857" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="9"/>
       <c r="C857" s="6"/>
@@ -30825,7 +30828,7 @@
       <c r="AF857" s="8"/>
       <c r="AG857" s="8"/>
     </row>
-    <row r="858" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="9"/>
       <c r="C858" s="6"/>
@@ -30860,7 +30863,7 @@
       <c r="AF858" s="8"/>
       <c r="AG858" s="8"/>
     </row>
-    <row r="859" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="9"/>
       <c r="C859" s="6"/>
@@ -30895,7 +30898,7 @@
       <c r="AF859" s="8"/>
       <c r="AG859" s="8"/>
     </row>
-    <row r="860" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="9"/>
       <c r="C860" s="6"/>
@@ -30930,7 +30933,7 @@
       <c r="AF860" s="8"/>
       <c r="AG860" s="8"/>
     </row>
-    <row r="861" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="9"/>
       <c r="C861" s="6"/>
@@ -30965,7 +30968,7 @@
       <c r="AF861" s="8"/>
       <c r="AG861" s="8"/>
     </row>
-    <row r="862" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="9"/>
       <c r="C862" s="6"/>
@@ -31000,7 +31003,7 @@
       <c r="AF862" s="8"/>
       <c r="AG862" s="8"/>
     </row>
-    <row r="863" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="9"/>
       <c r="C863" s="6"/>
@@ -31035,7 +31038,7 @@
       <c r="AF863" s="8"/>
       <c r="AG863" s="8"/>
     </row>
-    <row r="864" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="9"/>
       <c r="C864" s="6"/>
@@ -31070,7 +31073,7 @@
       <c r="AF864" s="8"/>
       <c r="AG864" s="8"/>
     </row>
-    <row r="865" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="9"/>
       <c r="C865" s="6"/>
@@ -31105,7 +31108,7 @@
       <c r="AF865" s="8"/>
       <c r="AG865" s="8"/>
     </row>
-    <row r="866" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="9"/>
       <c r="C866" s="6"/>
@@ -31140,7 +31143,7 @@
       <c r="AF866" s="8"/>
       <c r="AG866" s="8"/>
     </row>
-    <row r="867" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="9"/>
       <c r="C867" s="6"/>
@@ -31175,7 +31178,7 @@
       <c r="AF867" s="8"/>
       <c r="AG867" s="8"/>
     </row>
-    <row r="868" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="9"/>
       <c r="C868" s="6"/>
@@ -31210,7 +31213,7 @@
       <c r="AF868" s="8"/>
       <c r="AG868" s="8"/>
     </row>
-    <row r="869" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="9"/>
       <c r="C869" s="6"/>
@@ -31245,7 +31248,7 @@
       <c r="AF869" s="8"/>
       <c r="AG869" s="8"/>
     </row>
-    <row r="870" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="9"/>
       <c r="C870" s="6"/>
@@ -31280,7 +31283,7 @@
       <c r="AF870" s="8"/>
       <c r="AG870" s="8"/>
     </row>
-    <row r="871" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="9"/>
       <c r="C871" s="6"/>
@@ -31315,7 +31318,7 @@
       <c r="AF871" s="8"/>
       <c r="AG871" s="8"/>
     </row>
-    <row r="872" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="9"/>
       <c r="C872" s="6"/>
@@ -31350,7 +31353,7 @@
       <c r="AF872" s="8"/>
       <c r="AG872" s="8"/>
     </row>
-    <row r="873" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="9"/>
       <c r="C873" s="6"/>
@@ -31385,7 +31388,7 @@
       <c r="AF873" s="8"/>
       <c r="AG873" s="8"/>
     </row>
-    <row r="874" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="9"/>
       <c r="C874" s="6"/>
@@ -31420,7 +31423,7 @@
       <c r="AF874" s="8"/>
       <c r="AG874" s="8"/>
     </row>
-    <row r="875" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="9"/>
       <c r="C875" s="6"/>
@@ -31455,7 +31458,7 @@
       <c r="AF875" s="8"/>
       <c r="AG875" s="8"/>
     </row>
-    <row r="876" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="9"/>
       <c r="C876" s="6"/>
@@ -31490,7 +31493,7 @@
       <c r="AF876" s="8"/>
       <c r="AG876" s="8"/>
     </row>
-    <row r="877" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="9"/>
       <c r="C877" s="6"/>
@@ -31525,7 +31528,7 @@
       <c r="AF877" s="8"/>
       <c r="AG877" s="8"/>
     </row>
-    <row r="878" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="9"/>
       <c r="C878" s="6"/>
@@ -31560,7 +31563,7 @@
       <c r="AF878" s="8"/>
       <c r="AG878" s="8"/>
     </row>
-    <row r="879" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="9"/>
       <c r="C879" s="6"/>
@@ -31595,7 +31598,7 @@
       <c r="AF879" s="8"/>
       <c r="AG879" s="8"/>
     </row>
-    <row r="880" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="9"/>
       <c r="C880" s="6"/>
@@ -31630,7 +31633,7 @@
       <c r="AF880" s="8"/>
       <c r="AG880" s="8"/>
     </row>
-    <row r="881" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="9"/>
       <c r="C881" s="6"/>
@@ -31665,7 +31668,7 @@
       <c r="AF881" s="8"/>
       <c r="AG881" s="8"/>
     </row>
-    <row r="882" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="9"/>
       <c r="C882" s="6"/>
@@ -31700,7 +31703,7 @@
       <c r="AF882" s="8"/>
       <c r="AG882" s="8"/>
     </row>
-    <row r="883" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="9"/>
       <c r="C883" s="6"/>
@@ -31735,7 +31738,7 @@
       <c r="AF883" s="8"/>
       <c r="AG883" s="8"/>
     </row>
-    <row r="884" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="9"/>
       <c r="C884" s="6"/>
@@ -31770,7 +31773,7 @@
       <c r="AF884" s="8"/>
       <c r="AG884" s="8"/>
     </row>
-    <row r="885" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="9"/>
       <c r="C885" s="6"/>
@@ -31805,7 +31808,7 @@
       <c r="AF885" s="8"/>
       <c r="AG885" s="8"/>
     </row>
-    <row r="886" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="9"/>
       <c r="C886" s="6"/>
@@ -31840,7 +31843,7 @@
       <c r="AF886" s="8"/>
       <c r="AG886" s="8"/>
     </row>
-    <row r="887" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="9"/>
       <c r="C887" s="6"/>
@@ -31875,7 +31878,7 @@
       <c r="AF887" s="8"/>
       <c r="AG887" s="8"/>
     </row>
-    <row r="888" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="9"/>
       <c r="C888" s="6"/>
@@ -31910,7 +31913,7 @@
       <c r="AF888" s="8"/>
       <c r="AG888" s="8"/>
     </row>
-    <row r="889" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="9"/>
       <c r="C889" s="6"/>
@@ -31945,7 +31948,7 @@
       <c r="AF889" s="8"/>
       <c r="AG889" s="8"/>
     </row>
-    <row r="890" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="9"/>
       <c r="C890" s="6"/>
@@ -31980,7 +31983,7 @@
       <c r="AF890" s="8"/>
       <c r="AG890" s="8"/>
     </row>
-    <row r="891" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="9"/>
       <c r="C891" s="6"/>
@@ -32015,7 +32018,7 @@
       <c r="AF891" s="8"/>
       <c r="AG891" s="8"/>
     </row>
-    <row r="892" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="9"/>
       <c r="C892" s="6"/>
@@ -32050,7 +32053,7 @@
       <c r="AF892" s="8"/>
       <c r="AG892" s="8"/>
     </row>
-    <row r="893" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="9"/>
       <c r="C893" s="6"/>
@@ -32085,7 +32088,7 @@
       <c r="AF893" s="8"/>
       <c r="AG893" s="8"/>
     </row>
-    <row r="894" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="9"/>
       <c r="C894" s="6"/>
@@ -32120,7 +32123,7 @@
       <c r="AF894" s="8"/>
       <c r="AG894" s="8"/>
     </row>
-    <row r="895" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="9"/>
       <c r="C895" s="6"/>
@@ -32155,7 +32158,7 @@
       <c r="AF895" s="8"/>
       <c r="AG895" s="8"/>
     </row>
-    <row r="896" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="9"/>
       <c r="C896" s="6"/>
@@ -32190,7 +32193,7 @@
       <c r="AF896" s="8"/>
       <c r="AG896" s="8"/>
     </row>
-    <row r="897" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="9"/>
       <c r="C897" s="6"/>
@@ -32225,7 +32228,7 @@
       <c r="AF897" s="8"/>
       <c r="AG897" s="8"/>
     </row>
-    <row r="898" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="9"/>
       <c r="C898" s="6"/>
@@ -32260,7 +32263,7 @@
       <c r="AF898" s="8"/>
       <c r="AG898" s="8"/>
     </row>
-    <row r="899" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="9"/>
       <c r="C899" s="6"/>
@@ -32295,7 +32298,7 @@
       <c r="AF899" s="8"/>
       <c r="AG899" s="8"/>
     </row>
-    <row r="900" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="9"/>
       <c r="C900" s="6"/>
@@ -32330,7 +32333,7 @@
       <c r="AF900" s="8"/>
       <c r="AG900" s="8"/>
     </row>
-    <row r="901" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="9"/>
       <c r="C901" s="6"/>
@@ -32365,7 +32368,7 @@
       <c r="AF901" s="8"/>
       <c r="AG901" s="8"/>
     </row>
-    <row r="902" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="9"/>
       <c r="C902" s="6"/>
@@ -32400,7 +32403,7 @@
       <c r="AF902" s="8"/>
       <c r="AG902" s="8"/>
     </row>
-    <row r="903" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="9"/>
       <c r="C903" s="6"/>
@@ -32435,7 +32438,7 @@
       <c r="AF903" s="8"/>
       <c r="AG903" s="8"/>
     </row>
-    <row r="904" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="9"/>
       <c r="C904" s="6"/>
@@ -32470,7 +32473,7 @@
       <c r="AF904" s="8"/>
       <c r="AG904" s="8"/>
     </row>
-    <row r="905" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="9"/>
       <c r="C905" s="6"/>
@@ -32505,7 +32508,7 @@
       <c r="AF905" s="8"/>
       <c r="AG905" s="8"/>
     </row>
-    <row r="906" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="9"/>
       <c r="C906" s="6"/>
@@ -32540,7 +32543,7 @@
       <c r="AF906" s="8"/>
       <c r="AG906" s="8"/>
     </row>
-    <row r="907" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="9"/>
       <c r="C907" s="6"/>
@@ -32575,7 +32578,7 @@
       <c r="AF907" s="8"/>
       <c r="AG907" s="8"/>
     </row>
-    <row r="908" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="9"/>
       <c r="C908" s="6"/>
@@ -32610,7 +32613,7 @@
       <c r="AF908" s="8"/>
       <c r="AG908" s="8"/>
     </row>
-    <row r="909" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="9"/>
       <c r="C909" s="6"/>
@@ -32645,7 +32648,7 @@
       <c r="AF909" s="8"/>
       <c r="AG909" s="8"/>
     </row>
-    <row r="910" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="9"/>
       <c r="C910" s="6"/>
@@ -32680,7 +32683,7 @@
       <c r="AF910" s="8"/>
       <c r="AG910" s="8"/>
     </row>
-    <row r="911" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="9"/>
       <c r="C911" s="6"/>
@@ -32715,7 +32718,7 @@
       <c r="AF911" s="8"/>
       <c r="AG911" s="8"/>
     </row>
-    <row r="912" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="9"/>
       <c r="C912" s="6"/>
@@ -32750,7 +32753,7 @@
       <c r="AF912" s="8"/>
       <c r="AG912" s="8"/>
     </row>
-    <row r="913" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="9"/>
       <c r="C913" s="6"/>
@@ -32785,7 +32788,7 @@
       <c r="AF913" s="8"/>
       <c r="AG913" s="8"/>
     </row>
-    <row r="914" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="9"/>
       <c r="C914" s="6"/>
@@ -32820,7 +32823,7 @@
       <c r="AF914" s="8"/>
       <c r="AG914" s="8"/>
     </row>
-    <row r="915" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="9"/>
       <c r="C915" s="6"/>
@@ -32855,7 +32858,7 @@
       <c r="AF915" s="8"/>
       <c r="AG915" s="8"/>
     </row>
-    <row r="916" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="9"/>
       <c r="C916" s="6"/>
@@ -32890,7 +32893,7 @@
       <c r="AF916" s="8"/>
       <c r="AG916" s="8"/>
     </row>
-    <row r="917" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="9"/>
       <c r="C917" s="6"/>
@@ -32925,7 +32928,7 @@
       <c r="AF917" s="8"/>
       <c r="AG917" s="8"/>
     </row>
-    <row r="918" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="9"/>
       <c r="C918" s="6"/>
@@ -32960,7 +32963,7 @@
       <c r="AF918" s="8"/>
       <c r="AG918" s="8"/>
     </row>
-    <row r="919" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="9"/>
       <c r="C919" s="6"/>
@@ -32995,7 +32998,7 @@
       <c r="AF919" s="8"/>
       <c r="AG919" s="8"/>
     </row>
-    <row r="920" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="9"/>
       <c r="C920" s="6"/>
@@ -33030,7 +33033,7 @@
       <c r="AF920" s="8"/>
       <c r="AG920" s="8"/>
     </row>
-    <row r="921" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="9"/>
       <c r="C921" s="6"/>
@@ -33065,7 +33068,7 @@
       <c r="AF921" s="8"/>
       <c r="AG921" s="8"/>
     </row>
-    <row r="922" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="9"/>
       <c r="C922" s="6"/>
@@ -33100,7 +33103,7 @@
       <c r="AF922" s="8"/>
       <c r="AG922" s="8"/>
     </row>
-    <row r="923" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="9"/>
       <c r="C923" s="6"/>
@@ -33135,7 +33138,7 @@
       <c r="AF923" s="8"/>
       <c r="AG923" s="8"/>
     </row>
-    <row r="924" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="9"/>
       <c r="C924" s="6"/>
@@ -33170,7 +33173,7 @@
       <c r="AF924" s="8"/>
       <c r="AG924" s="8"/>
     </row>
-    <row r="925" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="9"/>
       <c r="C925" s="6"/>
@@ -33205,7 +33208,7 @@
       <c r="AF925" s="8"/>
       <c r="AG925" s="8"/>
     </row>
-    <row r="926" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="9"/>
       <c r="C926" s="6"/>
@@ -33240,7 +33243,7 @@
       <c r="AF926" s="8"/>
       <c r="AG926" s="8"/>
     </row>
-    <row r="927" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="9"/>
       <c r="C927" s="6"/>
@@ -33275,7 +33278,7 @@
       <c r="AF927" s="8"/>
       <c r="AG927" s="8"/>
     </row>
-    <row r="928" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="9"/>
       <c r="C928" s="6"/>
@@ -33310,7 +33313,7 @@
       <c r="AF928" s="8"/>
       <c r="AG928" s="8"/>
     </row>
-    <row r="929" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="9"/>
       <c r="C929" s="6"/>
@@ -33345,7 +33348,7 @@
       <c r="AF929" s="8"/>
       <c r="AG929" s="8"/>
     </row>
-    <row r="930" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="9"/>
       <c r="C930" s="6"/>
@@ -33380,7 +33383,7 @@
       <c r="AF930" s="8"/>
       <c r="AG930" s="8"/>
     </row>
-    <row r="931" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="9"/>
       <c r="C931" s="6"/>
@@ -33415,7 +33418,7 @@
       <c r="AF931" s="8"/>
       <c r="AG931" s="8"/>
     </row>
-    <row r="932" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="9"/>
       <c r="C932" s="6"/>
@@ -33450,7 +33453,7 @@
       <c r="AF932" s="8"/>
       <c r="AG932" s="8"/>
     </row>
-    <row r="933" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="9"/>
       <c r="C933" s="6"/>
@@ -33485,7 +33488,7 @@
       <c r="AF933" s="8"/>
       <c r="AG933" s="8"/>
     </row>
-    <row r="934" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="9"/>
       <c r="C934" s="6"/>
@@ -33520,7 +33523,7 @@
       <c r="AF934" s="8"/>
       <c r="AG934" s="8"/>
     </row>
-    <row r="935" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="9"/>
       <c r="C935" s="6"/>
@@ -33555,7 +33558,7 @@
       <c r="AF935" s="8"/>
       <c r="AG935" s="8"/>
     </row>
-    <row r="936" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="9"/>
       <c r="C936" s="6"/>
@@ -33590,7 +33593,7 @@
       <c r="AF936" s="8"/>
       <c r="AG936" s="8"/>
     </row>
-    <row r="937" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="9"/>
       <c r="C937" s="6"/>
@@ -33625,7 +33628,7 @@
       <c r="AF937" s="8"/>
       <c r="AG937" s="8"/>
     </row>
-    <row r="938" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="9"/>
       <c r="C938" s="6"/>
@@ -33660,7 +33663,7 @@
       <c r="AF938" s="8"/>
       <c r="AG938" s="8"/>
     </row>
-    <row r="939" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="9"/>
       <c r="C939" s="6"/>
@@ -33695,7 +33698,7 @@
       <c r="AF939" s="8"/>
       <c r="AG939" s="8"/>
     </row>
-    <row r="940" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="9"/>
       <c r="C940" s="6"/>
@@ -33730,7 +33733,7 @@
       <c r="AF940" s="8"/>
       <c r="AG940" s="8"/>
     </row>
-    <row r="941" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="9"/>
       <c r="C941" s="6"/>
@@ -33765,7 +33768,7 @@
       <c r="AF941" s="8"/>
       <c r="AG941" s="8"/>
     </row>
-    <row r="942" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="9"/>
       <c r="C942" s="6"/>
@@ -33800,7 +33803,7 @@
       <c r="AF942" s="8"/>
       <c r="AG942" s="8"/>
     </row>
-    <row r="943" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="9"/>
       <c r="C943" s="6"/>
@@ -33835,7 +33838,7 @@
       <c r="AF943" s="8"/>
       <c r="AG943" s="8"/>
     </row>
-    <row r="944" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="9"/>
       <c r="C944" s="6"/>
@@ -33870,7 +33873,7 @@
       <c r="AF944" s="8"/>
       <c r="AG944" s="8"/>
     </row>
-    <row r="945" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="9"/>
       <c r="C945" s="6"/>
@@ -33905,7 +33908,7 @@
       <c r="AF945" s="8"/>
       <c r="AG945" s="8"/>
     </row>
-    <row r="946" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="9"/>
       <c r="C946" s="6"/>
@@ -33940,7 +33943,7 @@
       <c r="AF946" s="8"/>
       <c r="AG946" s="8"/>
     </row>
-    <row r="947" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="9"/>
       <c r="C947" s="6"/>
@@ -33975,7 +33978,7 @@
       <c r="AF947" s="8"/>
       <c r="AG947" s="8"/>
     </row>
-    <row r="948" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="9"/>
       <c r="C948" s="6"/>
@@ -34010,7 +34013,7 @@
       <c r="AF948" s="8"/>
       <c r="AG948" s="8"/>
     </row>
-    <row r="949" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="9"/>
       <c r="C949" s="6"/>
@@ -34045,7 +34048,7 @@
       <c r="AF949" s="8"/>
       <c r="AG949" s="8"/>
     </row>
-    <row r="950" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="9"/>
       <c r="C950" s="6"/>
@@ -34080,7 +34083,7 @@
       <c r="AF950" s="8"/>
       <c r="AG950" s="8"/>
     </row>
-    <row r="951" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="9"/>
       <c r="C951" s="6"/>
@@ -34115,7 +34118,7 @@
       <c r="AF951" s="8"/>
       <c r="AG951" s="8"/>
     </row>
-    <row r="952" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="9"/>
       <c r="C952" s="6"/>
@@ -34150,7 +34153,7 @@
       <c r="AF952" s="8"/>
       <c r="AG952" s="8"/>
     </row>
-    <row r="953" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="9"/>
       <c r="C953" s="6"/>
@@ -34185,7 +34188,7 @@
       <c r="AF953" s="8"/>
       <c r="AG953" s="8"/>
     </row>
-    <row r="954" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="9"/>
       <c r="C954" s="6"/>
@@ -34220,7 +34223,7 @@
       <c r="AF954" s="8"/>
       <c r="AG954" s="8"/>
     </row>
-    <row r="955" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="9"/>
       <c r="C955" s="6"/>
@@ -34255,7 +34258,7 @@
       <c r="AF955" s="8"/>
       <c r="AG955" s="8"/>
     </row>
-    <row r="956" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="9"/>
       <c r="C956" s="6"/>
@@ -34290,7 +34293,7 @@
       <c r="AF956" s="8"/>
       <c r="AG956" s="8"/>
     </row>
-    <row r="957" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="9"/>
       <c r="C957" s="6"/>
@@ -34325,7 +34328,7 @@
       <c r="AF957" s="8"/>
       <c r="AG957" s="8"/>
     </row>
-    <row r="958" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="9"/>
       <c r="C958" s="6"/>
@@ -34360,7 +34363,7 @@
       <c r="AF958" s="8"/>
       <c r="AG958" s="8"/>
     </row>
-    <row r="959" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="9"/>
       <c r="C959" s="6"/>
@@ -34395,7 +34398,7 @@
       <c r="AF959" s="8"/>
       <c r="AG959" s="8"/>
     </row>
-    <row r="960" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="9"/>
       <c r="C960" s="6"/>
@@ -34430,7 +34433,7 @@
       <c r="AF960" s="8"/>
       <c r="AG960" s="8"/>
     </row>
-    <row r="961" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="9"/>
       <c r="C961" s="6"/>
@@ -34465,7 +34468,7 @@
       <c r="AF961" s="8"/>
       <c r="AG961" s="8"/>
     </row>
-    <row r="962" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="9"/>
       <c r="C962" s="6"/>
@@ -34500,7 +34503,7 @@
       <c r="AF962" s="8"/>
       <c r="AG962" s="8"/>
     </row>
-    <row r="963" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="9"/>
       <c r="C963" s="6"/>
@@ -34535,7 +34538,7 @@
       <c r="AF963" s="8"/>
       <c r="AG963" s="8"/>
     </row>
-    <row r="964" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="9"/>
       <c r="C964" s="6"/>
@@ -34570,7 +34573,7 @@
       <c r="AF964" s="8"/>
       <c r="AG964" s="8"/>
     </row>
-    <row r="965" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="9"/>
       <c r="C965" s="6"/>
@@ -34605,7 +34608,7 @@
       <c r="AF965" s="8"/>
       <c r="AG965" s="8"/>
     </row>
-    <row r="966" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="9"/>
       <c r="C966" s="6"/>
@@ -34640,7 +34643,7 @@
       <c r="AF966" s="8"/>
       <c r="AG966" s="8"/>
     </row>
-    <row r="967" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="9"/>
       <c r="C967" s="6"/>
@@ -34675,7 +34678,7 @@
       <c r="AF967" s="8"/>
       <c r="AG967" s="8"/>
     </row>
-    <row r="968" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="9"/>
       <c r="C968" s="6"/>
@@ -34710,7 +34713,7 @@
       <c r="AF968" s="8"/>
       <c r="AG968" s="8"/>
     </row>
-    <row r="969" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="9"/>
       <c r="C969" s="6"/>
@@ -34745,7 +34748,7 @@
       <c r="AF969" s="8"/>
       <c r="AG969" s="8"/>
     </row>
-    <row r="970" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="B970" s="9"/>
       <c r="C970" s="6"/>
@@ -34780,7 +34783,7 @@
       <c r="AF970" s="8"/>
       <c r="AG970" s="8"/>
     </row>
-    <row r="971" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="B971" s="9"/>
       <c r="C971" s="6"/>
@@ -34815,7 +34818,7 @@
       <c r="AF971" s="8"/>
       <c r="AG971" s="8"/>
     </row>
-    <row r="972" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="B972" s="9"/>
       <c r="C972" s="6"/>
@@ -34850,7 +34853,7 @@
       <c r="AF972" s="8"/>
       <c r="AG972" s="8"/>
     </row>
-    <row r="973" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="B973" s="9"/>
       <c r="C973" s="6"/>
@@ -34885,7 +34888,7 @@
       <c r="AF973" s="8"/>
       <c r="AG973" s="8"/>
     </row>
-    <row r="974" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="B974" s="9"/>
       <c r="C974" s="6"/>
@@ -34920,7 +34923,7 @@
       <c r="AF974" s="8"/>
       <c r="AG974" s="8"/>
     </row>
-    <row r="975" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
       <c r="B975" s="9"/>
       <c r="C975" s="6"/>
@@ -34955,7 +34958,7 @@
       <c r="AF975" s="8"/>
       <c r="AG975" s="8"/>
     </row>
-    <row r="976" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
       <c r="B976" s="9"/>
       <c r="C976" s="6"/>
@@ -34990,7 +34993,7 @@
       <c r="AF976" s="8"/>
       <c r="AG976" s="8"/>
     </row>
-    <row r="977" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
       <c r="B977" s="9"/>
       <c r="C977" s="6"/>
@@ -35025,7 +35028,7 @@
       <c r="AF977" s="8"/>
       <c r="AG977" s="8"/>
     </row>
-    <row r="978" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
       <c r="B978" s="9"/>
       <c r="C978" s="6"/>
@@ -35060,7 +35063,7 @@
       <c r="AF978" s="8"/>
       <c r="AG978" s="8"/>
     </row>
-    <row r="979" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
       <c r="B979" s="9"/>
       <c r="C979" s="6"/>
@@ -35095,7 +35098,7 @@
       <c r="AF979" s="8"/>
       <c r="AG979" s="8"/>
     </row>
-    <row r="980" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
       <c r="B980" s="9"/>
       <c r="C980" s="6"/>
@@ -35130,7 +35133,7 @@
       <c r="AF980" s="8"/>
       <c r="AG980" s="8"/>
     </row>
-    <row r="981" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
       <c r="B981" s="9"/>
       <c r="C981" s="6"/>
@@ -35165,7 +35168,7 @@
       <c r="AF981" s="8"/>
       <c r="AG981" s="8"/>
     </row>
-    <row r="982" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
       <c r="B982" s="9"/>
       <c r="C982" s="6"/>
@@ -35200,7 +35203,7 @@
       <c r="AF982" s="8"/>
       <c r="AG982" s="8"/>
     </row>
-    <row r="983" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
       <c r="B983" s="9"/>
       <c r="C983" s="6"/>
@@ -35235,7 +35238,7 @@
       <c r="AF983" s="8"/>
       <c r="AG983" s="8"/>
     </row>
-    <row r="984" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
       <c r="B984" s="9"/>
       <c r="C984" s="6"/>
@@ -35270,7 +35273,7 @@
       <c r="AF984" s="8"/>
       <c r="AG984" s="8"/>
     </row>
-    <row r="985" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
       <c r="B985" s="9"/>
       <c r="C985" s="6"/>
@@ -35305,7 +35308,7 @@
       <c r="AF985" s="8"/>
       <c r="AG985" s="8"/>
     </row>
-    <row r="986" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
       <c r="B986" s="9"/>
       <c r="C986" s="6"/>
@@ -35340,7 +35343,7 @@
       <c r="AF986" s="8"/>
       <c r="AG986" s="8"/>
     </row>
-    <row r="987" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
       <c r="B987" s="9"/>
       <c r="C987" s="6"/>
@@ -35375,7 +35378,7 @@
       <c r="AF987" s="8"/>
       <c r="AG987" s="8"/>
     </row>
-    <row r="988" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="1"/>
       <c r="B988" s="9"/>
       <c r="C988" s="6"/>
@@ -35410,7 +35413,7 @@
       <c r="AF988" s="8"/>
       <c r="AG988" s="8"/>
     </row>
-    <row r="989" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="1"/>
       <c r="B989" s="9"/>
       <c r="C989" s="6"/>
@@ -35445,7 +35448,7 @@
       <c r="AF989" s="8"/>
       <c r="AG989" s="8"/>
     </row>
-    <row r="990" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="1"/>
       <c r="B990" s="9"/>
       <c r="C990" s="6"/>
@@ -35480,7 +35483,7 @@
       <c r="AF990" s="8"/>
       <c r="AG990" s="8"/>
     </row>
-    <row r="991" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="1"/>
       <c r="B991" s="9"/>
       <c r="C991" s="6"/>
@@ -35515,7 +35518,7 @@
       <c r="AF991" s="8"/>
       <c r="AG991" s="8"/>
     </row>
-    <row r="992" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="1"/>
       <c r="B992" s="9"/>
       <c r="C992" s="6"/>
@@ -35550,7 +35553,7 @@
       <c r="AF992" s="8"/>
       <c r="AG992" s="8"/>
     </row>
-    <row r="993" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="1"/>
       <c r="B993" s="9"/>
       <c r="C993" s="6"/>
@@ -35585,7 +35588,7 @@
       <c r="AF993" s="8"/>
       <c r="AG993" s="8"/>
     </row>
-    <row r="994" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="1"/>
       <c r="B994" s="9"/>
       <c r="C994" s="6"/>
@@ -35620,7 +35623,7 @@
       <c r="AF994" s="8"/>
       <c r="AG994" s="8"/>
     </row>
-    <row r="995" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="1"/>
       <c r="B995" s="9"/>
       <c r="C995" s="6"/>
@@ -35655,7 +35658,7 @@
       <c r="AF995" s="8"/>
       <c r="AG995" s="8"/>
     </row>
-    <row r="996" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="1"/>
       <c r="B996" s="9"/>
       <c r="C996" s="6"/>
@@ -35690,7 +35693,7 @@
       <c r="AF996" s="8"/>
       <c r="AG996" s="8"/>
     </row>
-    <row r="997" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="1"/>
       <c r="B997" s="9"/>
       <c r="C997" s="6"/>
@@ -35725,7 +35728,7 @@
       <c r="AF997" s="8"/>
       <c r="AG997" s="8"/>
     </row>
-    <row r="998" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="1"/>
       <c r="B998" s="9"/>
       <c r="C998" s="6"/>
@@ -35760,7 +35763,7 @@
       <c r="AF998" s="8"/>
       <c r="AG998" s="8"/>
     </row>
-    <row r="999" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="1"/>
       <c r="B999" s="9"/>
       <c r="C999" s="6"/>
@@ -35795,7 +35798,7 @@
       <c r="AF999" s="8"/>
       <c r="AG999" s="8"/>
     </row>
-    <row r="1000" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="1"/>
       <c r="B1000" s="9"/>
       <c r="C1000" s="6"/>
@@ -35830,7 +35833,7 @@
       <c r="AF1000" s="8"/>
       <c r="AG1000" s="8"/>
     </row>
-    <row r="1001" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1001" s="1"/>
       <c r="B1001" s="9"/>
       <c r="C1001" s="6"/>
@@ -35865,7 +35868,7 @@
       <c r="AF1001" s="8"/>
       <c r="AG1001" s="8"/>
     </row>
-    <row r="1002" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1002" s="1"/>
       <c r="B1002" s="9"/>
       <c r="C1002" s="6"/>
@@ -35900,7 +35903,7 @@
       <c r="AF1002" s="8"/>
       <c r="AG1002" s="8"/>
     </row>
-    <row r="1003" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1003" s="1"/>
       <c r="B1003" s="9"/>
       <c r="C1003" s="6"/>
@@ -35935,7 +35938,7 @@
       <c r="AF1003" s="8"/>
       <c r="AG1003" s="8"/>
     </row>
-    <row r="1004" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1004" s="1"/>
       <c r="B1004" s="9"/>
       <c r="C1004" s="6"/>
@@ -35970,7 +35973,7 @@
       <c r="AF1004" s="8"/>
       <c r="AG1004" s="8"/>
     </row>
-    <row r="1005" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1005" s="1"/>
       <c r="B1005" s="9"/>
       <c r="C1005" s="6"/>
@@ -36005,7 +36008,7 @@
       <c r="AF1005" s="8"/>
       <c r="AG1005" s="8"/>
     </row>
-    <row r="1006" spans="1:33" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1006" s="1"/>
       <c r="B1006" s="9"/>
       <c r="C1006" s="6"/>
@@ -36049,24 +36052,15 @@
       <formula>AND($C3&lt;=F$2,$D3&gt;=F$2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C34:E1006 C3:D33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(C3))), AND(ISNUMBER(C3), LEFT(CELL("format", C3))="D"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E3:E33" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E33</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Orga/gantt-chart.xlsx
+++ b/Orga/gantt-chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lara\Thesis\MasterThesis\Orga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lara\Thesis\Orga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6361277-E1E6-48BB-BB04-CFFB4A98C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B973F9A-8DFB-463D-9330-6C47F2205D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="750" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Status</t>
   </si>
@@ -560,7 +560,7 @@
   <dimension ref="A1:AG1006"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI37" sqref="AI37"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -689,7 +689,7 @@
         <v>45579</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -775,7 +775,7 @@
         <v>45551</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1248,7 +1248,7 @@
         <v>45628</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1291,7 +1291,7 @@
         <v>45684</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1883,10 +1883,18 @@
     </row>
     <row r="31" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
+      <c r="B31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6">
+        <v>45579</v>
+      </c>
+      <c r="D31" s="6">
+        <v>45593</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>

--- a/Orga/gantt-chart.xlsx
+++ b/Orga/gantt-chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lara\Thesis\Orga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B973F9A-8DFB-463D-9330-6C47F2205D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E575D9-E912-4295-A12D-80B209ACADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4635" yWindow="750" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:AG1006"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1076,7 @@
         <v>45607</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1334,7 +1334,7 @@
         <v>45607</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1377,7 +1377,7 @@
         <v>45642</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1420,7 +1420,7 @@
         <v>45649</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1463,7 +1463,7 @@
         <v>45663</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1506,7 +1506,7 @@
         <v>45670</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1549,7 +1549,7 @@
         <v>45670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>

--- a/Orga/gantt-chart.xlsx
+++ b/Orga/gantt-chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lara\Thesis\Orga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lara\Thesis\MasterThesis\Orga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E575D9-E912-4295-A12D-80B209ACADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0C3CB2-FE9E-4418-8DD8-024E4B6775B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="750" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="1440" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>Status</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>LLMS in Optimization</t>
-  </si>
-  <si>
-    <t>User Centric Optimization</t>
   </si>
   <si>
     <t>Konzeptionierung</t>
@@ -104,16 +101,10 @@
     <t>LLM Integration</t>
   </si>
   <si>
-    <t>XAI</t>
-  </si>
-  <si>
     <t>XAI Integration</t>
   </si>
   <si>
     <t>Testing</t>
-  </si>
-  <si>
-    <t>Case Study?</t>
   </si>
   <si>
     <t>Evaluation</t>
@@ -138,6 +129,27 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>XAI, Chain of Thought</t>
+  </si>
+  <si>
+    <t>XAI, Critical Questions</t>
+  </si>
+  <si>
+    <t>XAI, Tree of Thought</t>
+  </si>
+  <si>
+    <t>Case Study</t>
+  </si>
+  <si>
+    <t>Konzeption</t>
+  </si>
+  <si>
+    <t>Durchführung</t>
+  </si>
+  <si>
+    <t>Explainable AI, CoT</t>
   </si>
 </sst>
 </file>
@@ -232,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -256,6 +268,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,10 +572,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG1006"/>
+  <dimension ref="A1:AG1009"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -575,7 +590,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="60.75" x14ac:dyDescent="0.2">
@@ -689,7 +704,7 @@
         <v>45579</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -732,7 +747,7 @@
         <v>45544</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -775,7 +790,7 @@
         <v>45551</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -818,7 +833,7 @@
         <v>45551</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -861,7 +876,7 @@
         <v>45558</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -894,17 +909,17 @@
     </row>
     <row r="8" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="D8" s="6">
-        <v>45572</v>
+        <v>45628</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -937,17 +952,17 @@
     </row>
     <row r="9" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="6">
         <v>45579</v>
       </c>
       <c r="D9" s="6">
-        <v>45628</v>
+        <v>45600</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
+      <c r="E9" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -990,7 +1005,7 @@
         <v>45600</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1027,13 +1042,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="6">
-        <v>45579</v>
+        <v>45586</v>
       </c>
       <c r="D11" s="6">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1075,8 +1090,8 @@
       <c r="D12" s="6">
         <v>45607</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>34</v>
+      <c r="E12" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1118,8 +1133,8 @@
       <c r="D13" s="6">
         <v>45607</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>34</v>
+      <c r="E13" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1156,13 +1171,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="6">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="D14" s="6">
-        <v>45607</v>
+        <v>45621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1196,16 +1211,16 @@
     <row r="15" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C15" s="6">
         <v>45607</v>
       </c>
       <c r="D15" s="6">
-        <v>45621</v>
+        <v>45628</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1238,17 +1253,17 @@
     </row>
     <row r="16" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
-        <v>8</v>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="6">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="D16" s="6">
-        <v>45628</v>
+        <v>45684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1281,17 +1296,17 @@
     </row>
     <row r="17" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="6">
         <v>45600</v>
       </c>
       <c r="D17" s="6">
-        <v>45684</v>
+        <v>45607</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1328,13 +1343,13 @@
         <v>20</v>
       </c>
       <c r="C18" s="6">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="D18" s="6">
-        <v>45607</v>
+        <v>45642</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1368,16 +1383,16 @@
     <row r="19" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6">
-        <v>45607</v>
+        <v>45614</v>
       </c>
       <c r="D19" s="6">
-        <v>45642</v>
+        <v>45649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1411,16 +1426,16 @@
     <row r="20" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6">
-        <v>45614</v>
+        <v>45642</v>
       </c>
       <c r="D20" s="6">
-        <v>45649</v>
+        <v>45663</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1454,16 +1469,16 @@
     <row r="21" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6">
-        <v>45642</v>
+        <v>45649</v>
       </c>
       <c r="D21" s="6">
-        <v>45663</v>
+        <v>45670</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1497,7 +1512,7 @@
     <row r="22" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C22" s="6">
         <v>45649</v>
@@ -1506,7 +1521,7 @@
         <v>45670</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1540,7 +1555,7 @@
     <row r="23" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6">
         <v>45649</v>
@@ -1549,7 +1564,7 @@
         <v>45670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1583,7 +1598,7 @@
     <row r="24" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C24" s="6">
         <v>45649</v>
@@ -1592,7 +1607,7 @@
         <v>45670</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1626,16 +1641,16 @@
     <row r="25" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C25" s="6">
+        <v>45649</v>
+      </c>
+      <c r="D25" s="6">
         <v>45670</v>
       </c>
-      <c r="D25" s="6">
-        <v>45684</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>1</v>
+      <c r="E25" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1668,14 +1683,14 @@
     </row>
     <row r="26" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="11" t="s">
-        <v>26</v>
+      <c r="B26" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C26" s="6">
-        <v>45663</v>
+        <v>45670</v>
       </c>
       <c r="D26" s="6">
-        <v>45691</v>
+        <v>45684</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>1</v>
@@ -1712,7 +1727,7 @@
     <row r="27" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C27" s="6">
         <v>45663</v>
@@ -1720,8 +1735,8 @@
       <c r="D27" s="6">
         <v>45691</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>1</v>
+      <c r="E27" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1755,16 +1770,16 @@
     <row r="28" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6">
-        <v>45663</v>
+        <v>45628</v>
       </c>
       <c r="D28" s="6">
         <v>45691</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>1</v>
+      <c r="E28" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -1798,7 +1813,7 @@
     <row r="29" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6">
         <v>45663</v>
@@ -1806,8 +1821,8 @@
       <c r="D29" s="6">
         <v>45691</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>1</v>
+      <c r="E29" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1841,13 +1856,13 @@
     <row r="30" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C30" s="6">
-        <v>45691</v>
+        <v>45663</v>
       </c>
       <c r="D30" s="6">
-        <v>45716</v>
+        <v>45691</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>1</v>
@@ -1884,16 +1899,16 @@
     <row r="31" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C31" s="6">
-        <v>45579</v>
+        <v>45663</v>
       </c>
       <c r="D31" s="6">
-        <v>45593</v>
+        <v>45691</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -1926,10 +1941,18 @@
     </row>
     <row r="32" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
+      <c r="B32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="6">
+        <v>45663</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45691</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -1961,10 +1984,18 @@
     </row>
     <row r="33" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
+      <c r="B33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="6">
+        <v>45691</v>
+      </c>
+      <c r="D33" s="6">
+        <v>45716</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1996,10 +2027,18 @@
     </row>
     <row r="34" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6">
+        <v>45628</v>
+      </c>
+      <c r="D34" s="6">
+        <v>45649</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2031,12 +2070,10 @@
     </row>
     <row r="35" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -2068,10 +2105,10 @@
     </row>
     <row r="36" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2138,7 +2175,9 @@
     </row>
     <row r="38" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -36051,8 +36090,113 @@
       <c r="AF1006" s="8"/>
       <c r="AG1006" s="8"/>
     </row>
+    <row r="1007" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="9"/>
+      <c r="C1007" s="6"/>
+      <c r="D1007" s="6"/>
+      <c r="E1007" s="6"/>
+      <c r="F1007" s="8"/>
+      <c r="G1007" s="8"/>
+      <c r="H1007" s="8"/>
+      <c r="I1007" s="8"/>
+      <c r="J1007" s="8"/>
+      <c r="K1007" s="8"/>
+      <c r="L1007" s="8"/>
+      <c r="M1007" s="8"/>
+      <c r="N1007" s="8"/>
+      <c r="O1007" s="8"/>
+      <c r="P1007" s="8"/>
+      <c r="Q1007" s="8"/>
+      <c r="R1007" s="8"/>
+      <c r="S1007" s="8"/>
+      <c r="T1007" s="8"/>
+      <c r="U1007" s="8"/>
+      <c r="V1007" s="8"/>
+      <c r="W1007" s="8"/>
+      <c r="X1007" s="8"/>
+      <c r="Y1007" s="8"/>
+      <c r="Z1007" s="8"/>
+      <c r="AA1007" s="8"/>
+      <c r="AB1007" s="8"/>
+      <c r="AC1007" s="8"/>
+      <c r="AD1007" s="8"/>
+      <c r="AE1007" s="8"/>
+      <c r="AF1007" s="8"/>
+      <c r="AG1007" s="8"/>
+    </row>
+    <row r="1008" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="9"/>
+      <c r="C1008" s="6"/>
+      <c r="D1008" s="6"/>
+      <c r="E1008" s="6"/>
+      <c r="F1008" s="8"/>
+      <c r="G1008" s="8"/>
+      <c r="H1008" s="8"/>
+      <c r="I1008" s="8"/>
+      <c r="J1008" s="8"/>
+      <c r="K1008" s="8"/>
+      <c r="L1008" s="8"/>
+      <c r="M1008" s="8"/>
+      <c r="N1008" s="8"/>
+      <c r="O1008" s="8"/>
+      <c r="P1008" s="8"/>
+      <c r="Q1008" s="8"/>
+      <c r="R1008" s="8"/>
+      <c r="S1008" s="8"/>
+      <c r="T1008" s="8"/>
+      <c r="U1008" s="8"/>
+      <c r="V1008" s="8"/>
+      <c r="W1008" s="8"/>
+      <c r="X1008" s="8"/>
+      <c r="Y1008" s="8"/>
+      <c r="Z1008" s="8"/>
+      <c r="AA1008" s="8"/>
+      <c r="AB1008" s="8"/>
+      <c r="AC1008" s="8"/>
+      <c r="AD1008" s="8"/>
+      <c r="AE1008" s="8"/>
+      <c r="AF1008" s="8"/>
+      <c r="AG1008" s="8"/>
+    </row>
+    <row r="1009" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1009" s="1"/>
+      <c r="B1009" s="9"/>
+      <c r="C1009" s="6"/>
+      <c r="D1009" s="6"/>
+      <c r="E1009" s="6"/>
+      <c r="F1009" s="8"/>
+      <c r="G1009" s="8"/>
+      <c r="H1009" s="8"/>
+      <c r="I1009" s="8"/>
+      <c r="J1009" s="8"/>
+      <c r="K1009" s="8"/>
+      <c r="L1009" s="8"/>
+      <c r="M1009" s="8"/>
+      <c r="N1009" s="8"/>
+      <c r="O1009" s="8"/>
+      <c r="P1009" s="8"/>
+      <c r="Q1009" s="8"/>
+      <c r="R1009" s="8"/>
+      <c r="S1009" s="8"/>
+      <c r="T1009" s="8"/>
+      <c r="U1009" s="8"/>
+      <c r="V1009" s="8"/>
+      <c r="W1009" s="8"/>
+      <c r="X1009" s="8"/>
+      <c r="Y1009" s="8"/>
+      <c r="Z1009" s="8"/>
+      <c r="AA1009" s="8"/>
+      <c r="AB1009" s="8"/>
+      <c r="AC1009" s="8"/>
+      <c r="AD1009" s="8"/>
+      <c r="AE1009" s="8"/>
+      <c r="AF1009" s="8"/>
+      <c r="AG1009" s="8"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:AG1006">
+  <conditionalFormatting sqref="F3:AG1009">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
@@ -36061,10 +36205,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C34:E1006 C3:D33" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C37:E1009 C3:D36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(C3))), AND(ISNUMBER(C3), LEFT(CELL("format", C3))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E33" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E36" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
